--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Instances" sheetId="4" r:id="rId7"/>
     <sheet name="BlockVols" sheetId="5" r:id="rId8"/>
     <sheet name="Tags" sheetId="6" r:id="rId9"/>
+    <sheet name="AddRouteRules" sheetId="11" r:id="rId10"/>
+    <sheet name="AddSecRules" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
   <si>
     <t>Regional</t>
   </si>
@@ -428,6 +430,40 @@
   </si>
   <si>
     <t>OCI_Admins,Network_Admins</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Destination CIDR</t>
+  </si>
+  <si>
+    <t>Route Destination Object</t>
+  </si>
+  <si>
+    <t>Destination Type</t>
+  </si>
+  <si>
+    <t>Subnet Name</t>
+  </si>
+  <si>
+    <t>20.20.30.30/32</t>
+  </si>
+  <si>
+    <t>${oci_core_internet_gateway.PHXHub-VCN_igw.id}</t>
+  </si>
+  <si>
+    <t>CIDR_BLOCK</t>
+  </si>
+  <si>
+    <t>10.10.20.20/32</t>
+  </si>
+  <si>
+    <t>ocid1.natgateway.oc1.phx.aaaaaaaakuonwsamojrjwyt5xlezkup7k4rtdpjrajfzgzjfmvcq5gtwgkba</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again</t>
   </si>
 </sst>
 </file>
@@ -937,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1031,6 +1067,109 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>Regional</t>
   </si>
@@ -432,9 +432,6 @@
     <t>OCI_Admins,Network_Admins</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Destination CIDR</t>
   </si>
   <si>
@@ -464,6 +461,57 @@
   <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again</t>
+  </si>
+  <si>
+    <t>SubnetName</t>
+  </si>
+  <si>
+    <t>RuleType</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>isStateless</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>SPortMin</t>
+  </si>
+  <si>
+    <t>SPortMax</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>DPortMin</t>
+  </si>
+  <si>
+    <t>DPortMax</t>
+  </si>
+  <si>
+    <t>ICMPType</t>
+  </si>
+  <si>
+    <t>ICMPCode</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again</t>
+  </si>
+  <si>
+    <t>prod-lb</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>10.89.0.0/16</t>
   </si>
 </sst>
 </file>
@@ -535,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -613,11 +661,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -666,6 +725,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1150,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1096,16 +1158,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,13 +1175,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,13 +1189,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,20 +1217,155 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>123</v>
+      </c>
+      <c r="J3" s="1">
+        <v>234</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>Regional</t>
   </si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again</t>
-  </si>
-  <si>
-    <t>prod-lb</t>
   </si>
   <si>
     <t>ingress</t>
@@ -1292,19 +1289,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1335,7 +1332,9 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="AddRouteRules" sheetId="11" r:id="rId10"/>
     <sheet name="AddSecRules" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>Regional</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>spoke</t>
-  </si>
-  <si>
-    <t>compartment_var_name</t>
   </si>
   <si>
     <t>subnet_name</t>
@@ -315,9 +312,6 @@
   </si>
   <si>
     <t>Shape</t>
-  </si>
-  <si>
-    <t>Compartment Var Name</t>
   </si>
   <si>
     <t>FAULT-DOMAIN-3</t>
@@ -509,6 +503,9 @@
   </si>
   <si>
     <t>10.89.0.0/16</t>
+  </si>
+  <si>
+    <t>compartment_name</t>
   </si>
 </sst>
 </file>
@@ -1045,73 +1042,73 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1147,7 +1144,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1155,30 +1152,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,18 +1183,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1216,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1232,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1251,40 +1248,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1292,16 +1289,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1385,49 +1382,49 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1"/>
     </row>
@@ -1459,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1469,39 +1466,39 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1510,13 +1507,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,22 +1526,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,16 +1549,16 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1574,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1716,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,34 +1735,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1876,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1910,10 +1907,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1930,7 +1927,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,34 +1948,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1986,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -2001,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -2027,7 +2024,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,22 +2039,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,22 +2125,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,76 +2148,76 @@
         <v>29</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="20"/>
       <c r="C5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2230,7 +2227,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2240,7 +2237,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -2250,7 +2247,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -2270,7 +2267,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2280,7 +2277,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2290,7 +2287,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -2300,7 +2297,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -2310,7 +2307,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -2320,7 +2317,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2330,7 +2327,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1"/>
     </row>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1363,6 +1363,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1927,7 +1928,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
@@ -2120,7 +2121,7 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>Allow group $ to read all-resources in tenancy</t>
   </si>
   <si>
-    <t>Allow group $ to manage all-resources in comaprtment *</t>
-  </si>
-  <si>
     <t>InstancePolicy</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
   </si>
   <si>
     <t>Instance Manage</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage instance-family in comaprtment *</t>
   </si>
   <si>
     <t>PolicyStatementCompartment</t>
@@ -506,6 +500,12 @@
   </si>
   <si>
     <t>compartment_name</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage all-resources in compartment *</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage instance-family in compartment *</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1144,7 +1144,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,13 +1169,13 @@
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,13 +1183,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1248,40 +1248,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,16 +1289,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1457,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1470,7 +1470,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>97</v>
@@ -1479,10 +1479,10 @@
         <v>114</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>118</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1508,7 +1508,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>110</v>
@@ -1527,22 +1527,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>55</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
   <si>
     <t>Regional</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>Allow group $ to manage instance-family in compartment *</t>
+  </si>
+  <si>
+    <t>Backup Policy</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -723,6 +729,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1925,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,12 +1952,12 @@
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -1978,8 +1988,11 @@
       <c r="J1" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2010,9 +2023,12 @@
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
     </row>
   </sheetData>
@@ -2022,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2054,7 @@
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2073,11 @@
       <c r="F1" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2077,8 +2096,11 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2086,7 +2108,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2094,7 +2116,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
   <si>
     <t>Regional</t>
   </si>
@@ -86,9 +86,6 @@
     <t>iscsi</t>
   </si>
   <si>
-    <t>nonprod_compartment_ocid</t>
-  </si>
-  <si>
     <t>qa-app</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>10.110.255.226,10.110.255.227</t>
-  </si>
-  <si>
-    <t>ntk_compartment_ocid</t>
   </si>
   <si>
     <t>PHXHub-VCN</t>
@@ -702,6 +696,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -729,10 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,7 +1034,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,74 +1045,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1153,58 +1147,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1241,74 +1235,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1324,7 +1318,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1340,7 +1334,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1392,50 +1386,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1"/>
     </row>
@@ -1466,50 +1460,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1518,13 +1512,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,22 +1531,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,16 +1554,16 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1579,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,30 +1629,30 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -1667,30 +1661,33 @@
         <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -1699,7 +1696,10 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1746,45 +1746,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1796,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1884,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1898,33 +1898,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1937,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,37 +1959,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2000,31 +2000,31 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,25 +2056,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>158</v>
+        <v>99</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,209 +2148,209 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1"/>
     </row>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -16,15 +16,17 @@
     <sheet name="Instances" sheetId="4" r:id="rId7"/>
     <sheet name="BlockVols" sheetId="5" r:id="rId8"/>
     <sheet name="Tags" sheetId="6" r:id="rId9"/>
-    <sheet name="AddRouteRules" sheetId="11" r:id="rId10"/>
-    <sheet name="AddSecRules" sheetId="12" r:id="rId11"/>
+    <sheet name="TagServer" sheetId="13" r:id="rId10"/>
+    <sheet name="TagVolume" sheetId="14" r:id="rId11"/>
+    <sheet name="AddRouteRules" sheetId="11" r:id="rId12"/>
+    <sheet name="AddSecRules" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
   <si>
     <t>Regional</t>
   </si>
@@ -506,6 +508,36 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Shruthi</t>
+  </si>
+  <si>
+    <t>Demo=True</t>
+  </si>
+  <si>
+    <t>Windows2012R2=True</t>
+  </si>
+  <si>
+    <t>HubPublicSub=True</t>
+  </si>
+  <si>
+    <t>dev=True</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>VolumeName</t>
+  </si>
+  <si>
+    <t>Shruthi_disk2</t>
+  </si>
+  <si>
+    <t>Lakshmi_disk2</t>
   </si>
 </sst>
 </file>
@@ -670,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -727,6 +759,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,6 +1168,143 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1213,7 +1386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -1937,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
   <si>
     <t>Regional</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>Lakshmi_disk2</t>
+  </si>
+  <si>
+    <t>WindowsLatest</t>
   </si>
 </sst>
 </file>
@@ -732,6 +735,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -759,10 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,11 +1084,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1177,53 +1180,53 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1236,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -1248,53 +1251,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1320,12 +1323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1408,20 +1411,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1559,10 +1562,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1633,14 +1636,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2110,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -2340,10 +2343,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2360,8 +2363,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
@@ -2376,8 +2379,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
@@ -2392,8 +2395,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="10" t="s">
         <v>71</v>
       </c>
@@ -2406,8 +2409,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="12" t="s">
         <v>73</v>
       </c>
@@ -2418,8 +2421,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -2428,8 +2431,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="11" t="s">
@@ -2438,8 +2441,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -2448,8 +2451,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="11" t="s">
@@ -2458,8 +2461,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -2468,8 +2471,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -2478,8 +2481,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -2488,8 +2491,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -2498,8 +2501,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -2508,8 +2511,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="11" t="s">
@@ -2518,8 +2521,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="171">
   <si>
     <t>Regional</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t>WindowsLatest</t>
+  </si>
+  <si>
+    <t>dns_label</t>
+  </si>
+  <si>
+    <t>phxhub</t>
+  </si>
+  <si>
+    <t>phxad</t>
   </si>
 </sst>
 </file>
@@ -705,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -766,6 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1783,7 @@
     <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1817,11 @@
       <c r="K1" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1842,8 +1855,11 @@
       <c r="K2" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1878,19 +1894,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,9 +1934,10 @@
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>152</v>
       </c>
@@ -1951,8 +1968,11 @@
       <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1983,8 +2003,11 @@
       <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1996,7 +2019,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2008,7 +2031,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2020,7 +2043,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2113,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="TagVolume" sheetId="14" r:id="rId11"/>
     <sheet name="AddRouteRules" sheetId="11" r:id="rId12"/>
     <sheet name="AddSecRules" sheetId="12" r:id="rId13"/>
+    <sheet name="RouteRulesinOCI" sheetId="16" r:id="rId14"/>
+    <sheet name="SecRulesinOCI" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
   <si>
     <t>Regional</t>
   </si>
@@ -748,6 +750,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -775,7 +778,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,11 +1096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1321,7 +1323,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,12 +1335,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1404,7 +1406,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,20 +1423,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1554,6 +1556,88 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1572,10 +1656,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1646,14 +1730,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1918,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2087,7 @@
       <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="21" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2018,6 +2102,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2030,6 +2115,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2042,6 +2128,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2054,6 +2141,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,7 +2328,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,10 +2454,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2386,8 +2474,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
@@ -2402,8 +2490,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
@@ -2418,8 +2506,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="10" t="s">
         <v>71</v>
       </c>
@@ -2432,8 +2520,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="12" t="s">
         <v>73</v>
       </c>
@@ -2444,8 +2532,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -2454,8 +2542,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="11" t="s">
@@ -2464,8 +2552,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -2474,8 +2562,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="11" t="s">
@@ -2484,8 +2572,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -2494,8 +2582,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -2504,8 +2592,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -2514,8 +2602,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -2524,8 +2612,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -2534,8 +2622,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="11" t="s">
@@ -2544,8 +2632,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
   <si>
     <t>Regional</t>
   </si>
@@ -552,13 +552,16 @@
   </si>
   <si>
     <t>phxad</t>
+  </si>
+  <si>
+    <t>VCN Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +598,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -716,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -777,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,79 +1573,107 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>128</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="13" t="s">
         <v>147</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="181">
   <si>
     <t>Regional</t>
   </si>
@@ -198,9 +198,6 @@
     <t>TagNamespace</t>
   </si>
   <si>
-    <t>RyderApplication</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>qa</t>
   </si>
   <si>
-    <t>ACS</t>
-  </si>
-  <si>
     <t>OL76</t>
   </si>
   <si>
@@ -249,13 +243,7 @@
     <t>dr</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>prod</t>
-  </si>
-  <si>
-    <t>NFS</t>
   </si>
   <si>
     <t>dr-db-clnt</t>
@@ -521,12 +509,6 @@
     <t>Demo=True</t>
   </si>
   <si>
-    <t>Windows2012R2=True</t>
-  </si>
-  <si>
-    <t>HubPublicSub=True</t>
-  </si>
-  <si>
     <t>dev=True</t>
   </si>
   <si>
@@ -555,6 +537,51 @@
   </si>
   <si>
     <t>VCN Name</t>
+  </si>
+  <si>
+    <t># VCN names should be unique; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
+  </si>
+  <si>
+    <t># subnet names should be unique; All fields are mandatory for each subnet except dns_label for which the default value issubnet_name truncated to 15 chars</t>
+  </si>
+  <si>
+    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
+  </si>
+  <si>
+    <t># Make sure to enter exact name in attached_to_instance column as entered in Hostname of Instances sheet;Backup Policy column can be left blank at the timeof block vol creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Windows2012=True</t>
+  </si>
+  <si>
+    <t>Windows2012=</t>
+  </si>
+  <si>
+    <t>Demo=</t>
+  </si>
+  <si>
+    <t>qa-dmz=</t>
+  </si>
+  <si>
+    <t>qa-app=true</t>
+  </si>
+  <si>
+    <t>qa-dmz=true</t>
+  </si>
+  <si>
+    <t>#Hostname represents instance to which tagging needs tp be assigned; It should match the one entered in instances sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
+  </si>
+  <si>
+    <t>#VolumeName represents instance to which tagging needs tp be assigned; It should match the one entered in BlockVols sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
   </si>
 </sst>
 </file>
@@ -632,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -694,15 +721,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -721,11 +739,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -760,16 +815,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,14 +839,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,74 +1175,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1195,137 +1262,170 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>162</v>
+      <c r="B4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1347,39 +1447,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,18 +1487,18 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1417,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,56 +1536,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+        <v>144</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1493,16 +1593,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1518,7 +1618,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1534,7 +1634,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1591,22 +1691,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1634,46 +1734,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>121</v>
+      <c r="M1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1696,50 +1796,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1"/>
     </row>
@@ -1770,50 +1870,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1822,13 +1922,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,22 +1941,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,16 +1964,16 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1886,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,91 +2007,69 @@
     <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>169</v>
+      <c r="K2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -2000,13 +2078,13 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -2015,10 +2093,48 @@
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>93</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2029,10 +2145,40 @@
     <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2040,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,88 +2207,90 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="K2" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2183,7 +2331,23 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2191,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,38 +2370,30 @@
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,16 +2401,36 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2262,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,91 +2460,121 @@
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="b">
+      <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,59 +2587,62 @@
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>302</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>302</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2451,248 +2660,266 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="C3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="11" t="s">
-        <v>76</v>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
+      <c r="E9" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="11" t="s">
-        <v>33</v>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
+      <c r="E14" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="11" t="s">
-        <v>83</v>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="28"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
+      <c r="E17" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="F17" s="1"/>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="A2:A17"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
-    <hyperlink ref="E10" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="E12" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="E13" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
+    <hyperlink ref="E11" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E14" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -433,155 +433,157 @@
     <t>ocid1.natgateway.oc1.phx.aaaaaaaakuonwsamojrjwyt5xlezkup7k4rtdpjrajfzgzjfmvcq5gtwgkba</t>
   </si>
   <si>
+    <t>SubnetName</t>
+  </si>
+  <si>
+    <t>RuleType</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>isStateless</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>SPortMin</t>
+  </si>
+  <si>
+    <t>SPortMax</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>DPortMin</t>
+  </si>
+  <si>
+    <t>DPortMax</t>
+  </si>
+  <si>
+    <t>ICMPType</t>
+  </si>
+  <si>
+    <t>ICMPCode</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>10.89.0.0/16</t>
+  </si>
+  <si>
+    <t>compartment_name</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage all-resources in compartment *</t>
+  </si>
+  <si>
+    <t>Allow group $ to manage instance-family in compartment *</t>
+  </si>
+  <si>
+    <t>Backup Policy</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Shruthi</t>
+  </si>
+  <si>
+    <t>Demo=True</t>
+  </si>
+  <si>
+    <t>dev=True</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>VolumeName</t>
+  </si>
+  <si>
+    <t>Shruthi_disk2</t>
+  </si>
+  <si>
+    <t>Lakshmi_disk2</t>
+  </si>
+  <si>
+    <t>WindowsLatest</t>
+  </si>
+  <si>
+    <t>dns_label</t>
+  </si>
+  <si>
+    <t>phxhub</t>
+  </si>
+  <si>
+    <t>phxad</t>
+  </si>
+  <si>
+    <t>VCN Name</t>
+  </si>
+  <si>
+    <t># VCN names should be unique; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
+  </si>
+  <si>
+    <t># subnet names should be unique; All fields are mandatory for each subnet except dns_label for which the default value issubnet_name truncated to 15 chars</t>
+  </si>
+  <si>
+    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
+  </si>
+  <si>
+    <t># Make sure to enter exact name in attached_to_instance column as entered in Hostname of Instances sheet;Backup Policy column can be left blank at the timeof block vol creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Windows2012=True</t>
+  </si>
+  <si>
+    <t>Windows2012=</t>
+  </si>
+  <si>
+    <t>Demo=</t>
+  </si>
+  <si>
+    <t>qa-dmz=</t>
+  </si>
+  <si>
+    <t>qa-app=true</t>
+  </si>
+  <si>
+    <t>qa-dmz=true</t>
+  </si>
+  <si>
+    <t>#Hostname represents instance to which tagging needs tp be assigned; It should match the one entered in instances sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
+  </si>
+  <si>
+    <t>#VolumeName represents instance to which tagging needs tp be assigned; It should match the one entered in BlockVols sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI</t>
+  </si>
+  <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again</t>
-  </si>
-  <si>
-    <t>SubnetName</t>
-  </si>
-  <si>
-    <t>RuleType</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>isStateless</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>SPortMin</t>
-  </si>
-  <si>
-    <t>SPortMax</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>DPortMin</t>
-  </si>
-  <si>
-    <t>DPortMax</t>
-  </si>
-  <si>
-    <t>ICMPType</t>
-  </si>
-  <si>
-    <t>ICMPCode</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again</t>
-  </si>
-  <si>
-    <t>ingress</t>
-  </si>
-  <si>
-    <t>tcp</t>
-  </si>
-  <si>
-    <t>10.89.0.0/16</t>
-  </si>
-  <si>
-    <t>compartment_name</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage all-resources in compartment *</t>
-  </si>
-  <si>
-    <t>Allow group $ to manage instance-family in compartment *</t>
-  </si>
-  <si>
-    <t>Backup Policy</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Shruthi</t>
-  </si>
-  <si>
-    <t>Demo=True</t>
-  </si>
-  <si>
-    <t>dev=True</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>VolumeName</t>
-  </si>
-  <si>
-    <t>Shruthi_disk2</t>
-  </si>
-  <si>
-    <t>Lakshmi_disk2</t>
-  </si>
-  <si>
-    <t>WindowsLatest</t>
-  </si>
-  <si>
-    <t>dns_label</t>
-  </si>
-  <si>
-    <t>phxhub</t>
-  </si>
-  <si>
-    <t>phxad</t>
-  </si>
-  <si>
-    <t>VCN Name</t>
-  </si>
-  <si>
-    <t># VCN names should be unique; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
-  </si>
-  <si>
-    <t># subnet names should be unique; All fields are mandatory for each subnet except dns_label for which the default value issubnet_name truncated to 15 chars</t>
-  </si>
-  <si>
-    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
-    <t># Make sure to enter exact name in attached_to_instance column as entered in Hostname of Instances sheet;Backup Policy column can be left blank at the timeof block vol creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server</t>
-  </si>
-  <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Windows2012=True</t>
-  </si>
-  <si>
-    <t>Windows2012=</t>
-  </si>
-  <si>
-    <t>Demo=</t>
-  </si>
-  <si>
-    <t>qa-dmz=</t>
-  </si>
-  <si>
-    <t>qa-app=true</t>
-  </si>
-  <si>
-    <t>qa-dmz=true</t>
-  </si>
-  <si>
-    <t>#Hostname represents instance to which tagging needs tp be assigned; It should match the one entered in instances sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
-  </si>
-  <si>
-    <t>#VolumeName represents instance to which tagging needs tp be assigned; It should match the one entered in BlockVols sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI</t>
   </si>
 </sst>
 </file>
@@ -830,6 +832,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,23 +850,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1291,7 +1293,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>54</v>
@@ -1305,36 +1307,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1373,10 +1375,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>54</v>
@@ -1390,36 +1392,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1437,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,9 +1448,9 @@
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1518,7 +1520,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,9 +1536,9 @@
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>144</v>
+    <row r="1" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1552,40 +1554,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1593,16 +1595,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1703,7 +1705,7 @@
         <v>124</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>117</v>
@@ -1734,43 +1736,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="M1" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>117</v>
@@ -1922,7 +1924,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>104</v>
@@ -1950,7 +1952,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>106</v>
@@ -2008,20 +2010,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2055,10 +2057,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2096,7 +2098,7 @@
         <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2208,23 +2210,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2254,7 +2256,7 @@
         <v>51</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2289,7 +2291,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2371,13 +2373,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2461,19 +2463,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2507,7 +2509,7 @@
         <v>117</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -2542,7 +2544,7 @@
         <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2588,15 +2590,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2615,10 +2617,10 @@
         <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2641,7 +2643,7 @@
         <v>95</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2694,7 +2696,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2704,13 +2706,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>54</v>
@@ -2723,10 +2725,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2743,8 +2745,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
@@ -2759,10 +2761,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
@@ -2775,8 +2777,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -2787,8 +2789,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -2797,8 +2799,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -2807,8 +2809,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
@@ -2817,8 +2819,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -2827,8 +2829,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -2837,8 +2839,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -2847,8 +2849,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -2857,8 +2859,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
@@ -2867,8 +2869,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -2877,8 +2879,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -2887,8 +2889,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="11" t="s">
@@ -2897,8 +2899,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="210">
   <si>
     <t>Regional</t>
   </si>
@@ -605,6 +605,85 @@
   </si>
   <si>
     <t>10.110.0.0/16</t>
+  </si>
+  <si>
+    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet; server_type field is also case-sensitive.  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
+  </si>
+  <si>
+    <t>VCN Peering
+comma seperated VCNs on right column are peered with VCN on left column
+LPGs and rules are created based on this section; 
+eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Default Securoty List for PHXHub-VCN</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to theSecurity Lists; You can also edit Default Security List for a VCN- Mention subnet name as 'Default Security List for &lt;vcn_name&gt;'
+'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
+  </si>
+  <si>
+    <t>egress</t>
+  </si>
+  <si>
+    <t>10.20.30.40/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+</t>
+  </si>
+  <si>
+    <t># Leave Parent Compartment empty or mention root if it is under root;
+Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Compartment Name is mandatory field
+Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, Enter Region as your tenancy's Home Region for Compartment Creation</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Group Name is mandatory field
+Enter Region as your tenancy's Home Region for Group Creation</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
+Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg|&lt;vcn_name&gt;_sgw</t>
+  </si>
+  <si>
+    <t>PHXHub-VCN_igw</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Tags Creation</t>
+  </si>
+  <si>
+    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
+# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Enter Region as your tenancy's Home Region for Policy Creation</t>
+  </si>
+  <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>Ashburn,Phoenix</t>
   </si>
   <si>
     <r>
@@ -765,79 +844,28 @@
       <t xml:space="preserve"> represents whether you want to add Ping rules for peered VCNs; useful for network related testing
 </t>
     </r>
-  </si>
-  <si>
-    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet; server_type field is also case-sensitive.  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
-    <t>VCN Peering
-comma seperated VCNs on right column are peered with VCN on left column
-LPGs and rules are created based on this section; 
-eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Default Securoty List for PHXHub-VCN</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>0.0.0.0/0</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to theSecurity Lists; You can also edit Default Security List for a VCN- Mention subnet name as 'Default Security List for &lt;vcn_name&gt;'
-'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
-  </si>
-  <si>
-    <t>egress</t>
-  </si>
-  <si>
-    <t>10.20.30.40/32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">regions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-</t>
-  </si>
-  <si>
-    <t># Leave Parent Compartment empty or mention root if it is under root;
-Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Compartment Name is mandatory field
-Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, Enter Region as your tenancy's Home Region for Compartment Creation</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Group Name is mandatory field
-Enter Region as your tenancy's Home Region for Group Creation</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
-Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg|&lt;vcn_name&gt;_sgw</t>
-  </si>
-  <si>
-    <t>PHXHub-VCN_igw</t>
-  </si>
-  <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Tags Creation</t>
-  </si>
-  <si>
-    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
-# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Enter Region as your tenancy's Home Region for Policy Creation</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -915,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1030,11 +1058,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1122,6 +1159,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1562,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2031,7 +2070,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2082,7 +2121,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>120</v>
@@ -2162,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -2266,19 +2305,19 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2298,10 +2337,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2310,7 +2349,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2548,7 +2587,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="29"/>
@@ -2621,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2637,7 +2676,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2789,7 +2828,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3020,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,9 +3072,9 @@
     <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B1" s="34"/>
     </row>
@@ -3097,32 +3136,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="36"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3154,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3319,7 +3366,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3472,7 +3519,7 @@
         <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="AddSecRules" sheetId="12" r:id="rId14"/>
     <sheet name="RouteRulesinOCI" sheetId="16" r:id="rId15"/>
     <sheet name="SecRulesinOCI" sheetId="17" r:id="rId16"/>
+    <sheet name="NSGs" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="239">
   <si>
     <t>Regional</t>
   </si>
@@ -506,9 +507,6 @@
   </si>
   <si>
     <t># Make sure to enter exact name in attached_to_instance column as entered in Hostname of Instances sheet;Backup Policy column can be left blank at the timeof block vol creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server</t>
   </si>
   <si>
     <t>Demo</t>
@@ -867,12 +865,102 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>NSGName</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>DestType</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>ASH-VCN1</t>
+  </si>
+  <si>
+    <t>ash-vcn1-nsg</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>172.0.0.0/8</t>
+  </si>
+  <si>
+    <t>icmp</t>
+  </si>
+  <si>
+    <t>ASH-Hub-VCN</t>
+  </si>
+  <si>
+    <t>ash-hub-nsg1</t>
+  </si>
+  <si>
+    <t>nsg</t>
+  </si>
+  <si>
+    <t>ash-hub-nsg2</t>
+  </si>
+  <si>
+    <t>OCICtoOCI</t>
+  </si>
+  <si>
+    <t>PHX-Hub-VCN</t>
+  </si>
+  <si>
+    <t>phx-hub-nsg1</t>
+  </si>
+  <si>
+    <t>10.116.0.0/16</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>173.0.0.0/8</t>
+  </si>
+  <si>
+    <t>phx-hub-nsg2</t>
+  </si>
+  <si>
+    <t>PHX-VCN1</t>
+  </si>
+  <si>
+    <t>phx-vcn1-nsg</t>
+  </si>
+  <si>
+    <t>10.117.2.0/24</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>oci-phx-objectstorage</t>
+  </si>
+  <si>
+    <t>NSGs</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG</t>
+  </si>
+  <si>
+    <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +1002,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1071,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1114,6 +1208,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1159,8 +1258,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1480,16 +1584,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -1503,7 +1607,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>89</v>
@@ -1515,7 +1619,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>91</v>
@@ -1525,7 +1629,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>92</v>
@@ -1539,7 +1643,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>94</v>
@@ -1600,19 +1704,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>138</v>
@@ -1634,13 +1738,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1657,9 +1761,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="9" t="s">
         <v>58</v>
       </c>
@@ -1674,11 +1778,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>62</v>
@@ -1691,9 +1795,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="10"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -1704,9 +1808,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="12"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -1715,9 +1819,9 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
@@ -1726,9 +1830,9 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="11" t="s">
@@ -1737,9 +1841,9 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="12"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -1748,9 +1852,9 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="12"/>
       <c r="E11" s="1"/>
       <c r="F11" s="11" t="s">
@@ -1759,9 +1863,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="12"/>
       <c r="E12" s="1"/>
       <c r="F12" s="11" t="s">
@@ -1770,9 +1874,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="12"/>
       <c r="E13" s="1"/>
       <c r="F13" s="11" t="s">
@@ -1781,9 +1885,9 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="12"/>
       <c r="E14" s="1"/>
       <c r="F14" s="11" t="s">
@@ -1792,9 +1896,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1803,9 +1907,9 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="10"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -1814,9 +1918,9 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="10"/>
       <c r="E17" s="1"/>
       <c r="F17" s="11" t="s">
@@ -1825,9 +1929,9 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="10"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -1873,18 +1977,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
@@ -1904,7 +2008,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>144</v>
@@ -1913,10 +2017,10 @@
         <v>145</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>146</v>
@@ -1924,19 +2028,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>146</v>
@@ -1969,18 +2073,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>148</v>
@@ -2000,7 +2104,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>149</v>
@@ -2009,10 +2113,10 @@
         <v>145</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>146</v>
@@ -2020,19 +2124,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>146</v>
@@ -2069,22 +2173,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>112</v>
@@ -2110,7 +2214,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2121,7 +2225,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>120</v>
@@ -2132,7 +2236,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2200,27 +2304,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="A1" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>112</v>
@@ -2267,7 +2371,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2300,24 +2404,24 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2329,7 +2433,7 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2337,10 +2441,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2349,7 +2453,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2434,7 +2538,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>112</v>
@@ -2487,7 +2591,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>112</v>
@@ -2567,6 +2671,737 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>22</v>
+      </c>
+      <c r="O5" s="1">
+        <v>22</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2586,15 +3421,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -2605,7 +3440,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>98</v>
@@ -2616,7 +3451,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>100</v>
@@ -2627,7 +3462,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>102</v>
@@ -2675,19 +3510,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>86</v>
@@ -2710,7 +3545,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
@@ -2755,7 +3590,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>108</v>
@@ -2807,7 +3642,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,25 +3662,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2886,13 +3721,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2927,7 +3762,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2966,13 +3801,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2987,7 +3822,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -3002,7 +3837,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3061,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,48 +3908,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -3122,7 +3957,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>26</v>
@@ -3130,40 +3965,40 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="36"/>
+      <c r="A11" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3200,19 +4035,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3260,7 +4095,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3365,13 +4200,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3437,10 +4272,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,25 +4295,26 @@
     <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3513,13 +4349,16 @@
       <c r="L2" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3551,8 +4390,11 @@
       <c r="L3" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3565,12 +4407,12 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3596,20 +4438,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3635,7 +4477,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>149</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="230">
   <si>
     <t>Regional</t>
   </si>
@@ -80,18 +80,6 @@
     <t>AD1</t>
   </si>
   <si>
-    <t>iscsi</t>
-  </si>
-  <si>
-    <t>qa-app</t>
-  </si>
-  <si>
-    <t>10.110.13.10</t>
-  </si>
-  <si>
-    <t>VM.Standard2.16</t>
-  </si>
-  <si>
     <t>ssh_public_key</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t>CustomDnsServer</t>
   </si>
   <si>
-    <t>oci.ryder.com</t>
-  </si>
-  <si>
-    <t>10.110.255.226,10.110.255.227</t>
-  </si>
-  <si>
     <t>PHXHub-VCN</t>
   </si>
   <si>
@@ -119,15 +101,9 @@
     <t>hub</t>
   </si>
   <si>
-    <t>phx-ad</t>
-  </si>
-  <si>
     <t>PHXNonProd-VCN</t>
   </si>
   <si>
-    <t>10.111.255.0/24</t>
-  </si>
-  <si>
     <t>spoke</t>
   </si>
   <si>
@@ -135,9 +111,6 @@
   </si>
   <si>
     <t>dhcp_option_name</t>
-  </si>
-  <si>
-    <t>dhcp-db</t>
   </si>
   <si>
     <t>VcnLocalPlusInternet</t>
@@ -200,75 +173,24 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>GIS</t>
-  </si>
-  <si>
     <t>Windows2012</t>
   </si>
   <si>
-    <t>dev-ut-dmz</t>
-  </si>
-  <si>
     <t>dev</t>
   </si>
   <si>
-    <t>CLEO</t>
-  </si>
-  <si>
-    <t>Suse12sp4</t>
-  </si>
-  <si>
-    <t>dev-ut-app</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
     <t>OL76</t>
   </si>
   <si>
-    <t>qa-dmz</t>
-  </si>
-  <si>
     <t>dr</t>
   </si>
   <si>
     <t>prod</t>
   </si>
   <si>
-    <t>dr-db-clnt</t>
-  </si>
-  <si>
-    <t>dr-db-bkp</t>
-  </si>
-  <si>
-    <t>dr-dmz</t>
-  </si>
-  <si>
-    <t>dr-app</t>
-  </si>
-  <si>
-    <t>phx-acs</t>
-  </si>
-  <si>
-    <t>ash-ad</t>
-  </si>
-  <si>
-    <t>ash-acs</t>
-  </si>
-  <si>
-    <t>prod-db-clnt</t>
-  </si>
-  <si>
-    <t>prod-db-bkp</t>
-  </si>
-  <si>
-    <t>prod-dmz</t>
-  </si>
-  <si>
-    <t>prod-app</t>
-  </si>
-  <si>
     <t>Hostname</t>
   </si>
   <si>
@@ -290,9 +212,6 @@
     <t>Shape</t>
   </si>
   <si>
-    <t>FAULT-DOMAIN-3</t>
-  </si>
-  <si>
     <t>SSH-key-var-name</t>
   </si>
   <si>
@@ -311,18 +230,9 @@
     <t>Compartment for Networking Objects</t>
   </si>
   <si>
-    <t>RyderVM</t>
-  </si>
-  <si>
-    <t>RyderVM-Dev</t>
-  </si>
-  <si>
     <t>Compartment for VMs in Dev</t>
   </si>
   <si>
-    <t>RyderVM-Prod</t>
-  </si>
-  <si>
     <t>Compartment for VMs in Prod</t>
   </si>
   <si>
@@ -353,9 +263,6 @@
     <t>AdminPolicy</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>Administartors</t>
   </si>
   <si>
@@ -365,9 +272,6 @@
     <t>InstancePolicy</t>
   </si>
   <si>
-    <t>Ryder-Dev</t>
-  </si>
-  <si>
     <t>Instance Manage</t>
   </si>
   <si>
@@ -470,27 +374,12 @@
     <t>Application</t>
   </si>
   <si>
-    <t>Shruthi</t>
-  </si>
-  <si>
-    <t>Demo=True</t>
-  </si>
-  <si>
     <t>dev=True</t>
   </si>
   <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
     <t>VolumeName</t>
   </si>
   <si>
-    <t>Shruthi_disk2</t>
-  </si>
-  <si>
-    <t>Lakshmi_disk2</t>
-  </si>
-  <si>
     <t>WindowsLatest</t>
   </si>
   <si>
@@ -500,36 +389,12 @@
     <t>phxhub</t>
   </si>
   <si>
-    <t>phxad</t>
-  </si>
-  <si>
     <t>VCN Name</t>
   </si>
   <si>
     <t># Make sure to enter exact name in attached_to_instance column as entered in Hostname of Instances sheet;Backup Policy column can be left blank at the timeof block vol creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Windows2012=True</t>
-  </si>
-  <si>
-    <t>Windows2012=</t>
-  </si>
-  <si>
-    <t>Demo=</t>
-  </si>
-  <si>
-    <t>qa-dmz=</t>
-  </si>
-  <si>
-    <t>qa-app=true</t>
-  </si>
-  <si>
-    <t>qa-dmz=true</t>
-  </si>
-  <si>
     <t>#Hostname represents instance to which tagging needs tp be assigned; It should match the one entered in instances sheet. Enter TagKey=TagValue for each tagnamespace;  tagValue can be left empty also</t>
   </si>
   <si>
@@ -566,18 +431,6 @@
     <t>add_ping_sec_rules_vcnpeering</t>
   </si>
   <si>
-    <t>Hub-VCN</t>
-  </si>
-  <si>
-    <t>Spoke1-VCN,Spoke2-VCN</t>
-  </si>
-  <si>
-    <t>Spoke1-VCN</t>
-  </si>
-  <si>
-    <t>VCN3</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -585,21 +438,6 @@
   </si>
   <si>
     <t>Phoenix</t>
-  </si>
-  <si>
-    <t>ASHVCN</t>
-  </si>
-  <si>
-    <t>10.218.255.0/24</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>ashvcn</t>
-  </si>
-  <si>
-    <t>10.110.13.0/24</t>
   </si>
   <si>
     <t>10.110.0.0/16</t>
@@ -615,9 +453,6 @@
   </si>
   <si>
     <t>Test1</t>
-  </si>
-  <si>
-    <t>Default Securoty List for PHXHub-VCN</t>
   </si>
   <si>
     <t>all</t>
@@ -664,9 +499,6 @@
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
 VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
 Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg|&lt;vcn_name&gt;_sgw</t>
-  </si>
-  <si>
-    <t>PHXHub-VCN_igw</t>
   </si>
   <si>
     <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
@@ -878,69 +710,21 @@
     <t>DestType</t>
   </si>
   <si>
-    <t>Demo1</t>
-  </si>
-  <si>
-    <t>ASH-VCN1</t>
-  </si>
-  <si>
-    <t>ash-vcn1-nsg</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
     <t>cidr</t>
   </si>
   <si>
-    <t>172.0.0.0/8</t>
-  </si>
-  <si>
-    <t>icmp</t>
-  </si>
-  <si>
-    <t>ASH-Hub-VCN</t>
-  </si>
-  <si>
-    <t>ash-hub-nsg1</t>
-  </si>
-  <si>
     <t>nsg</t>
   </si>
   <si>
-    <t>ash-hub-nsg2</t>
-  </si>
-  <si>
-    <t>OCICtoOCI</t>
-  </si>
-  <si>
-    <t>PHX-Hub-VCN</t>
-  </si>
-  <si>
-    <t>phx-hub-nsg1</t>
-  </si>
-  <si>
     <t>10.116.0.0/16</t>
   </si>
   <si>
     <t>udp</t>
   </si>
   <si>
-    <t>173.0.0.0/8</t>
-  </si>
-  <si>
-    <t>phx-hub-nsg2</t>
-  </si>
-  <si>
-    <t>PHX-VCN1</t>
-  </si>
-  <si>
-    <t>phx-vcn1-nsg</t>
-  </si>
-  <si>
-    <t>10.117.2.0/24</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -954,26 +738,208 @@
   </si>
   <si>
     <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
+  </si>
+  <si>
+    <t>VM-Dev</t>
+  </si>
+  <si>
+    <t>VM-Prod</t>
+  </si>
+  <si>
+    <t>VM-QA</t>
+  </si>
+  <si>
+    <t>Compartment for VMs in QA</t>
+  </si>
+  <si>
+    <t>VM-Resources</t>
+  </si>
+  <si>
+    <t>Compartment for all other Resources</t>
+  </si>
+  <si>
+    <t>Compute VM admins</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN</t>
+  </si>
+  <si>
+    <t>ASHProd-VCN</t>
+  </si>
+  <si>
+    <t>10.111.0.0/16</t>
+  </si>
+  <si>
+    <t>10.218.0.0/16</t>
+  </si>
+  <si>
+    <t>10.219.0.0/16</t>
+  </si>
+  <si>
+    <t>ashhub</t>
+  </si>
+  <si>
+    <t>PHXHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>dev-subnet</t>
+  </si>
+  <si>
+    <t>qa-subnet</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>prod-subnet</t>
+  </si>
+  <si>
+    <t>dr-subnet</t>
+  </si>
+  <si>
+    <t>10.110.1.0/24</t>
+  </si>
+  <si>
+    <t>10.111.1.0/24</t>
+  </si>
+  <si>
+    <t>10.111.2.0/24</t>
+  </si>
+  <si>
+    <t>10.218.1.0/24</t>
+  </si>
+  <si>
+    <t>10.219.1.0/24</t>
+  </si>
+  <si>
+    <t>10.219.2.0/24</t>
+  </si>
+  <si>
+    <t>dhcp-external</t>
+  </si>
+  <si>
+    <t>ashprod</t>
+  </si>
+  <si>
+    <t>phxdev</t>
+  </si>
+  <si>
+    <t>phxqa</t>
+  </si>
+  <si>
+    <t>ashdr</t>
+  </si>
+  <si>
+    <t>oci.com</t>
+  </si>
+  <si>
+    <t>10.110.1.1,10.110.1.2</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>DNS-Server-Ash</t>
+  </si>
+  <si>
+    <t>DNS-Server-Phx</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-1</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-2</t>
+  </si>
+  <si>
+    <t>10.110.1.1</t>
+  </si>
+  <si>
+    <t>10.218.1.1</t>
+  </si>
+  <si>
+    <t>VM.Standard2.8</t>
+  </si>
+  <si>
+    <t>LinuxLatest</t>
+  </si>
+  <si>
+    <t>10.219.1.1</t>
+  </si>
+  <si>
+    <t>10.111.1.1</t>
+  </si>
+  <si>
+    <t>Test1_disk2</t>
+  </si>
+  <si>
+    <t>Test2_disk2</t>
+  </si>
+  <si>
+    <t>paravirtualized</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>App1</t>
+  </si>
+  <si>
+    <t>App1=True</t>
+  </si>
+  <si>
+    <t>App1=</t>
+  </si>
+  <si>
+    <t>OL76=True</t>
+  </si>
+  <si>
+    <t>OL76=</t>
+  </si>
+  <si>
+    <t>prod=</t>
+  </si>
+  <si>
+    <t>dev=true</t>
+  </si>
+  <si>
+    <t>prod=True</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN_igw</t>
+  </si>
+  <si>
+    <t>Default Security List for ASHHub-VCN</t>
+  </si>
+  <si>
+    <t>ash-nsg2</t>
+  </si>
+  <si>
+    <t>ash-nsg1</t>
+  </si>
+  <si>
+    <t>phx-nsg1</t>
+  </si>
+  <si>
+    <t>phx-nsg2</t>
+  </si>
+  <si>
+    <t>phx-nsg1,phx-nsg2</t>
+  </si>
+  <si>
+    <t>10.218.1.1,10.218.1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1002,12 +968,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1165,54 +1125,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1234,19 +1195,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1258,11 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1569,113 +1526,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>88</v>
+      <c r="A2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1691,252 +1663,224 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
   </sheetData>
@@ -1946,15 +1890,8 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A18"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
-    <hyperlink ref="F11" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="F12" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="F13" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="F14" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1963,12 +1900,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1976,74 +1913,74 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>52</v>
+      <c r="C2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>146</v>
+      <c r="A3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>146</v>
+      <c r="A4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2059,12 +1996,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -2072,74 +2009,74 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>52</v>
+      <c r="A2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>146</v>
+      <c r="A3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>146</v>
+      <c r="A4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2160,75 +2097,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="17" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="A1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="D2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="23" t="s">
-        <v>63</v>
+      <c r="D3" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2236,21 +2173,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="23" t="s">
-        <v>17</v>
+      <c r="D4" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2258,7 +2195,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2284,14 +2221,14 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
     <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2304,91 +2241,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>134</v>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2402,26 +2339,26 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2431,20 +2368,20 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>182</v>
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2453,7 +2390,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2462,7 +2399,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2524,43 +2461,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="17" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="13" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2578,96 +2515,96 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="18"/>
+    <col min="16" max="16" width="9.140625" style="17"/>
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="13" t="s">
+    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2676,17 +2613,17 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2696,109 +2633,109 @@
     <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+    <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>134</v>
+      <c r="I2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="46"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>218</v>
+        <v>162</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2809,592 +2746,116 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>194</v>
+        <v>158</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>4</v>
-      </c>
+      <c r="N4" s="1">
+        <v>123</v>
+      </c>
+      <c r="O4" s="1">
+        <v>123</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>22</v>
-      </c>
-      <c r="O5" s="1">
-        <v>22</v>
-      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>188</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1">
-        <v>3</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3410,76 +2871,79 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>87</v>
+      <c r="A2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
   </sheetData>
@@ -3496,12 +2960,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -3510,57 +2974,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>111</v>
+      <c r="A2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3570,13 +3034,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,25 +3054,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,16 +3081,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3639,15 +3103,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -3662,25 +3126,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3713,139 +3177,176 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>200</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3853,35 +3354,36 @@
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3897,108 +3399,108 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="32.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>167</v>
+      <c r="A2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>26</v>
+      <c r="A8" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>26</v>
+      <c r="A9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>207</v>
+      <c r="A10" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="39"/>
+      <c r="A11" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>178</v>
+      <c r="A13" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4013,17 +3515,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -4035,67 +3537,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>152</v>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -4104,74 +3606,249 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4184,15 +3861,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -4200,65 +3877,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
+        <v>174</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
+      <c r="B6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4272,15 +3980,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -4295,120 +4003,223 @@
     <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4423,12 +4234,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -4437,79 +4248,95 @@
     <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>142</v>
+        <v>168</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>10.10.20.20/32</t>
   </si>
   <si>
-    <t>ocid1.natgateway.oc1.phx.aaaaaaaakuonwsamojrjwyt5xlezkup7k4rtdpjrajfzgzjfmvcq5gtwgkba</t>
-  </si>
-  <si>
     <t>SubnetName</t>
   </si>
   <si>
@@ -514,6 +511,240 @@
   </si>
   <si>
     <t>Ashburn,Phoenix</t>
+  </si>
+  <si>
+    <t>NSGName</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>DestType</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>nsg</t>
+  </si>
+  <si>
+    <t>10.116.0.0/16</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>oci-phx-objectstorage</t>
+  </si>
+  <si>
+    <t>NSGs</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG</t>
+  </si>
+  <si>
+    <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
+  </si>
+  <si>
+    <t>VM-Dev</t>
+  </si>
+  <si>
+    <t>VM-Prod</t>
+  </si>
+  <si>
+    <t>VM-QA</t>
+  </si>
+  <si>
+    <t>Compartment for VMs in QA</t>
+  </si>
+  <si>
+    <t>VM-Resources</t>
+  </si>
+  <si>
+    <t>Compartment for all other Resources</t>
+  </si>
+  <si>
+    <t>Compute VM admins</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN</t>
+  </si>
+  <si>
+    <t>ASHProd-VCN</t>
+  </si>
+  <si>
+    <t>10.111.0.0/16</t>
+  </si>
+  <si>
+    <t>10.218.0.0/16</t>
+  </si>
+  <si>
+    <t>10.219.0.0/16</t>
+  </si>
+  <si>
+    <t>ashhub</t>
+  </si>
+  <si>
+    <t>PHXHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>dev-subnet</t>
+  </si>
+  <si>
+    <t>qa-subnet</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>prod-subnet</t>
+  </si>
+  <si>
+    <t>dr-subnet</t>
+  </si>
+  <si>
+    <t>10.110.1.0/24</t>
+  </si>
+  <si>
+    <t>10.111.1.0/24</t>
+  </si>
+  <si>
+    <t>10.111.2.0/24</t>
+  </si>
+  <si>
+    <t>10.218.1.0/24</t>
+  </si>
+  <si>
+    <t>10.219.1.0/24</t>
+  </si>
+  <si>
+    <t>10.219.2.0/24</t>
+  </si>
+  <si>
+    <t>dhcp-external</t>
+  </si>
+  <si>
+    <t>ashprod</t>
+  </si>
+  <si>
+    <t>phxdev</t>
+  </si>
+  <si>
+    <t>phxqa</t>
+  </si>
+  <si>
+    <t>ashdr</t>
+  </si>
+  <si>
+    <t>oci.com</t>
+  </si>
+  <si>
+    <t>10.110.1.1,10.110.1.2</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>DNS-Server-Ash</t>
+  </si>
+  <si>
+    <t>DNS-Server-Phx</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-1</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-2</t>
+  </si>
+  <si>
+    <t>10.110.1.1</t>
+  </si>
+  <si>
+    <t>10.218.1.1</t>
+  </si>
+  <si>
+    <t>VM.Standard2.8</t>
+  </si>
+  <si>
+    <t>LinuxLatest</t>
+  </si>
+  <si>
+    <t>10.219.1.1</t>
+  </si>
+  <si>
+    <t>10.111.1.1</t>
+  </si>
+  <si>
+    <t>Test1_disk2</t>
+  </si>
+  <si>
+    <t>Test2_disk2</t>
+  </si>
+  <si>
+    <t>paravirtualized</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>App1</t>
+  </si>
+  <si>
+    <t>App1=True</t>
+  </si>
+  <si>
+    <t>App1=</t>
+  </si>
+  <si>
+    <t>OL76=True</t>
+  </si>
+  <si>
+    <t>OL76=</t>
+  </si>
+  <si>
+    <t>prod=</t>
+  </si>
+  <si>
+    <t>dev=true</t>
+  </si>
+  <si>
+    <t>prod=True</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN_igw</t>
+  </si>
+  <si>
+    <t>Default Security List for ASHHub-VCN</t>
+  </si>
+  <si>
+    <t>ash-nsg2</t>
+  </si>
+  <si>
+    <t>ash-nsg1</t>
+  </si>
+  <si>
+    <t>phx-nsg1</t>
+  </si>
+  <si>
+    <t>phx-nsg2</t>
+  </si>
+  <si>
+    <t>phx-nsg1,phx-nsg2</t>
+  </si>
+  <si>
+    <t>10.218.1.1,10.218.1.2</t>
+  </si>
+  <si>
+    <t>ocid1.natgateway.example.ocid</t>
   </si>
   <si>
     <r>
@@ -693,240 +924,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list
+      <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list; case insensitive; (allowed values: ashburn, phoenix, london, frankfurt, toronto, tokyo, seoul, mumbai)
 </t>
     </r>
-  </si>
-  <si>
-    <t>NSGName</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>SourceType</t>
-  </si>
-  <si>
-    <t>DestType</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>cidr</t>
-  </si>
-  <si>
-    <t>nsg</t>
-  </si>
-  <si>
-    <t>10.116.0.0/16</t>
-  </si>
-  <si>
-    <t>udp</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>oci-phx-objectstorage</t>
-  </si>
-  <si>
-    <t>NSGs</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG</t>
-  </si>
-  <si>
-    <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
-  </si>
-  <si>
-    <t>VM-Dev</t>
-  </si>
-  <si>
-    <t>VM-Prod</t>
-  </si>
-  <si>
-    <t>VM-QA</t>
-  </si>
-  <si>
-    <t>Compartment for VMs in QA</t>
-  </si>
-  <si>
-    <t>VM-Resources</t>
-  </si>
-  <si>
-    <t>Compartment for all other Resources</t>
-  </si>
-  <si>
-    <t>Compute VM admins</t>
-  </si>
-  <si>
-    <t>ASHHub-VCN</t>
-  </si>
-  <si>
-    <t>ASHProd-VCN</t>
-  </si>
-  <si>
-    <t>10.111.0.0/16</t>
-  </si>
-  <si>
-    <t>10.218.0.0/16</t>
-  </si>
-  <si>
-    <t>10.219.0.0/16</t>
-  </si>
-  <si>
-    <t>ashhub</t>
-  </si>
-  <si>
-    <t>PHXHub-VCN-subnet1</t>
-  </si>
-  <si>
-    <t>dev-subnet</t>
-  </si>
-  <si>
-    <t>qa-subnet</t>
-  </si>
-  <si>
-    <t>ASHHub-VCN-subnet1</t>
-  </si>
-  <si>
-    <t>prod-subnet</t>
-  </si>
-  <si>
-    <t>dr-subnet</t>
-  </si>
-  <si>
-    <t>10.110.1.0/24</t>
-  </si>
-  <si>
-    <t>10.111.1.0/24</t>
-  </si>
-  <si>
-    <t>10.111.2.0/24</t>
-  </si>
-  <si>
-    <t>10.218.1.0/24</t>
-  </si>
-  <si>
-    <t>10.219.1.0/24</t>
-  </si>
-  <si>
-    <t>10.219.2.0/24</t>
-  </si>
-  <si>
-    <t>dhcp-external</t>
-  </si>
-  <si>
-    <t>ashprod</t>
-  </si>
-  <si>
-    <t>phxdev</t>
-  </si>
-  <si>
-    <t>phxqa</t>
-  </si>
-  <si>
-    <t>ashdr</t>
-  </si>
-  <si>
-    <t>oci.com</t>
-  </si>
-  <si>
-    <t>10.110.1.1,10.110.1.2</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>DNS-Server-Ash</t>
-  </si>
-  <si>
-    <t>DNS-Server-Phx</t>
-  </si>
-  <si>
-    <t>FAULT-DOMAIN-1</t>
-  </si>
-  <si>
-    <t>FAULT-DOMAIN-2</t>
-  </si>
-  <si>
-    <t>10.110.1.1</t>
-  </si>
-  <si>
-    <t>10.218.1.1</t>
-  </si>
-  <si>
-    <t>VM.Standard2.8</t>
-  </si>
-  <si>
-    <t>LinuxLatest</t>
-  </si>
-  <si>
-    <t>10.219.1.1</t>
-  </si>
-  <si>
-    <t>10.111.1.1</t>
-  </si>
-  <si>
-    <t>Test1_disk2</t>
-  </si>
-  <si>
-    <t>Test2_disk2</t>
-  </si>
-  <si>
-    <t>paravirtualized</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>App1</t>
-  </si>
-  <si>
-    <t>App1=True</t>
-  </si>
-  <si>
-    <t>App1=</t>
-  </si>
-  <si>
-    <t>OL76=True</t>
-  </si>
-  <si>
-    <t>OL76=</t>
-  </si>
-  <si>
-    <t>prod=</t>
-  </si>
-  <si>
-    <t>dev=true</t>
-  </si>
-  <si>
-    <t>prod=True</t>
-  </si>
-  <si>
-    <t>ASHHub-VCN_igw</t>
-  </si>
-  <si>
-    <t>Default Security List for ASHHub-VCN</t>
-  </si>
-  <si>
-    <t>ash-nsg2</t>
-  </si>
-  <si>
-    <t>ash-nsg1</t>
-  </si>
-  <si>
-    <t>phx-nsg1</t>
-  </si>
-  <si>
-    <t>phx-nsg2</t>
-  </si>
-  <si>
-    <t>phx-nsg1,phx-nsg2</t>
-  </si>
-  <si>
-    <t>10.218.1.1,10.218.1.2</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1542,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>59</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -1576,56 +1576,56 @@
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>62</v>
@@ -1720,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
@@ -1737,7 +1737,7 @@
       <c r="B4" s="44"/>
       <c r="C4" s="42"/>
       <c r="D4" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>48</v>
@@ -1915,7 +1915,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>41</v>
@@ -1945,42 +1945,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>220</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>41</v>
@@ -2041,42 +2041,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2092,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2111,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>86</v>
@@ -2151,18 +2151,18 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>88</v>
@@ -2173,18 +2173,18 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>88</v>
@@ -2242,7 +2242,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -2261,71 +2261,71 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2341,24 +2341,24 @@
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2370,18 +2370,18 @@
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2390,7 +2390,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2475,13 +2475,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>86</v>
@@ -2528,49 +2528,49 @@
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="20"/>
@@ -2635,7 +2635,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2656,86 +2656,86 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="I2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="K2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="M2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="30"/>
       <c r="J3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2746,31 +2746,31 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -2796,22 +2796,22 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -2831,22 +2831,22 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="I6" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2883,14 +2883,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>59</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>70</v>
@@ -2923,13 +2923,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>59</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -3034,7 +3034,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>70</v>
@@ -3054,25 +3054,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3177,21 +3177,21 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -3221,18 +3221,18 @@
         <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
@@ -3301,18 +3301,18 @@
         <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
@@ -3398,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3409,49 +3409,49 @@
     <col min="3" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>20</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>20</v>
@@ -3475,24 +3475,24 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>38</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3594,10 +3594,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3629,10 +3629,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>20</v>
@@ -3653,7 +3653,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3664,10 +3664,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>20</v>
@@ -3688,7 +3688,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3696,13 +3696,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3731,13 +3731,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>20</v>
@@ -3758,7 +3758,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3766,13 +3766,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>20</v>
@@ -3793,7 +3793,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3913,12 +3913,12 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>17</v>
@@ -3927,24 +3927,24 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3952,16 +3952,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -4055,170 +4055,170 @@
         <v>80</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -4280,18 +4280,18 @@
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -4300,24 +4300,24 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -4326,16 +4326,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="243">
   <si>
     <t>Regional</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>vcn_cidr</t>
-  </si>
-  <si>
-    <t>drg_required(y|n)</t>
-  </si>
-  <si>
-    <t>igw_required(y|n)</t>
-  </si>
-  <si>
-    <t>ngw_required(y|n)</t>
-  </si>
-  <si>
-    <t>sgw_required(y|n)</t>
   </si>
   <si>
     <t>hub_spoke_none</t>
@@ -470,16 +458,6 @@
     <t>10.20.30.40/32</t>
   </si>
   <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-</t>
-  </si>
-  <si>
     <t># Leave Parent Compartment empty or mention root if it is under root;
 Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Compartment Name is mandatory field
@@ -491,13 +469,6 @@
 Enter Region as your tenancy's Home Region for Group Creation</t>
   </si>
   <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
-Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg|&lt;vcn_name&gt;_sgw</t>
-  </si>
-  <si>
     <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
 Enter Region as your tenancy's Home Region for Tags Creation</t>
   </si>
@@ -718,9 +689,6 @@
   </si>
   <si>
     <t>prod=True</t>
-  </si>
-  <si>
-    <t>ASHHub-VCN_igw</t>
   </si>
   <si>
     <t>Default Security List for ASHHub-VCN</t>
@@ -927,6 +895,103 @@
       <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list; case insensitive; (allowed values: ashburn, phoenix, london, frankfurt, toronto, tokyo, seoul, mumbai)
 </t>
     </r>
+  </si>
+  <si>
+    <t>drg_required</t>
+  </si>
+  <si>
+    <t>igw_required</t>
+  </si>
+  <si>
+    <t>ngw_required</t>
+  </si>
+  <si>
+    <t>sgw_required</t>
+  </si>
+  <si>
+    <t>PHX-DRG</t>
+  </si>
+  <si>
+    <t>ASH-DRG</t>
+  </si>
+  <si>
+    <t>ashprodNGW</t>
+  </si>
+  <si>
+    <t>ashprodIGW</t>
+  </si>
+  <si>
+    <t>ngw:ashprodNGW</t>
+  </si>
+  <si>
+    <t>ngw:PHXNonProd-VCN_ngw</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
+Enter Route Destination Object as either the OCID of component or  name of component- spcify name as igw:&lt;IGWName&gt;, ngw:&lt;NGWName&gt;, sgw:&lt;SGWName&gt;, drg:&lt;DRGName&gt;, lpg:&lt;LPGName&gt;</t>
+  </si>
+  <si>
+    <t>route_table_name</t>
+  </si>
+  <si>
+    <t>seclist_name</t>
+  </si>
+  <si>
+    <t>devqa_seclist</t>
+  </si>
+  <si>
+    <t>proddr_seclist</t>
+  </si>
+  <si>
+    <t>phx_rt</t>
+  </si>
+  <si>
+    <t>ash_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
+Valid Values for columns D,E,F,G:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Not possible to specify names for LPGs
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Subnet Name/RouteTable Name</t>
+  </si>
+  <si>
+    <t>SubnetName/SecurityListName</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1221,6 +1285,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,96 +1608,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1638,7 +1705,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1676,208 +1743,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1914,73 +1981,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2010,73 +2077,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>215</v>
-      </c>
       <c r="E3" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2089,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2167,7 @@
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
@@ -2109,41 +2176,41 @@
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+    <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="20"/>
@@ -2151,43 +2218,43 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2195,17 +2262,39 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2220,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,91 +2330,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2341,24 +2430,24 @@
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2370,18 +2459,18 @@
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2390,7 +2479,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2399,7 +2488,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2475,25 +2564,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="20"/>
@@ -2528,83 +2617,83 @@
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2634,108 +2723,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="A1" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="N2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="O2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2746,31 +2835,31 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>138</v>
+        <v>149</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2787,31 +2876,31 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2822,31 +2911,31 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>224</v>
+        <v>150</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2882,66 +2971,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2974,57 +3063,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="A1" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>79</v>
+      <c r="A2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3034,13 +3123,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,25 +3143,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3081,16 +3170,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3195,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,26 +3214,26 @@
     <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3153,60 +3242,60 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
@@ -3215,39 +3304,39 @@
         <v>200</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -3256,37 +3345,37 @@
         <v>200</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -3295,39 +3384,39 @@
         <v>200</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
@@ -3336,15 +3425,15 @@
         <v>200</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3398,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,97 +3499,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>150</v>
+      <c r="A10" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="40"/>
+      <c r="A11" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3515,10 +3604,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,74 +3619,83 @@
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3606,33 +3704,37 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -3641,33 +3743,37 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
+        <v>183</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -3676,33 +3782,37 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
+        <v>183</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -3711,33 +3821,35 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -3746,33 +3858,39 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>183</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -3781,24 +3899,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
+        <v>183</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3810,8 +3932,10 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3823,8 +3947,10 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3836,8 +3962,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3849,10 +3977,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3877,96 +4007,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>23</v>
+      <c r="A6" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>195</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4004,221 +4134,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="A1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4249,93 +4379,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -14,23 +14,24 @@
     <sheet name="VCN Info" sheetId="18" r:id="rId5"/>
     <sheet name="Subnets" sheetId="2" r:id="rId6"/>
     <sheet name="DHCP" sheetId="3" r:id="rId7"/>
-    <sheet name="Instances" sheetId="4" r:id="rId8"/>
-    <sheet name="BlockVols" sheetId="5" r:id="rId9"/>
-    <sheet name="Tags" sheetId="6" r:id="rId10"/>
-    <sheet name="TagServer" sheetId="13" r:id="rId11"/>
-    <sheet name="TagVolume" sheetId="14" r:id="rId12"/>
-    <sheet name="AddRouteRules" sheetId="11" r:id="rId13"/>
-    <sheet name="AddSecRules" sheetId="12" r:id="rId14"/>
-    <sheet name="RouteRulesinOCI" sheetId="16" r:id="rId15"/>
-    <sheet name="SecRulesinOCI" sheetId="17" r:id="rId16"/>
-    <sheet name="NSGs" sheetId="19" r:id="rId17"/>
+    <sheet name="AddRouteRules" sheetId="11" r:id="rId8"/>
+    <sheet name="AddSecRules" sheetId="12" r:id="rId9"/>
+    <sheet name="RouteRulesinOCI" sheetId="16" r:id="rId10"/>
+    <sheet name="SecRulesinOCI" sheetId="17" r:id="rId11"/>
+    <sheet name="DedicatedVMHosts" sheetId="20" r:id="rId12"/>
+    <sheet name="Instances" sheetId="4" r:id="rId13"/>
+    <sheet name="BlockVols" sheetId="5" r:id="rId14"/>
+    <sheet name="Tags" sheetId="6" r:id="rId15"/>
+    <sheet name="TagServer" sheetId="13" r:id="rId16"/>
+    <sheet name="TagVolume" sheetId="14" r:id="rId17"/>
+    <sheet name="NSGs" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="252">
   <si>
     <t>Regional</t>
   </si>
@@ -518,9 +519,6 @@
   </si>
   <si>
     <t>NSGs</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG</t>
   </si>
   <si>
     <t>Valid values for sourcetype or destinationtype are: cidr(for CIDR_BLOCK), nsg(for NETWORK_SECURITY_GROUP) and service(for SERVICE_CIDR_BLOCK)</t>
@@ -992,6 +990,36 @@
   </si>
   <si>
     <t>SubnetName/SecurityListName</t>
+  </si>
+  <si>
+    <t>VM3</t>
+  </si>
+  <si>
+    <t>DVH.Standard2.52</t>
+  </si>
+  <si>
+    <t>VM2</t>
+  </si>
+  <si>
+    <t>AD2</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-3</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>VM1</t>
+  </si>
+  <si>
+    <t>All fields are mandatory except fault domain which you can leave blank</t>
+  </si>
+  <si>
+    <t>DedicatedVMHost</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
   </si>
 </sst>
 </file>
@@ -1238,6 +1266,9 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1285,9 +1316,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,7 +1624,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,12 +1636,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1646,10 +1674,10 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1658,13 +1686,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1672,13 +1700,13 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1714,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,825 +1755,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>123</v>
-      </c>
-      <c r="M3" s="1">
-        <v>123</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,12 +1807,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +1913,959 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -2723,25 +2888,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -2804,10 +2969,10 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>136</v>
@@ -2841,10 +3006,10 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>98</v>
@@ -2885,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>136</v>
@@ -2920,7 +3085,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>98</v>
@@ -2935,7 +3100,7 @@
         <v>150</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2971,11 +3136,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -3018,7 +3183,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,15 +3228,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3104,7 +3269,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -3149,7 +3314,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -3161,7 +3326,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,21 +3380,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3242,16 +3407,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3283,7 +3448,7 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -3321,7 +3486,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -3357,13 +3522,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -3390,7 +3555,7 @@
         <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3398,10 +3563,10 @@
         <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3410,10 +3575,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>
@@ -3499,10 +3664,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -3571,17 +3736,17 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3627,21 +3792,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3666,10 +3831,10 @@
         <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>32</v>
@@ -3692,10 +3857,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3707,7 +3872,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="6" t="s">
@@ -3731,10 +3896,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -3743,11 +3908,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>16</v>
@@ -3759,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3770,10 +3935,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -3782,11 +3947,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>16</v>
@@ -3798,7 +3963,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3806,13 +3971,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -3835,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3843,13 +4008,13 @@
         <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -3858,13 +4023,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>16</v>
@@ -3876,7 +4041,7 @@
         <v>17</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3884,13 +4049,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -3899,11 +4064,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>16</v>
@@ -3915,7 +4080,7 @@
         <v>17</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4007,13 +4172,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4043,12 +4208,12 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>13</v>
@@ -4057,24 +4222,24 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4082,16 +4247,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,376 +4275,136 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>193</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>194</v>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="1">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="1">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4487,11 +4412,249 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>123</v>
+      </c>
+      <c r="M3" s="1">
+        <v>123</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -950,13 +950,6 @@
     <t>ash_rt</t>
   </si>
   <si>
-    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
 Valid Values for columns D,E,F,G:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
@@ -1020,6 +1013,36 @@
   </si>
   <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please use different names for route tables/seclists across VCNs</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1296,6 +1319,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,9 +1335,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,14 +1954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1968,14 +1991,14 @@
         <v>161</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,16 +2009,16 @@
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,19 +2036,19 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -2064,7 +2087,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2121,7 +2144,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2225,7 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2246,7 +2269,7 @@
         <v>214</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,15 +2477,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2488,13 +2511,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2511,9 +2534,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -2528,9 +2551,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -2541,9 +2564,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -2554,108 +2577,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3381,7 +3404,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3652,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3816,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -4320,7 +4343,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>79</v>
@@ -4449,23 +4472,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -4478,7 +4501,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>87</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -950,13 +950,6 @@
     <t>ash_rt</t>
   </si>
   <si>
-    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
 Valid Values for columns D,E,F,G:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
@@ -1020,6 +1013,36 @@
   </si>
   <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please use different names for route tables/seclists across VCNs</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1296,6 +1319,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,9 +1335,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,14 +1954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1968,14 +1991,14 @@
         <v>161</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,16 +2009,16 @@
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,19 +2036,19 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -2064,7 +2087,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2121,7 +2144,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2225,7 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2246,7 +2269,7 @@
         <v>214</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,15 +2477,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2488,13 +2511,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2511,9 +2534,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -2528,9 +2551,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -2541,9 +2564,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -2554,108 +2577,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3381,7 +3404,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3771,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3816,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -4320,7 +4343,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>79</v>
@@ -4449,23 +4472,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -4478,7 +4501,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>87</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -18,20 +18,21 @@
     <sheet name="AddSecRules" sheetId="12" r:id="rId9"/>
     <sheet name="RouteRulesinOCI" sheetId="16" r:id="rId10"/>
     <sheet name="SecRulesinOCI" sheetId="17" r:id="rId11"/>
-    <sheet name="DedicatedVMHosts" sheetId="20" r:id="rId12"/>
-    <sheet name="Instances" sheetId="4" r:id="rId13"/>
-    <sheet name="BlockVols" sheetId="5" r:id="rId14"/>
-    <sheet name="Tags" sheetId="6" r:id="rId15"/>
-    <sheet name="TagServer" sheetId="13" r:id="rId16"/>
-    <sheet name="TagVolume" sheetId="14" r:id="rId17"/>
-    <sheet name="NSGs" sheetId="19" r:id="rId18"/>
+    <sheet name="NSGs" sheetId="19" r:id="rId12"/>
+    <sheet name="DedicatedVMHosts" sheetId="20" r:id="rId13"/>
+    <sheet name="Instances" sheetId="4" r:id="rId14"/>
+    <sheet name="BlockVols" sheetId="5" r:id="rId15"/>
+    <sheet name="FSS" sheetId="21" r:id="rId16"/>
+    <sheet name="Tags" sheetId="6" r:id="rId17"/>
+    <sheet name="TagServer" sheetId="13" r:id="rId18"/>
+    <sheet name="TagVolume" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="272">
   <si>
     <t>Regional</t>
   </si>
@@ -1044,11 +1045,72 @@
       <t>Please use different names for route tables/seclists across VCNs</t>
     </r>
   </si>
+  <si>
+    <t>MountTarget Name</t>
+  </si>
+  <si>
+    <t>MountTarget IP</t>
+  </si>
+  <si>
+    <t>MountTarget Hostname</t>
+  </si>
+  <si>
+    <t>FSS Name</t>
+  </si>
+  <si>
+    <t>Availability Domain</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>sourceCIDR</t>
+  </si>
+  <si>
+    <t>GID</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>IDSquash (NONE|ALL|ROOT)</t>
+  </si>
+  <si>
+    <t>Access (READ_ONLY|READ_WRITE)</t>
+  </si>
+  <si>
+    <t>require_ps_port (true|false)</t>
+  </si>
+  <si>
+    <t>Max FSS inodes</t>
+  </si>
+  <si>
+    <t>Max FSS Capacity (in bytes)</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>/fss/</t>
+  </si>
+  <si>
+    <t>FSS1</t>
+  </si>
+  <si>
+    <t>MT1</t>
+  </si>
+  <si>
+    <t>MountTarget SubnetName</t>
+  </si>
+  <si>
+    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1241,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1292,6 +1354,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1322,6 +1390,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,9 +1413,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,23 +1724,23 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
@@ -1680,7 +1754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -1692,7 +1766,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -1704,7 +1778,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -1718,7 +1792,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -1732,7 +1806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -1746,7 +1820,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1754,7 +1828,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1762,7 +1836,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1784,21 +1858,21 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -1838,20 +1912,20 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="17"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="11.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="17"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="17"/>
+    <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -1901,31 +1975,31 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1938,32 +2012,287 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>123</v>
+      </c>
+      <c r="O4" s="1">
+        <v>123</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>126</v>
       </c>
@@ -1983,7 +2312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>128</v>
       </c>
@@ -2001,7 +2330,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -2021,7 +2350,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -2031,7 +2360,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -2059,7 +2388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -2067,43 +2396,43 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -2147,7 +2476,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2186,7 +2515,7 @@
       </c>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -2228,7 +2557,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>127</v>
       </c>
@@ -2272,7 +2601,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>128</v>
       </c>
@@ -2322,7 +2651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2330,30 +2659,30 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>126</v>
       </c>
@@ -2379,7 +2708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2405,7 +2734,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -2431,7 +2760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2441,7 +2770,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2459,7 +2788,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2467,27 +3014,27 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -2510,14 +3057,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="47" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2533,10 +3080,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -2550,10 +3097,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="43"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -2563,10 +3110,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="43"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -2576,109 +3123,109 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="43"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="43"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="43"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="43"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="43"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="43"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="43"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="43"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="43"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="43"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="44"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2696,7 +3243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2704,27 +3251,27 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>126</v>
       </c>
@@ -2744,7 +3291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>127</v>
       </c>
@@ -2764,7 +3311,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>128</v>
       </c>
@@ -2792,7 +3339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2800,27 +3347,27 @@
       <selection activeCell="C3" sqref="C3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>126</v>
       </c>
@@ -2840,7 +3387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>127</v>
       </c>
@@ -2860,7 +3407,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>128</v>
       </c>
@@ -2885,261 +3432,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>123</v>
-      </c>
-      <c r="O4" s="1">
-        <v>123</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3151,21 +3443,21 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
@@ -3176,7 +3468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -3187,7 +3479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -3198,7 +3490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -3209,14 +3501,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -3240,28 +3532,28 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>126</v>
       </c>
@@ -3284,7 +3576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -3305,7 +3597,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3320,7 +3612,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3329,7 +3621,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -3352,7 +3644,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3365,7 +3657,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -3386,40 +3678,40 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>126</v>
       </c>
@@ -3460,7 +3752,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -3501,7 +3793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
@@ -3540,7 +3832,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
@@ -3581,7 +3873,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
@@ -3619,20 +3911,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3646,9 +3938,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3679,20 +3971,20 @@
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="32.26953125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>116</v>
       </c>
@@ -3700,7 +3992,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
@@ -3708,25 +4000,25 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -3734,7 +4026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>124</v>
       </c>
@@ -3742,7 +4034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>125</v>
       </c>
@@ -3750,7 +4042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>142</v>
       </c>
@@ -3758,13 +4050,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="40"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -3772,7 +4064,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -3794,44 +4086,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.453125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -3872,7 +4164,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3911,7 +4203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -3950,7 +4242,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -3989,7 +4281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -4026,7 +4318,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -4067,7 +4359,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -4106,7 +4398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -4123,7 +4415,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4138,7 +4430,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4153,7 +4445,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4185,25 +4477,25 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4220,7 +4512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4234,7 +4526,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -4248,7 +4540,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4557,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
@@ -4282,7 +4574,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4304,35 +4596,35 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="11.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="17"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
@@ -4358,7 +4650,7 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -4380,7 +4672,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -4402,7 +4694,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -4424,7 +4716,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -4455,42 +4747,42 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="11.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="11.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="17"/>
+    <col min="4" max="4" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
@@ -4537,7 +4829,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -4570,7 +4862,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -4599,7 +4891,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>128</v>
       </c>
@@ -4628,7 +4920,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -4645,7 +4937,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4659,7 +4951,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -1104,7 +1104,9 @@
   </si>
   <si>
     <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false</t>
+Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
+This will create one Mount target for one FSS
+Choose distinct names for Mount Targets and FSS</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2795,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2812,7 +2814,7 @@
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>271</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="TagServer" sheetId="13" r:id="rId18"/>
     <sheet name="TagVolume" sheetId="14" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -712,6 +712,173 @@
   </si>
   <si>
     <t>ocid1.natgateway.example.ocid</t>
+  </si>
+  <si>
+    <t>drg_required</t>
+  </si>
+  <si>
+    <t>igw_required</t>
+  </si>
+  <si>
+    <t>ngw_required</t>
+  </si>
+  <si>
+    <t>sgw_required</t>
+  </si>
+  <si>
+    <t>PHX-DRG</t>
+  </si>
+  <si>
+    <t>ASH-DRG</t>
+  </si>
+  <si>
+    <t>ashprodNGW</t>
+  </si>
+  <si>
+    <t>ashprodIGW</t>
+  </si>
+  <si>
+    <t>ngw:ashprodNGW</t>
+  </si>
+  <si>
+    <t>ngw:PHXNonProd-VCN_ngw</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
+Enter Route Destination Object as either the OCID of component or  name of component- spcify name as igw:&lt;IGWName&gt;, ngw:&lt;NGWName&gt;, sgw:&lt;SGWName&gt;, drg:&lt;DRGName&gt;, lpg:&lt;LPGName&gt;</t>
+  </si>
+  <si>
+    <t>route_table_name</t>
+  </si>
+  <si>
+    <t>seclist_name</t>
+  </si>
+  <si>
+    <t>devqa_seclist</t>
+  </si>
+  <si>
+    <t>proddr_seclist</t>
+  </si>
+  <si>
+    <t>phx_rt</t>
+  </si>
+  <si>
+    <t>ash_rt</t>
+  </si>
+  <si>
+    <t>Subnet Name/RouteTable Name</t>
+  </si>
+  <si>
+    <t>SubnetName/SecurityListName</t>
+  </si>
+  <si>
+    <t>VM3</t>
+  </si>
+  <si>
+    <t>DVH.Standard2.52</t>
+  </si>
+  <si>
+    <t>VM2</t>
+  </si>
+  <si>
+    <t>AD2</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-3</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>VM1</t>
+  </si>
+  <si>
+    <t>All fields are mandatory except fault domain which you can leave blank</t>
+  </si>
+  <si>
+    <t>DedicatedVMHost</t>
+  </si>
+  <si>
+    <t>MountTarget Name</t>
+  </si>
+  <si>
+    <t>MountTarget IP</t>
+  </si>
+  <si>
+    <t>MountTarget Hostname</t>
+  </si>
+  <si>
+    <t>FSS Name</t>
+  </si>
+  <si>
+    <t>Availability Domain</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>sourceCIDR</t>
+  </si>
+  <si>
+    <t>GID</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>IDSquash (NONE|ALL|ROOT)</t>
+  </si>
+  <si>
+    <t>Access (READ_ONLY|READ_WRITE)</t>
+  </si>
+  <si>
+    <t>require_ps_port (true|false)</t>
+  </si>
+  <si>
+    <t>Max FSS inodes</t>
+  </si>
+  <si>
+    <t>Max FSS Capacity (in bytes)</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>/fss/</t>
+  </si>
+  <si>
+    <t>FSS1</t>
+  </si>
+  <si>
+    <t>MT1</t>
+  </si>
+  <si>
+    <t>MountTarget SubnetName</t>
+  </si>
+  <si>
+    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
+This will create one Mount target for one FSS
+Choose distinct names for Mount Targets and FSS</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
+Valid Values for columns D,E,F,G:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- Not possible to specify names for LPGs
+</t>
+  </si>
+  <si>
+    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
+Note- Please use different names for route tables/seclists across VCNs</t>
   </si>
   <si>
     <r>
@@ -815,7 +982,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>subnet_atttach_cidr</t>
+      <t>subnet_name_attach_cidr</t>
     </r>
     <r>
       <rPr>
@@ -894,219 +1061,6 @@
       <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list; case insensitive; (allowed values: ashburn, phoenix, london, frankfurt, toronto, tokyo, seoul, mumbai)
 </t>
     </r>
-  </si>
-  <si>
-    <t>drg_required</t>
-  </si>
-  <si>
-    <t>igw_required</t>
-  </si>
-  <si>
-    <t>ngw_required</t>
-  </si>
-  <si>
-    <t>sgw_required</t>
-  </si>
-  <si>
-    <t>PHX-DRG</t>
-  </si>
-  <si>
-    <t>ASH-DRG</t>
-  </si>
-  <si>
-    <t>ashprodNGW</t>
-  </si>
-  <si>
-    <t>ashprodIGW</t>
-  </si>
-  <si>
-    <t>ngw:ashprodNGW</t>
-  </si>
-  <si>
-    <t>ngw:PHXNonProd-VCN_ngw</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
-Enter Route Destination Object as either the OCID of component or  name of component- spcify name as igw:&lt;IGWName&gt;, ngw:&lt;NGWName&gt;, sgw:&lt;SGWName&gt;, drg:&lt;DRGName&gt;, lpg:&lt;LPGName&gt;</t>
-  </si>
-  <si>
-    <t>route_table_name</t>
-  </si>
-  <si>
-    <t>seclist_name</t>
-  </si>
-  <si>
-    <t>devqa_seclist</t>
-  </si>
-  <si>
-    <t>proddr_seclist</t>
-  </si>
-  <si>
-    <t>phx_rt</t>
-  </si>
-  <si>
-    <t>ash_rt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
-Valid Values for columns D,E,F,G:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Not possible to specify names for LPGs
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Subnet Name/RouteTable Name</t>
-  </si>
-  <si>
-    <t>SubnetName/SecurityListName</t>
-  </si>
-  <si>
-    <t>VM3</t>
-  </si>
-  <si>
-    <t>DVH.Standard2.52</t>
-  </si>
-  <si>
-    <t>VM2</t>
-  </si>
-  <si>
-    <t>AD2</t>
-  </si>
-  <si>
-    <t>FAULT-DOMAIN-3</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>VM1</t>
-  </si>
-  <si>
-    <t>All fields are mandatory except fault domain which you can leave blank</t>
-  </si>
-  <si>
-    <t>DedicatedVMHost</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please use different names for route tables/seclists across VCNs</t>
-    </r>
-  </si>
-  <si>
-    <t>MountTarget Name</t>
-  </si>
-  <si>
-    <t>MountTarget IP</t>
-  </si>
-  <si>
-    <t>MountTarget Hostname</t>
-  </si>
-  <si>
-    <t>FSS Name</t>
-  </si>
-  <si>
-    <t>Availability Domain</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>sourceCIDR</t>
-  </si>
-  <si>
-    <t>GID</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>IDSquash (NONE|ALL|ROOT)</t>
-  </si>
-  <si>
-    <t>Access (READ_ONLY|READ_WRITE)</t>
-  </si>
-  <si>
-    <t>require_ps_port (true|false)</t>
-  </si>
-  <si>
-    <t>Max FSS inodes</t>
-  </si>
-  <si>
-    <t>Max FSS Capacity (in bytes)</t>
-  </si>
-  <si>
-    <t>Demo1</t>
-  </si>
-  <si>
-    <t>/fss/</t>
-  </si>
-  <si>
-    <t>FSS1</t>
-  </si>
-  <si>
-    <t>MT1</t>
-  </si>
-  <si>
-    <t>MountTarget SubnetName</t>
-  </si>
-  <si>
-    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
-This will create one Mount target for one FSS
-Choose distinct names for Mount Targets and FSS</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1362,21 +1316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1387,9 +1326,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,7 +1349,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,7 +1668,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1735,12 +1680,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2035,25 +1980,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2272,7 +2217,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2285,14 +2230,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="A1" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2322,14 +2267,14 @@
         <v>161</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2340,16 +2285,16 @@
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2367,19 +2312,19 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2418,21 +2363,21 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
+        <v>268</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2475,7 +2420,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2556,7 +2501,7 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -2600,7 +2545,7 @@
         <v>214</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -2658,7 +2603,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2673,16 +2618,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2794,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -2815,25 +2760,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="A1" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -2843,49 +2788,49 @@
         <v>76</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O2" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>259</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2893,13 +2838,13 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>63</v>
@@ -2909,10 +2854,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3013,7 +2958,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3026,15 +2971,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3060,13 +3005,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3083,9 +3028,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -3100,9 +3045,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3113,9 +3058,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="48"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3126,108 +3071,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="48"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="48"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="48"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3250,7 +3195,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3264,14 +3209,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -3345,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3360,14 +3305,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -3442,7 +3387,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3453,11 +3398,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -3531,7 +3476,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3544,16 +3489,16 @@
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -3698,20 +3643,20 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
+        <v>269</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3724,16 +3669,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3765,7 +3710,7 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -3845,7 +3790,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -3892,10 +3837,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>
@@ -3970,7 +3915,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3981,10 +3926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4053,10 +3998,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -4110,20 +4055,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4148,10 +4093,10 @@
         <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>32</v>
@@ -4189,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="6" t="s">
@@ -4229,7 +4174,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>16</v>
@@ -4268,7 +4213,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>16</v>
@@ -4343,10 +4288,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>16</v>
@@ -4385,7 +4330,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>16</v>
@@ -4476,7 +4421,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4492,10 +4437,10 @@
       <c r="A1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4595,7 +4540,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4613,15 +4558,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -4637,7 +4582,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>79</v>
@@ -4665,7 +4610,7 @@
         <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>84</v>
@@ -4687,7 +4632,7 @@
         <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>84</v>
@@ -4746,7 +4691,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4766,23 +4711,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4795,7 +4740,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>87</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -23,16 +23,19 @@
     <sheet name="Instances" sheetId="4" r:id="rId14"/>
     <sheet name="BlockVols" sheetId="5" r:id="rId15"/>
     <sheet name="FSS" sheetId="21" r:id="rId16"/>
-    <sheet name="Tags" sheetId="6" r:id="rId17"/>
-    <sheet name="TagServer" sheetId="13" r:id="rId18"/>
-    <sheet name="TagVolume" sheetId="14" r:id="rId19"/>
+    <sheet name="LBR" sheetId="22" r:id="rId17"/>
+    <sheet name="Tags" sheetId="6" r:id="rId18"/>
+    <sheet name="TagServer" sheetId="13" r:id="rId19"/>
+    <sheet name="TagVolume" sheetId="14" r:id="rId20"/>
+    <sheet name="ADW_ATP" sheetId="24" r:id="rId21"/>
+    <sheet name="Database" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="373">
   <si>
     <t>Regional</t>
   </si>
@@ -1062,12 +1065,355 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>LBR Name</t>
+  </si>
+  <si>
+    <t>LBR Subnets</t>
+  </si>
+  <si>
+    <t>Listener Port</t>
+  </si>
+  <si>
+    <t>Backend HealthCheck
+Port</t>
+  </si>
+  <si>
+    <t>Is Private(True|False)</t>
+  </si>
+  <si>
+    <t>Backend
+ServerName:Port</t>
+  </si>
+  <si>
+    <t>LBR Hostname</t>
+  </si>
+  <si>
+    <t>my_lbr</t>
+  </si>
+  <si>
+    <t>Backend
+Policy(LEAST_CONNECTIONS|ROUND_ROBIN|IP_HASH)</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>Shape(100Mbps|400Mbps|8000Mbps</t>
+  </si>
+  <si>
+    <t>Backend HealthCheck
+Protocol
+(HTTP|TCP)</t>
+  </si>
+  <si>
+    <t>Backend HealthCheck URL</t>
+  </si>
+  <si>
+    <t>400Mbps</t>
+  </si>
+  <si>
+    <t>10.111.1.4:80,Test2:81</t>
+  </si>
+  <si>
+    <t>IP_HASH</t>
+  </si>
+  <si>
+    <t>/welcome.html</t>
+  </si>
+  <si>
+    <t>app.example.com</t>
+  </si>
+  <si>
+    <t>UseSSL (y|n)</t>
+  </si>
+  <si>
+    <t>Public Cert</t>
+  </si>
+  <si>
+    <t>CA Cert</t>
+  </si>
+  <si>
+    <t>Private Key</t>
+  </si>
+  <si>
+    <t>Passphrase</t>
+  </si>
+  <si>
+    <t>OCICtoOCI</t>
+  </si>
+  <si>
+    <t>D:\\certificate.pem</t>
+  </si>
+  <si>
+    <t>D:\\key.pem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DB Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Should Not be more than 14 character | Should contain only AlphaNumeric Characters</t>
+    </r>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>DB Name</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>CPU Count</t>
+  </si>
+  <si>
+    <t>Size in TB</t>
+  </si>
+  <si>
+    <t>ADW or ATP</t>
+  </si>
+  <si>
+    <t>ADW_23_9_CD3</t>
+  </si>
+  <si>
+    <t>ADWAc3</t>
+  </si>
+  <si>
+    <t>Rajvilla#6330</t>
+  </si>
+  <si>
+    <t>ADW</t>
+  </si>
+  <si>
+    <t>ATP_23_9_CD3</t>
+  </si>
+  <si>
+    <t>ATPAc3</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>ADW_23_9_CD3_P</t>
+  </si>
+  <si>
+    <t>ADWPc3</t>
+  </si>
+  <si>
+    <t>ATP_23_9_CD3_p</t>
+  </si>
+  <si>
+    <t>ATPPc3</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>ATP_23_9_CD3_t</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>ATP_23_9_CD3_m</t>
+  </si>
+  <si>
+    <t>Subnet name</t>
+  </si>
+  <si>
+    <t>Name your DB system</t>
+  </si>
+  <si>
+    <t>CPU Core</t>
+  </si>
+  <si>
+    <t>Total node count</t>
+  </si>
+  <si>
+    <t>Oracle database software edition</t>
+  </si>
+  <si>
+    <t>Database Size (GB)</t>
+  </si>
+  <si>
+    <t>Database Disk Redundancy</t>
+  </si>
+  <si>
+    <t>Choose a license type</t>
+  </si>
+  <si>
+    <t>Hostname prefix</t>
+  </si>
+  <si>
+    <t>Database name</t>
+  </si>
+  <si>
+    <t>Database version</t>
+  </si>
+  <si>
+    <r>
+      <t>PDB name (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>Database username</t>
+  </si>
+  <si>
+    <t>Database admin password</t>
+  </si>
+  <si>
+    <t>Select workload type</t>
+  </si>
+  <si>
+    <t>Enable Automatic Backups</t>
+  </si>
+  <si>
+    <t>Experimentation</t>
+  </si>
+  <si>
+    <t>DBSUBNET1</t>
+  </si>
+  <si>
+    <t>RACDB2cd</t>
+  </si>
+  <si>
+    <t>VM.Standard2.24</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LICENSE_INCLUDED</t>
+  </si>
+  <si>
+    <t>RACDB2</t>
+  </si>
+  <si>
+    <t>CDB1</t>
+  </si>
+  <si>
+    <t>12.1.0.2</t>
+  </si>
+  <si>
+    <t>pdb1</t>
+  </si>
+  <si>
+    <t>opc</t>
+  </si>
+  <si>
+    <t>BEstrO0ng_#12</t>
+  </si>
+  <si>
+    <t>OLTP</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>EXADB1cd</t>
+  </si>
+  <si>
+    <t>VM.Standard2.2</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION</t>
+  </si>
+  <si>
+    <t>EXADB1</t>
+  </si>
+  <si>
+    <t>CDB2</t>
+  </si>
+  <si>
+    <t>pdb2</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>AD3</t>
+  </si>
+  <si>
+    <t>TESTDB3cd</t>
+  </si>
+  <si>
+    <t>VM.Standard2.1</t>
+  </si>
+  <si>
+    <t>TESTDB3</t>
+  </si>
+  <si>
+    <t>CDB3</t>
+  </si>
+  <si>
+    <t>pdb3</t>
+  </si>
+  <si>
+    <t>OCIC2OCI</t>
+  </si>
+  <si>
+    <t>EXADB1cdphx</t>
+  </si>
+  <si>
+    <t>TESTDB3cdphx</t>
+  </si>
+  <si>
+    <t>TESTDB3cdtrt</t>
+  </si>
+  <si>
+    <t>TESTDB3cdmum</t>
+  </si>
+  <si>
+    <t>#Description</t>
+  </si>
+  <si>
+    <t>Listener Protocol (HTTP|TCP)</t>
+  </si>
+  <si>
+    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;**"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1448,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1259,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1316,23 +1669,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,16 +1726,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1680,12 +2066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -1980,25 +2366,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2230,14 +2616,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2362,22 +2748,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2618,16 +3004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2740,7 +3126,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2760,25 +3146,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -2955,6 +3341,183 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="12.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="17"/>
+    <col min="4" max="4" width="12.1796875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="17"/>
+    <col min="14" max="14" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="17"/>
+    <col min="18" max="18" width="11.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+    </row>
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="1">
+        <v>443</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,15 +3534,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3005,13 +3568,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3028,9 +3591,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -3045,9 +3608,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3058,9 +3621,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3071,108 +3634,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3190,7 +3753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3209,14 +3772,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -3275,102 +3838,6 @@
         <v>210</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3398,11 +3865,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -3468,6 +3935,871 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" customWidth="1"/>
+    <col min="15" max="15" width="8.6328125" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="63"/>
+    </row>
+    <row r="2" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38">
+        <v>1</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" s="38">
+        <v>256</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J4" s="38">
+        <v>256</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="38">
+        <v>256</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="38">
+        <v>1</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="38">
+        <v>256</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="38">
+        <v>256</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1</v>
+      </c>
+      <c r="H8" s="38">
+        <v>1</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J8" s="38">
+        <v>256</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="38">
+        <v>1</v>
+      </c>
+      <c r="H9" s="38">
+        <v>1</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" s="38">
+        <v>256</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3490,15 +4822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -3642,21 +4974,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3926,10 +5258,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -3998,10 +5330,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="47"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -4054,21 +5386,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4434,13 +5766,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4558,15 +5890,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -4711,23 +6043,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -30,12 +30,18 @@
     <sheet name="ADW_ATP" sheetId="24" r:id="rId21"/>
     <sheet name="Database" sheetId="25" r:id="rId22"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId23"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Shape_Option">[1]Database!$F$3:$F$10</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="379">
   <si>
     <t>Regional</t>
   </si>
@@ -1149,29 +1155,6 @@
     <t>D:\\key.pem</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DB Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Should Not be more than 14 character | Should contain only AlphaNumeric Characters</t>
-    </r>
-  </si>
-  <si>
     <t>Display Name</t>
   </si>
   <si>
@@ -1298,9 +1281,6 @@
     <t>Experimentation</t>
   </si>
   <si>
-    <t>DBSUBNET1</t>
-  </si>
-  <si>
     <t>RACDB2cd</t>
   </si>
   <si>
@@ -1382,9 +1362,6 @@
     <t>pdb3</t>
   </si>
   <si>
-    <t>OCIC2OCI</t>
-  </si>
-  <si>
     <t>EXADB1cdphx</t>
   </si>
   <si>
@@ -1397,13 +1374,62 @@
     <t>TESTDB3cdmum</t>
   </si>
   <si>
-    <t>#Description</t>
-  </si>
-  <si>
     <t>Listener Protocol (HTTP|TCP)</t>
   </si>
   <si>
     <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR</t>
+  </si>
+  <si>
+    <t>DB Name: Should Not be more than 14 character | Should contain only AlphaNumeric Characters | Mention ADW/ATP in ADW or ATP coloumn to create the respective Autonomous database</t>
+  </si>
+  <si>
+    <r>
+      <t>#for DB Systems, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual machine, bare metal, EXADATA in "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" column and change CPU core and node count accordingly. </t>
+    </r>
+  </si>
+  <si>
+    <t>Shape Option</t>
+  </si>
+  <si>
+    <t>SSH Key</t>
+  </si>
+  <si>
+    <t>testk_sub_a</t>
+  </si>
+  <si>
+    <t>BM.DenseIO2.52</t>
+  </si>
+  <si>
+    <t>testk_sub_e</t>
+  </si>
+  <si>
+    <t>VM.Standard2.4</t>
+  </si>
+  <si>
+    <t>Exadata.Base.48</t>
+  </si>
+  <si>
+    <t>VM.Standard2.16</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,8 +1483,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,8 +1529,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1608,11 +1666,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1672,17 +1741,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1730,15 +1788,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,6 +1795,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,6 +1845,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Database"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2066,12 +2241,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2366,25 +2541,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2616,14 +2791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2748,22 +2923,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3004,16 +3179,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3146,25 +3321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3343,7 +3518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -3371,27 +3546,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="A1" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3428,7 +3603,7 @@
         <v>284</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>274</v>
@@ -3534,15 +3709,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3568,13 +3743,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3591,9 +3766,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -3608,9 +3783,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3621,9 +3796,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3634,108 +3809,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3772,14 +3947,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -3865,11 +4040,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -3957,14 +4132,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4039,209 +4214,211 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="H2" s="36" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="D3" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="54">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54">
+        <v>1</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B4" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C4" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F4" s="54">
+        <v>1</v>
+      </c>
+      <c r="G4" s="54">
+        <v>1</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54">
+        <v>1</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="54">
         <v>1</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G6" s="54">
         <v>1</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="H6" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C7" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="54">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54">
+        <v>1</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="54">
         <v>1</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G8" s="54">
         <v>1</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35">
-        <v>1</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="35">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35">
-        <v>1</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7" s="35">
-        <v>1</v>
-      </c>
-      <c r="G7" s="35">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35">
-        <v>1</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>311</v>
+      <c r="H8" s="54" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4254,10 +4431,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4265,540 +4442,597 @@
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="35" customWidth="1"/>
     <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.08984375" customWidth="1"/>
     <col min="15" max="15" width="8.6328125" customWidth="1"/>
     <col min="16" max="16" width="10.08984375" customWidth="1"/>
     <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.453125" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
-    </row>
-    <row r="2" spans="1:20" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+    </row>
+    <row r="2" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="39" t="s">
+      <c r="I2" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="J2" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="K2" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="L2" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="M2" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="N2" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="O2" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="P2" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="Q2" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="R2" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="S2" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="T2" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="U2" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="V2" s="66" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" s="58">
+        <v>1</v>
+      </c>
+      <c r="I3" s="58">
+        <v>1</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="58">
+        <v>256</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" s="58">
+        <v>1</v>
+      </c>
+      <c r="I4" s="58">
+        <v>1</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="58">
+        <v>256</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="58">
+        <v>1</v>
+      </c>
+      <c r="I5" s="58">
+        <v>1</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="58">
+        <v>256</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="58">
+        <v>1</v>
+      </c>
+      <c r="I6" s="58">
+        <v>1</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" s="58">
+        <v>256</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V6" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="C7" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" s="58">
+        <v>1</v>
+      </c>
+      <c r="I7" s="58">
+        <v>1</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="58">
+        <v>256</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="R7" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V7" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="H8" s="58">
+        <v>1</v>
+      </c>
+      <c r="I8" s="58">
+        <v>1</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" s="58">
+        <v>256</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="U8" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V8" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="B9" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="58">
+        <v>1</v>
+      </c>
+      <c r="I9" s="58">
+        <v>1</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K9" s="58">
+        <v>256</v>
+      </c>
+      <c r="L9" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="38">
-        <v>1</v>
-      </c>
-      <c r="H3" s="38">
-        <v>1</v>
-      </c>
-      <c r="I3" s="38" t="s">
+      <c r="M9" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="J3" s="38">
-        <v>256</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M3" s="38" t="s">
+      <c r="N9" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="P9" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="Q9" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="R9" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="S9" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="T9" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="38">
-        <v>1</v>
-      </c>
-      <c r="H4" s="38">
-        <v>1</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J4" s="38">
-        <v>256</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P4" s="38" t="s">
+      <c r="U9" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="Q4" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G5" s="38">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="38">
-        <v>256</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" s="38">
-        <v>1</v>
-      </c>
-      <c r="H6" s="38">
-        <v>1</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J6" s="38">
-        <v>256</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G7" s="38">
-        <v>1</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J7" s="38">
-        <v>256</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="T7" s="38" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1</v>
-      </c>
-      <c r="H8" s="38">
-        <v>1</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J8" s="38">
-        <v>256</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="T8" s="38" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G9" s="38">
-        <v>1</v>
-      </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J9" s="38">
-        <v>256</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="T9" s="38" t="s">
-        <v>358</v>
+      <c r="V9" s="58" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9">
+      <formula1>Shape_Option</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4822,15 +5056,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -4974,21 +5208,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5258,10 +5492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5330,10 +5564,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -5386,21 +5620,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5766,13 +6000,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5890,15 +6124,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6043,23 +6277,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -32,16 +32,18 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Shape_Option">[1]Database!$F$3:$F$10</definedName>
+    <definedName name="Shape_Option">#REF!</definedName>
+    <definedName name="Shape_Option_DB">[2]Database!$B$10:$J$10</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="378">
   <si>
     <t>Regional</t>
   </si>
@@ -1284,9 +1286,6 @@
     <t>RACDB2cd</t>
   </si>
   <si>
-    <t>VM.Standard2.24</t>
-  </si>
-  <si>
     <t>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</t>
   </si>
   <si>
@@ -1323,9 +1322,6 @@
     <t>EXADB1cd</t>
   </si>
   <si>
-    <t>VM.Standard2.2</t>
-  </si>
-  <si>
     <t>ENTERPRISE_EDITION</t>
   </si>
   <si>
@@ -1350,9 +1346,6 @@
     <t>TESTDB3cd</t>
   </si>
   <si>
-    <t>VM.Standard2.1</t>
-  </si>
-  <si>
     <t>TESTDB3</t>
   </si>
   <si>
@@ -1365,9 +1358,6 @@
     <t>EXADB1cdphx</t>
   </si>
   <si>
-    <t>TESTDB3cdphx</t>
-  </si>
-  <si>
     <t>TESTDB3cdtrt</t>
   </si>
   <si>
@@ -1381,6 +1371,24 @@
   </si>
   <si>
     <t>DB Name: Should Not be more than 14 character | Should contain only AlphaNumeric Characters | Mention ADW/ATP in ADW or ATP coloumn to create the respective Autonomous database</t>
+  </si>
+  <si>
+    <t>SSH Key</t>
+  </si>
+  <si>
+    <t>testk_sub_a</t>
+  </si>
+  <si>
+    <t>testk_sub_e</t>
+  </si>
+  <si>
+    <t>VM.Standard2.4</t>
+  </si>
+  <si>
+    <t>Exadata.Base.48</t>
+  </si>
+  <si>
+    <t>VM.Standard2.16</t>
   </si>
   <si>
     <r>
@@ -1404,32 +1412,63 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">" column and change CPU core and node count accordingly. </t>
+      <t xml:space="preserve">" column and change CPU core and node count accordingly.  Type anything after &lt;END&gt; for testing. </t>
     </r>
-  </si>
-  <si>
-    <t>Shape Option</t>
-  </si>
-  <si>
-    <t>SSH Key</t>
-  </si>
-  <si>
-    <t>testk_sub_a</t>
-  </si>
-  <si>
-    <t>BM.DenseIO2.52</t>
-  </si>
-  <si>
-    <t>testk_sub_e</t>
-  </si>
-  <si>
-    <t>VM.Standard2.4</t>
-  </si>
-  <si>
-    <t>Exadata.Base.48</t>
-  </si>
-  <si>
-    <t>VM.Standard2.16</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do not Modify "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shape Option DB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>testk_sub1_e</t>
+  </si>
+  <si>
+    <t>testk_sub1_a</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>Test_Subnet</t>
+  </si>
+  <si>
+    <t>mumbai</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,6 +1542,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1542,7 +1588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1677,11 +1723,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1742,6 +1799,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1796,39 +1861,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1848,6 +1916,19 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1874,44 +1955,30 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="F3" t="str">
+        <row r="10">
+          <cell r="B10" t="str">
             <v>VM.Standard2.1</v>
           </cell>
-        </row>
-        <row r="4">
-          <cell r="F4" t="str">
+          <cell r="C10" t="str">
             <v>VM.Standard2.2</v>
           </cell>
-        </row>
-        <row r="5">
-          <cell r="F5" t="str">
+          <cell r="D10" t="str">
             <v>VM.Standard2.4</v>
           </cell>
-        </row>
-        <row r="6">
-          <cell r="F6" t="str">
+          <cell r="E10" t="str">
             <v>VM.Standard2.8</v>
           </cell>
-        </row>
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8" t="str">
+          <cell r="G10" t="str">
             <v>VM.Standard2.24</v>
           </cell>
-        </row>
-        <row r="9">
-          <cell r="F9" t="str">
+          <cell r="H10" t="str">
             <v>BM.DenseIO2.52</v>
           </cell>
-        </row>
-        <row r="10">
-          <cell r="F10" t="str">
+          <cell r="I10" t="str">
             <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
           </cell>
         </row>
       </sheetData>
@@ -2241,12 +2308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2541,25 +2608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2791,14 +2858,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2923,22 +2990,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3179,16 +3246,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3321,25 +3388,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3546,27 +3613,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="A1" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3603,7 +3670,7 @@
         <v>284</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>274</v>
@@ -3709,15 +3776,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3743,13 +3810,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="50" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3766,9 +3833,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -3783,9 +3850,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3796,9 +3863,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3809,108 +3876,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="47"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="47"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="47"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3947,14 +4014,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4040,11 +4107,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4132,14 +4199,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4228,196 +4295,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
+      <c r="A1" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="37" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="36">
         <v>1</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="36">
         <v>1</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="36" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="36">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="36" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="36">
         <v>1</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="36">
         <v>1</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="36" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="36">
         <v>1</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="36">
         <v>1</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="36" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="36">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="36" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="36">
         <v>1</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="36" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4431,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4451,586 +4518,505 @@
     <col min="17" max="17" width="11.26953125" customWidth="1"/>
     <col min="19" max="19" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.453125" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-    </row>
-    <row r="2" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+    <row r="1" spans="1:21" s="60" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="69"/>
+    </row>
+    <row r="2" spans="1:21" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="66">
+        <v>1</v>
+      </c>
+      <c r="H3" s="66">
+        <v>1</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="66">
+        <v>256</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="R3" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="U3" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="66">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66">
+        <v>1</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="66">
+        <v>256</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="U4" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="G2" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="O2" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="R2" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="V2" s="66" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="G5" s="66">
+        <v>1</v>
+      </c>
+      <c r="H5" s="66">
+        <v>1</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="66">
+        <v>256</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q5" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="R5" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="S5" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="T5" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="U5" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" s="65" t="s">
+      <c r="C6" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="66">
+        <v>1</v>
+      </c>
+      <c r="H6" s="66">
+        <v>1</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="J6" s="66">
+        <v>256</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q6" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="S6" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="T6" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="U6" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="66">
+        <v>1</v>
+      </c>
+      <c r="H7" s="66">
+        <v>1</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="66">
+        <v>256</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="H3" s="58">
+      <c r="Q7" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="R7" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="S7" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="T7" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="U7" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="66">
         <v>1</v>
       </c>
-      <c r="I3" s="58">
+      <c r="H8" s="66">
         <v>1</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="I8" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="J8" s="66">
+        <v>256</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="58">
-        <v>256</v>
-      </c>
-      <c r="L3" s="58" t="s">
+      <c r="L8" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="M3" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="O3" s="58" t="s">
+      <c r="M8" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="O8" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q3" s="58" t="s">
+      <c r="P8" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q8" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R8" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S8" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="T3" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="V3" s="58" t="s">
+      <c r="T8" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="U8" s="66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="H4" s="58">
-        <v>1</v>
-      </c>
-      <c r="I4" s="58">
-        <v>1</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="58">
-        <v>256</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="T4" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="U4" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>376</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="H5" s="58">
-        <v>1</v>
-      </c>
-      <c r="I5" s="58">
-        <v>1</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="K5" s="58">
-        <v>256</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="S5" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="T5" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="U5" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V5" s="58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="58">
-        <v>1</v>
-      </c>
-      <c r="I6" s="58">
-        <v>1</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="K6" s="58">
-        <v>256</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="R6" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="S6" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="T6" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="U6" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V6" s="58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="H7" s="58">
-        <v>1</v>
-      </c>
-      <c r="I7" s="58">
-        <v>1</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="K7" s="58">
-        <v>256</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N7" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="O7" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="P7" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q7" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="R7" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="S7" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="T7" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="U7" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V7" s="58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="H8" s="58">
-        <v>1</v>
-      </c>
-      <c r="I8" s="58">
-        <v>1</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" s="58">
-        <v>256</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="M8" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N8" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="O8" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q8" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="R8" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="S8" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="T8" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="U8" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V8" s="58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="H9" s="58">
-        <v>1</v>
-      </c>
-      <c r="I9" s="58">
-        <v>1</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="K9" s="58">
-        <v>256</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="N9" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q9" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="R9" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="S9" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="T9" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="U9" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="V9" s="58" t="s">
-        <v>12</v>
+    <row r="9" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
       <formula1>Shape_Option</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>Shape_Option_DB</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5056,15 +5042,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -5208,21 +5194,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5492,10 +5478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5564,10 +5550,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -5620,21 +5606,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6000,13 +5986,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6124,15 +6110,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6277,23 +6263,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -32,11 +32,10 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[2]Database!$B$10:$J$10</definedName>
+    <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -868,12 +867,6 @@
   </si>
   <si>
     <t>MountTarget SubnetName</t>
-  </si>
-  <si>
-    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
-This will create one Mount target for one FSS
-Choose distinct names for Mount Targets and FSS</t>
   </si>
   <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
@@ -1469,6 +1462,13 @@
   </si>
   <si>
     <t>mumbai</t>
+  </si>
+  <si>
+    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
+Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
+This will create one Mount target for one FSS
+Choose distinct names for Mount Targets and FSS</t>
   </si>
 </sst>
 </file>
@@ -1807,6 +1807,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1867,34 +1895,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1920,18 +1920,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Database"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
@@ -1954,7 +1942,8 @@
       <sheetName val="NSGs"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="10">
           <cell r="B10" t="str">
             <v>VM.Standard2.1</v>
@@ -1982,7 +1971,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2001,6 +1989,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2308,12 +2297,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2608,25 +2597,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2858,14 +2847,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2990,22 +2979,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
+      <c r="A1" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3246,16 +3235,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3367,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3388,25 +3377,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="A1" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3613,27 +3602,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="A1" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3643,55 +3632,55 @@
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>278</v>
-      </c>
       <c r="O2" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3699,13 +3688,13 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>171</v>
@@ -3714,38 +3703,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -3776,15 +3765,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3810,13 +3799,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="59" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3833,9 +3822,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -3850,9 +3839,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3863,9 +3852,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3876,108 +3865,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="51"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4014,14 +4003,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4107,11 +4096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4199,14 +4188,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4295,16 +4284,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="A1" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -4314,22 +4303,22 @@
         <v>76</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>302</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4337,16 +4326,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>305</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>306</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -4355,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4363,16 +4352,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>309</v>
-      </c>
       <c r="E4" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -4381,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4389,16 +4378,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>312</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -4407,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4415,16 +4404,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>314</v>
-      </c>
       <c r="E6" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -4433,24 +4422,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>316</v>
-      </c>
       <c r="D7" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -4459,24 +4448,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>318</v>
-      </c>
       <c r="D8" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -4485,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4522,488 +4511,488 @@
     <col min="22" max="22" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="60" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:21" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="69"/>
+    </row>
+    <row r="2" spans="1:21" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="46">
+        <v>1</v>
+      </c>
+      <c r="H3" s="46">
+        <v>1</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="46">
+        <v>256</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1</v>
+      </c>
+      <c r="H4" s="46">
+        <v>1</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" s="46">
+        <v>256</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="69"/>
-    </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="R2" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="T2" s="61" t="s">
+      <c r="D5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1</v>
+      </c>
+      <c r="H5" s="46">
+        <v>1</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="46">
+        <v>256</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="S5" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="46">
+        <v>256</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="U6" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="U2" s="65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>368</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" s="66" t="s">
+      <c r="C7" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G7" s="46">
         <v>1</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H7" s="46">
         <v>1</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I7" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" s="46">
+        <v>256</v>
+      </c>
+      <c r="K7" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="66">
+      <c r="L7" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="S7" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1</v>
+      </c>
+      <c r="H8" s="46">
+        <v>1</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="46">
         <v>256</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K8" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L8" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="L3" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" s="66" t="s">
+      <c r="M8" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="O8" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="O3" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P3" s="66" t="s">
+      <c r="P8" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q8" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="Q3" s="66" t="s">
+      <c r="R8" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="S8" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="S3" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="T3" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="U3" s="66" t="s">
+      <c r="T8" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="U8" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="66">
-        <v>1</v>
-      </c>
-      <c r="H4" s="66">
-        <v>1</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="J4" s="66">
-        <v>256</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="L4" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="R4" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="S4" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="G5" s="66">
-        <v>1</v>
-      </c>
-      <c r="H5" s="66">
-        <v>1</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="J5" s="66">
-        <v>256</v>
-      </c>
-      <c r="K5" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="L5" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="N5" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P5" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="R5" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="S5" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="T5" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="U5" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="66">
-        <v>1</v>
-      </c>
-      <c r="H6" s="66">
-        <v>1</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="J6" s="66">
-        <v>256</v>
-      </c>
-      <c r="K6" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="N6" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="O6" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q6" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="R6" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="S6" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="T6" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="U6" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="G7" s="66">
-        <v>1</v>
-      </c>
-      <c r="H7" s="66">
-        <v>1</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="J7" s="66">
-        <v>256</v>
-      </c>
-      <c r="K7" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="N7" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="O7" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P7" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q7" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="R7" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="S7" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="T7" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="U7" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="66">
-        <v>1</v>
-      </c>
-      <c r="H8" s="66">
-        <v>1</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="J8" s="66">
-        <v>256</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="R8" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="S8" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="T8" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="U8" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="9" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="48" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5042,15 +5031,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -5194,21 +5183,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
+      <c r="A1" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5478,10 +5467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="46"/>
+      <c r="A1" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5550,10 +5539,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -5606,21 +5595,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="A1" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5986,13 +5975,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6110,15 +6099,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6263,23 +6252,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -37,12 +37,12 @@
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="391">
   <si>
     <t>Regional</t>
   </si>
@@ -852,12 +852,6 @@
   </si>
   <si>
     <t>Max FSS Capacity (in bytes)</t>
-  </si>
-  <si>
-    <t>Demo1</t>
-  </si>
-  <si>
-    <t>/fss/</t>
   </si>
   <si>
     <t>FSS1</t>
@@ -1464,11 +1458,56 @@
     <t>mumbai</t>
   </si>
   <si>
+    <t>MT2</t>
+  </si>
+  <si>
+    <t>HUB_SERVICES_SN</t>
+  </si>
+  <si>
+    <t>FSS3</t>
+  </si>
+  <si>
+    <t>/fss3/</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>READ_ONLY</t>
+  </si>
+  <si>
+    <t>/fss1/</t>
+  </si>
+  <si>
+    <t>MT3</t>
+  </si>
+  <si>
+    <t>11.0.0.0/8</t>
+  </si>
+  <si>
+    <t>READ_WRITE</t>
+  </si>
+  <si>
+    <t>FSS2</t>
+  </si>
+  <si>
+    <t>/fss2/</t>
+  </si>
+  <si>
+    <t>MT4</t>
+  </si>
+  <si>
+    <t>FSS4</t>
+  </si>
+  <si>
+    <t>/fss4/</t>
+  </si>
+  <si>
     <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Default value for sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
+Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
 Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
-This will create one Mount target for one FSS
-Choose distinct names for Mount Targets and FSS</t>
+Resources will be created based on MountTargetName and FSSName columns.
+Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
   </si>
 </sst>
 </file>
@@ -2980,7 +3019,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -3354,7 +3393,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -3376,9 +3415,9 @@
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -3411,7 +3450,7 @@
         <v>248</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>249</v>
@@ -3450,31 +3489,31 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>376</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3483,20 +3522,32 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3504,62 +3555,133 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3603,7 +3725,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -3632,55 +3754,55 @@
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>277</v>
-      </c>
       <c r="O2" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q2" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>291</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3688,13 +3810,13 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>171</v>
@@ -3703,38 +3825,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -4285,7 +4407,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -4303,22 +4425,22 @@
         <v>76</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="G2" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>300</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4326,16 +4448,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>303</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>305</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -4344,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4352,16 +4474,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -4370,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4378,16 +4500,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -4396,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4404,16 +4526,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -4422,24 +4544,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -4448,24 +4570,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -4474,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +4635,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -4544,61 +4666,61 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="L2" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="N2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>333</v>
-      </c>
       <c r="U2" s="45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -4606,19 +4728,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G3" s="46">
         <v>1</v>
@@ -4627,40 +4749,40 @@
         <v>1</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J3" s="46">
         <v>256</v>
       </c>
       <c r="K3" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="N3" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="T3" s="46" t="s">
         <v>344</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>346</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>12</v>
@@ -4671,19 +4793,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>242</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G4" s="46">
         <v>1</v>
@@ -4692,40 +4814,40 @@
         <v>1</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J4" s="46">
         <v>256</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M4" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="S4" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="O4" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="T4" s="46" t="s">
         <v>351</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="S4" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>353</v>
       </c>
       <c r="U4" s="46" t="s">
         <v>12</v>
@@ -4736,19 +4858,19 @@
         <v>128</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G5" s="46">
         <v>1</v>
@@ -4757,40 +4879,40 @@
         <v>1</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J5" s="46">
         <v>256</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="N5" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="O5" s="46" t="s">
+      <c r="Q5" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="P5" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="46" t="s">
+      <c r="R5" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="S5" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="R5" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>345</v>
-      </c>
       <c r="T5" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U5" s="46" t="s">
         <v>12</v>
@@ -4801,16 +4923,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>242</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>196</v>
@@ -4822,40 +4944,40 @@
         <v>1</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J6" s="46">
         <v>256</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M6" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="P6" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="Q6" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="S6" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="O6" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="P6" s="46" t="s">
+      <c r="T6" s="46" t="s">
         <v>351</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="S6" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>353</v>
       </c>
       <c r="U6" s="46" t="s">
         <v>12</v>
@@ -4863,22 +4985,22 @@
     </row>
     <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G7" s="46">
         <v>1</v>
@@ -4887,40 +5009,40 @@
         <v>1</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J7" s="46">
         <v>256</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M7" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="N7" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="O7" s="46" t="s">
+      <c r="Q7" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="P7" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q7" s="46" t="s">
+      <c r="R7" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="S7" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="R7" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="S7" s="46" t="s">
-        <v>345</v>
-      </c>
       <c r="T7" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U7" s="46" t="s">
         <v>12</v>
@@ -4928,19 +5050,19 @@
     </row>
     <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>196</v>
@@ -4952,40 +5074,40 @@
         <v>1</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J8" s="46">
         <v>256</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M8" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="P8" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="N8" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="Q8" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="P8" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q8" s="46" t="s">
+      <c r="R8" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="S8" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="R8" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>345</v>
-      </c>
       <c r="T8" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U8" s="46" t="s">
         <v>12</v>
@@ -5184,7 +5306,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -5468,7 +5590,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="55"/>
     </row>
@@ -5596,7 +5718,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="396">
   <si>
     <t>Regional</t>
   </si>
@@ -870,13 +870,6 @@
 Valid Values for columns D,E,F,G:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
 Note- Not possible to specify names for LPGs
 </t>
-  </si>
-  <si>
-    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list.
-Note- Please use different names for route tables/seclists across VCNs</t>
   </si>
   <si>
     <r>
@@ -1508,6 +1501,28 @@
 Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
 Resources will be created based on MountTargetName and FSSName columns.
 Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
+  </si>
+  <si>
+    <t>RuleDescription</t>
+  </si>
+  <si>
+    <t>objectstorage</t>
+  </si>
+  <si>
+    <t>common_rules_phxprod</t>
+  </si>
+  <si>
+    <t>common_rules_ashprod</t>
+  </si>
+  <si>
+    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list. common_seclist_name column is also added to allow a seclist to be shared among multiple subnets
+Note- Please use different names for route tables/seclists across VCNs</t>
+  </si>
+  <si>
+    <t>common_seclist_name</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1874,6 +1889,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1898,7 +1916,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,12 +2357,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2615,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2633,30 +2654,32 @@
     <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
@@ -2708,8 +2731,11 @@
       <c r="Q2" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -2745,8 +2771,11 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -2786,8 +2815,9 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -2821,8 +2851,11 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -2858,10 +2891,11 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2886,14 +2920,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3018,22 +3052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3274,16 +3308,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3395,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -3416,25 +3450,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="A1" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3494,7 +3528,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>242</v>
@@ -3503,7 +3537,7 @@
         <v>263</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3513,7 +3547,7 @@
         <v>262</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3527,7 +3561,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>242</v>
@@ -3536,17 +3570,17 @@
         <v>263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3560,32 +3594,32 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3597,32 +3631,32 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3634,26 +3668,26 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3724,27 +3758,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="A1" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3754,55 +3788,55 @@
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>275</v>
-      </c>
       <c r="O2" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>290</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3810,13 +3844,13 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>171</v>
@@ -3825,38 +3859,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -3887,15 +3921,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3921,13 +3955,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="61" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3944,9 +3978,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
@@ -3961,9 +3995,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3974,9 +4008,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3987,108 +4021,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4125,14 +4159,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4218,11 +4252,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4310,14 +4344,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4406,16 +4440,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -4425,22 +4459,22 @@
         <v>76</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>299</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4448,16 +4482,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>302</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>303</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -4466,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4474,16 +4508,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>306</v>
-      </c>
       <c r="E4" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -4492,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4500,16 +4534,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>309</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -4518,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4526,16 +4560,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>311</v>
-      </c>
       <c r="E6" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -4544,24 +4578,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>313</v>
-      </c>
       <c r="D7" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -4570,24 +4604,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>315</v>
-      </c>
       <c r="D8" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -4596,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4634,29 +4668,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="69"/>
+      <c r="A1" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
     </row>
     <row r="2" spans="1:21" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
@@ -4666,61 +4700,61 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="T2" s="41" t="s">
-        <v>331</v>
-      </c>
       <c r="U2" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -4728,19 +4762,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G3" s="46">
         <v>1</v>
@@ -4749,40 +4783,40 @@
         <v>1</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J3" s="46">
         <v>256</v>
       </c>
       <c r="K3" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="M3" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="N3" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="T3" s="46" t="s">
         <v>343</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>344</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>12</v>
@@ -4793,19 +4827,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>242</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G4" s="46">
         <v>1</v>
@@ -4814,40 +4848,40 @@
         <v>1</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J4" s="46">
         <v>256</v>
       </c>
       <c r="K4" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="L4" s="46" t="s">
-        <v>336</v>
-      </c>
       <c r="M4" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="O4" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="O4" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="S4" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="Q4" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="S4" s="46" t="s">
+      <c r="T4" s="46" t="s">
         <v>350</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>351</v>
       </c>
       <c r="U4" s="46" t="s">
         <v>12</v>
@@ -4858,19 +4892,19 @@
         <v>128</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>353</v>
-      </c>
       <c r="F5" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G5" s="46">
         <v>1</v>
@@ -4879,40 +4913,40 @@
         <v>1</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J5" s="46">
         <v>256</v>
       </c>
       <c r="K5" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L5" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="L5" s="46" t="s">
-        <v>336</v>
-      </c>
       <c r="M5" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="O5" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="O5" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>356</v>
-      </c>
       <c r="Q5" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="R5" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="S5" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="S5" s="46" t="s">
-        <v>343</v>
-      </c>
       <c r="T5" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U5" s="46" t="s">
         <v>12</v>
@@ -4923,16 +4957,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>242</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>196</v>
@@ -4944,40 +4978,40 @@
         <v>1</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J6" s="46">
         <v>256</v>
       </c>
       <c r="K6" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L6" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>336</v>
-      </c>
       <c r="M6" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="O6" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P6" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="O6" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="P6" s="46" t="s">
+      <c r="Q6" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="S6" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="Q6" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="S6" s="46" t="s">
+      <c r="T6" s="46" t="s">
         <v>350</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>351</v>
       </c>
       <c r="U6" s="46" t="s">
         <v>12</v>
@@ -4985,22 +5019,22 @@
     </row>
     <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>373</v>
-      </c>
       <c r="D7" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G7" s="46">
         <v>1</v>
@@ -5009,40 +5043,40 @@
         <v>1</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J7" s="46">
         <v>256</v>
       </c>
       <c r="K7" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>336</v>
-      </c>
       <c r="M7" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="O7" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="O7" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>356</v>
-      </c>
       <c r="Q7" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="R7" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="S7" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="S7" s="46" t="s">
-        <v>343</v>
-      </c>
       <c r="T7" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U7" s="46" t="s">
         <v>12</v>
@@ -5050,19 +5084,19 @@
     </row>
     <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>196</v>
@@ -5074,40 +5108,40 @@
         <v>1</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J8" s="46">
         <v>256</v>
       </c>
       <c r="K8" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L8" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>336</v>
-      </c>
       <c r="M8" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="N8" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="O8" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P8" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>356</v>
-      </c>
       <c r="Q8" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="R8" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="S8" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="S8" s="46" t="s">
-        <v>343</v>
-      </c>
       <c r="T8" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U8" s="46" t="s">
         <v>12</v>
@@ -5153,15 +5187,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -5305,21 +5339,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5589,10 +5623,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5661,10 +5695,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -5694,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5710,30 +5744,32 @@
     <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.453125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-    </row>
-    <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+    </row>
+    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -5762,19 +5798,22 @@
         <v>232</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -5800,20 +5839,21 @@
         <v>235</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="J3" s="13"/>
       <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -5839,20 +5879,23 @@
       <c r="I4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
+      <c r="J4" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -5878,20 +5921,23 @@
       <c r="I5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>16</v>
+      <c r="J5" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -5915,20 +5961,21 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -5956,20 +6003,23 @@
       <c r="I7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -5995,20 +6045,23 @@
       <c r="I8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>16</v>
+      <c r="J8" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -6024,8 +6077,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6039,8 +6093,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6054,8 +6109,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6069,10 +6125,11 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6097,13 +6154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6221,15 +6278,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6374,23 +6431,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -458,12 +458,6 @@
     <t>0.0.0.0/0</t>
   </si>
   <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to theSecurity Lists; You can also edit Default Security List for a VCN- Mention subnet name as 'Default Security List for &lt;vcn_name&gt;'
-'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
-  </si>
-  <si>
     <t>egress</t>
   </si>
   <si>
@@ -752,13 +746,6 @@
   </si>
   <si>
     <t>ngw:PHXNonProd-VCN_ngw</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
-Enter Route Destination Object as either the OCID of component or  name of component- spcify name as igw:&lt;IGWName&gt;, ngw:&lt;NGWName&gt;, sgw:&lt;SGWName&gt;, drg:&lt;DRGName&gt;, lpg:&lt;LPGName&gt;</t>
   </si>
   <si>
     <t>route_table_name</t>
@@ -1515,14 +1502,24 @@
     <t>common_rules_ashprod</t>
   </si>
   <si>
+    <t>common_seclist_name</t>
+  </si>
+  <si>
     <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
 vcn_name should be same as enterd in VCNs sheet;
 Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list. common_seclist_name column is also added to allow a seclist to be shared among multiple subnets
-Note- Please use different names for route tables/seclists across VCNs</t>
-  </si>
-  <si>
-    <t>common_seclist_name</t>
+You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list. common_seclist_name column is also added to allow a seclist to be shared among multiple subnets</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+Enter Route Destination Object as either the OCID of component or  name of component- spcify name as igw:&lt;IGWName&gt;, ngw:&lt;NGWName&gt;, sgw:&lt;SGWName&gt;, drg:&lt;DRGName&gt;, lpg:&lt;LPGName&gt;</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to theSecurity Lists; You can also edit Default Security List for a VCN- Mention subnet name as 'Default Security List for &lt;vcn_name&gt;'
+'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2395,10 +2392,10 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2407,13 +2404,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -2421,13 +2418,13 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2435,13 +2432,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2659,7 +2656,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2690,10 +2687,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>88</v>
@@ -2702,13 +2699,13 @@
         <v>89</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>93</v>
@@ -2732,7 +2729,7 @@
         <v>97</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2743,27 +2740,27 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="29"/>
       <c r="J3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2772,7 +2769,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2783,10 +2780,10 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>98</v>
@@ -2795,10 +2792,10 @@
         <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>134</v>
@@ -2828,22 +2825,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="K5" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2852,7 +2849,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -2866,22 +2863,22 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2921,7 +2918,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -2954,17 +2951,17 @@
         <v>128</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2972,19 +2969,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3002,19 +2999,19 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3050,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -3107,10 +3104,10 @@
         <v>104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3118,34 +3115,34 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>105</v>
@@ -3157,41 +3154,41 @@
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -3205,37 +3202,37 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -3243,40 +3240,40 @@
         <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -3350,7 +3347,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3362,10 +3359,10 @@
         <v>132</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>105</v>
@@ -3376,7 +3373,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3385,13 +3382,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>105</v>
@@ -3451,7 +3448,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3478,49 +3475,49 @@
         <v>76</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="33" t="s">
+      <c r="M2" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="O2" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="O2" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>257</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -3528,26 +3525,26 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3561,26 +3558,26 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3594,32 +3591,32 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3631,32 +3628,32 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3668,26 +3665,26 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3759,7 +3756,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3788,55 +3785,55 @@
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>274</v>
-      </c>
       <c r="O2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>288</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3844,53 +3841,53 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -3922,7 +3919,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -3965,7 +3962,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
@@ -3982,7 +3979,7 @@
       <c r="B4" s="64"/>
       <c r="C4" s="62"/>
       <c r="D4" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>44</v>
@@ -4196,16 +4193,16 @@
         <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4213,16 +4210,16 @@
         <v>128</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>107</v>
@@ -4253,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="51"/>
@@ -4299,7 +4296,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4378,19 +4375,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4398,16 +4395,16 @@
         <v>128</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>107</v>
@@ -4441,7 +4438,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -4459,22 +4456,22 @@
         <v>76</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="G2" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>297</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4482,16 +4479,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>302</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -4500,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4508,16 +4505,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -4526,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4534,16 +4531,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -4552,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4560,16 +4557,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -4578,24 +4575,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -4604,24 +4601,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -4630,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4669,7 +4666,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4700,61 +4697,61 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="L2" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="N2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>330</v>
-      </c>
       <c r="U2" s="45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -4762,19 +4759,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G3" s="46">
         <v>1</v>
@@ -4783,40 +4780,40 @@
         <v>1</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J3" s="46">
         <v>256</v>
       </c>
       <c r="K3" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="N3" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="T3" s="46" t="s">
         <v>341</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>343</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>12</v>
@@ -4827,19 +4824,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>363</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>365</v>
       </c>
       <c r="G4" s="46">
         <v>1</v>
@@ -4848,40 +4845,40 @@
         <v>1</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J4" s="46">
         <v>256</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M4" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="S4" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="O4" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="T4" s="46" t="s">
         <v>348</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="S4" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>350</v>
       </c>
       <c r="U4" s="46" t="s">
         <v>12</v>
@@ -4892,19 +4889,19 @@
         <v>128</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G5" s="46">
         <v>1</v>
@@ -4913,40 +4910,40 @@
         <v>1</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J5" s="46">
         <v>256</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M5" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="N5" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="O5" s="46" t="s">
+      <c r="Q5" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="P5" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q5" s="46" t="s">
+      <c r="R5" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="S5" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="R5" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>342</v>
-      </c>
       <c r="T5" s="46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U5" s="46" t="s">
         <v>12</v>
@@ -4957,19 +4954,19 @@
         <v>128</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="46">
         <v>1</v>
@@ -4978,40 +4975,40 @@
         <v>1</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J6" s="46">
         <v>256</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M6" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="P6" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="Q6" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="S6" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="O6" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="P6" s="46" t="s">
+      <c r="T6" s="46" t="s">
         <v>348</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="S6" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>350</v>
       </c>
       <c r="U6" s="46" t="s">
         <v>12</v>
@@ -5019,22 +5016,22 @@
     </row>
     <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G7" s="46">
         <v>1</v>
@@ -5043,40 +5040,40 @@
         <v>1</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J7" s="46">
         <v>256</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M7" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="N7" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="O7" s="46" t="s">
+      <c r="Q7" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="P7" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q7" s="46" t="s">
+      <c r="R7" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="S7" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="R7" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="S7" s="46" t="s">
-        <v>342</v>
-      </c>
       <c r="T7" s="46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U7" s="46" t="s">
         <v>12</v>
@@ -5084,22 +5081,22 @@
     </row>
     <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="46">
         <v>1</v>
@@ -5108,40 +5105,40 @@
         <v>1</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J8" s="46">
         <v>256</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M8" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="N8" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="Q8" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="P8" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q8" s="46" t="s">
+      <c r="R8" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="S8" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="R8" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>342</v>
-      </c>
       <c r="T8" s="46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U8" s="46" t="s">
         <v>12</v>
@@ -5188,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5228,7 +5225,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -5273,7 +5270,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -5285,7 +5282,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -5340,7 +5337,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5366,16 +5363,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5407,7 +5404,7 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -5445,7 +5442,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -5481,13 +5478,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -5514,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -5522,10 +5519,10 @@
         <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5534,10 +5531,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>
@@ -5624,7 +5621,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="56"/>
     </row>
@@ -5688,10 +5685,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5702,10 +5699,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5730,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5753,7 +5750,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5792,13 +5789,13 @@
         <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
@@ -5821,10 +5818,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -5836,7 +5833,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="13"/>
@@ -5861,10 +5858,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -5873,14 +5870,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -5892,7 +5889,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5903,10 +5900,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -5915,14 +5912,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
@@ -5934,7 +5931,7 @@
         <v>17</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5942,13 +5939,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -5972,7 +5969,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5980,13 +5977,13 @@
         <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -5995,16 +5992,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>16</v>
@@ -6016,7 +6013,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -6024,13 +6021,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -6039,14 +6036,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>16</v>
@@ -6058,7 +6055,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -6190,12 +6187,12 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>13</v>
@@ -6204,24 +6201,24 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -6229,16 +6226,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -6279,7 +6276,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -6302,7 +6299,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>79</v>
@@ -6324,13 +6321,13 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>84</v>
@@ -6346,13 +6343,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>84</v>
@@ -6368,13 +6365,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>84</v>
@@ -6410,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -6432,7 +6429,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -6460,7 +6457,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>87</v>
@@ -6503,7 +6500,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>98</v>
@@ -6536,7 +6533,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>98</v>
@@ -6565,10 +6562,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>133</v>
@@ -6580,7 +6577,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -441,12 +441,6 @@
   </si>
   <si>
     <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet; server_type field is also case-sensitive.  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
-    <t>VCN Peering
-comma seperated VCNs on right column are peered with VCN on left column
-LPGs and rules are created based on this section; 
-eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
   </si>
   <si>
     <t>Test1</t>
@@ -1520,6 +1514,13 @@
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to theSecurity Lists; You can also edit Default Security List for a VCN- Mention subnet name as 'Default Security List for &lt;vcn_name&gt;'
 'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI</t>
+  </si>
+  <si>
+    <t>VCN Peering
+This is to establish local peering and not remote peering
+comma seperated VCNs on right column are peered with VCN on left column
+LPGs and rules are created based on this section; 
+eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2356,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2392,10 +2393,10 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2404,13 +2405,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -2418,13 +2419,13 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2432,13 +2433,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2656,7 +2657,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2687,10 +2688,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>88</v>
@@ -2699,13 +2700,13 @@
         <v>89</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>93</v>
@@ -2729,7 +2730,7 @@
         <v>97</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2740,27 +2741,27 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="29"/>
       <c r="J3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>152</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>153</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2769,7 +2770,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2780,10 +2781,10 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>98</v>
@@ -2792,13 +2793,13 @@
         <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I4" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2825,22 +2826,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="K5" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2849,7 +2850,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -2863,22 +2864,22 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2918,7 +2919,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -2951,17 +2952,17 @@
         <v>128</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2969,19 +2970,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2999,19 +3000,19 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3051,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -3104,10 +3105,10 @@
         <v>104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3115,34 +3116,34 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>105</v>
@@ -3154,41 +3155,41 @@
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -3196,43 +3197,43 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -3240,40 +3241,40 @@
         <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -3347,7 +3348,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3356,13 +3357,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>105</v>
@@ -3373,7 +3374,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3382,13 +3383,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>105</v>
@@ -3448,7 +3449,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3475,49 +3476,49 @@
         <v>76</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" s="33" t="s">
+      <c r="L2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="O2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -3525,26 +3526,26 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3558,26 +3559,26 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3591,32 +3592,32 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3628,32 +3629,32 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3665,26 +3666,26 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3756,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3785,55 +3786,55 @@
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>272</v>
-      </c>
       <c r="O2" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3841,53 +3842,53 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -3919,7 +3920,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -3962,7 +3963,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
@@ -3979,7 +3980,7 @@
       <c r="B4" s="64"/>
       <c r="C4" s="62"/>
       <c r="D4" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>44</v>
@@ -4190,19 +4191,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4210,16 +4211,16 @@
         <v>128</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>107</v>
@@ -4250,7 +4251,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="51"/>
@@ -4296,7 +4297,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4375,19 +4376,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4395,16 +4396,16 @@
         <v>128</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>107</v>
@@ -4438,7 +4439,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -4456,22 +4457,22 @@
         <v>76</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4479,16 +4480,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>299</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>300</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -4497,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4505,16 +4506,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>303</v>
-      </c>
       <c r="E4" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -4523,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4531,16 +4532,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>306</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -4549,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4557,16 +4558,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>308</v>
-      </c>
       <c r="E6" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -4575,24 +4576,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>310</v>
-      </c>
       <c r="D7" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -4601,24 +4602,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>312</v>
-      </c>
       <c r="D8" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -4627,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4667,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4697,61 +4698,61 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="T2" s="41" t="s">
-        <v>328</v>
-      </c>
       <c r="U2" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -4759,19 +4760,19 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G3" s="46">
         <v>1</v>
@@ -4780,40 +4781,40 @@
         <v>1</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J3" s="46">
         <v>256</v>
       </c>
       <c r="K3" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="M3" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="N3" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="T3" s="46" t="s">
         <v>340</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>341</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>12</v>
@@ -4824,19 +4825,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G4" s="46">
         <v>1</v>
@@ -4845,40 +4846,40 @@
         <v>1</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J4" s="46">
         <v>256</v>
       </c>
       <c r="K4" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L4" s="46" t="s">
-        <v>333</v>
-      </c>
       <c r="M4" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="O4" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="O4" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="S4" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="Q4" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="S4" s="46" t="s">
+      <c r="T4" s="46" t="s">
         <v>347</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>348</v>
       </c>
       <c r="U4" s="46" t="s">
         <v>12</v>
@@ -4889,19 +4890,19 @@
         <v>128</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D5" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>350</v>
-      </c>
       <c r="F5" s="46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" s="46">
         <v>1</v>
@@ -4910,40 +4911,40 @@
         <v>1</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J5" s="46">
         <v>256</v>
       </c>
       <c r="K5" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="46" t="s">
-        <v>333</v>
-      </c>
       <c r="M5" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="O5" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="O5" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>353</v>
-      </c>
       <c r="Q5" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="R5" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="S5" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="S5" s="46" t="s">
-        <v>340</v>
-      </c>
       <c r="T5" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U5" s="46" t="s">
         <v>12</v>
@@ -4954,19 +4955,19 @@
         <v>128</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6" s="46">
         <v>1</v>
@@ -4975,40 +4976,40 @@
         <v>1</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J6" s="46">
         <v>256</v>
       </c>
       <c r="K6" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>333</v>
-      </c>
       <c r="M6" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="O6" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="P6" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="O6" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="P6" s="46" t="s">
+      <c r="Q6" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="S6" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="Q6" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="S6" s="46" t="s">
+      <c r="T6" s="46" t="s">
         <v>347</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>348</v>
       </c>
       <c r="U6" s="46" t="s">
         <v>12</v>
@@ -5016,22 +5017,22 @@
     </row>
     <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>370</v>
-      </c>
       <c r="D7" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G7" s="46">
         <v>1</v>
@@ -5040,40 +5041,40 @@
         <v>1</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J7" s="46">
         <v>256</v>
       </c>
       <c r="K7" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>333</v>
-      </c>
       <c r="M7" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="O7" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="O7" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>353</v>
-      </c>
       <c r="Q7" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="R7" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="S7" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="S7" s="46" t="s">
-        <v>340</v>
-      </c>
       <c r="T7" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U7" s="46" t="s">
         <v>12</v>
@@ -5081,22 +5082,22 @@
     </row>
     <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="46">
         <v>1</v>
@@ -5105,40 +5106,40 @@
         <v>1</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J8" s="46">
         <v>256</v>
       </c>
       <c r="K8" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L8" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>333</v>
-      </c>
       <c r="M8" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="N8" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="O8" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="P8" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="O8" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>353</v>
-      </c>
       <c r="Q8" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="R8" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="S8" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="S8" s="46" t="s">
-        <v>340</v>
-      </c>
       <c r="T8" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U8" s="46" t="s">
         <v>12</v>
@@ -5185,7 +5186,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5225,7 +5226,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -5270,7 +5271,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -5282,7 +5283,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -5337,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5363,16 +5364,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5404,7 +5405,7 @@
         <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -5442,7 +5443,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -5478,13 +5479,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -5511,7 +5512,7 @@
         <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -5519,10 +5520,10 @@
         <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5531,10 +5532,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>
@@ -5608,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5621,7 +5622,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="56"/>
     </row>
@@ -5685,24 +5686,24 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5750,7 +5751,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5789,13 +5790,13 @@
         <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
@@ -5818,10 +5819,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -5833,7 +5834,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="13"/>
@@ -5858,10 +5859,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -5870,14 +5871,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -5889,7 +5890,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5900,10 +5901,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -5912,14 +5913,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
@@ -5931,7 +5932,7 @@
         <v>17</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5939,13 +5940,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -5969,7 +5970,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5977,13 +5978,13 @@
         <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -5992,16 +5993,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>16</v>
@@ -6013,7 +6014,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -6021,13 +6022,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -6036,14 +6037,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>16</v>
@@ -6055,7 +6056,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -6187,12 +6188,12 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>13</v>
@@ -6201,24 +6202,24 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -6226,16 +6227,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -6276,7 +6277,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -6299,7 +6300,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>79</v>
@@ -6321,13 +6322,13 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>84</v>
@@ -6343,13 +6344,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>84</v>
@@ -6365,13 +6366,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>84</v>
@@ -6407,7 +6408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -6429,7 +6430,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -6457,7 +6458,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>87</v>
@@ -6500,7 +6501,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>98</v>
@@ -6533,19 +6534,19 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -6562,13 +6563,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -6577,7 +6578,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -28,21 +28,28 @@
     <sheet name="TagServer" sheetId="13" r:id="rId19"/>
     <sheet name="TagVolume" sheetId="14" r:id="rId20"/>
     <sheet name="ADW_ATP" sheetId="24" r:id="rId21"/>
-    <sheet name="Database" sheetId="25" r:id="rId22"/>
+    <sheet name="DB_System_VM" sheetId="26" r:id="rId22"/>
+    <sheet name="DB_System_BM" sheetId="27" r:id="rId23"/>
+    <sheet name="DB_System_EXA" sheetId="28" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Shape_Option" localSheetId="22">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="21">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
+    <definedName name="VM_Shapes">DB_System_VM!$Y$398:$Y$408</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="419">
   <si>
     <t>Regional</t>
   </si>
@@ -1241,12 +1248,6 @@
     <t>Enable Automatic Backups</t>
   </si>
   <si>
-    <t>Experimentation</t>
-  </si>
-  <si>
-    <t>RACDB2cd</t>
-  </si>
-  <si>
     <t>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</t>
   </si>
   <si>
@@ -1280,15 +1281,9 @@
     <t>yes</t>
   </si>
   <si>
-    <t>EXADB1cd</t>
-  </si>
-  <si>
     <t>ENTERPRISE_EDITION</t>
   </si>
   <si>
-    <t>EXADB1</t>
-  </si>
-  <si>
     <t>CDB2</t>
   </si>
   <si>
@@ -1304,27 +1299,12 @@
     <t>AD3</t>
   </si>
   <si>
-    <t>TESTDB3cd</t>
-  </si>
-  <si>
-    <t>TESTDB3</t>
-  </si>
-  <si>
     <t>CDB3</t>
   </si>
   <si>
     <t>pdb3</t>
   </si>
   <si>
-    <t>EXADB1cdphx</t>
-  </si>
-  <si>
-    <t>TESTDB3cdtrt</t>
-  </si>
-  <si>
-    <t>TESTDB3cdmum</t>
-  </si>
-  <si>
     <t>Listener Protocol (HTTP|TCP)</t>
   </si>
   <si>
@@ -1337,12 +1317,6 @@
     <t>SSH Key</t>
   </si>
   <si>
-    <t>testk_sub_a</t>
-  </si>
-  <si>
-    <t>testk_sub_e</t>
-  </si>
-  <si>
     <t>VM.Standard2.4</t>
   </si>
   <si>
@@ -1350,86 +1324,6 @@
   </si>
   <si>
     <t>VM.Standard2.16</t>
-  </si>
-  <si>
-    <r>
-      <t>#for DB Systems, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual machine, bare metal, EXADATA in "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" column and change CPU core and node count accordingly.  Type anything after &lt;END&gt; for testing. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Do not Modify "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shape Option DB"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>testk_sub1_e</t>
-  </si>
-  <si>
-    <t>testk_sub1_a</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>Test_Subnet</t>
-  </si>
-  <si>
-    <t>mumbai</t>
   </si>
   <si>
     <t>MT2</t>
@@ -1521,6 +1415,126 @@
 comma seperated VCNs on right column are peered with VCN on left column
 LPGs and rules are created based on this section; 
 eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  </t>
+  </si>
+  <si>
+    <t>Character Set</t>
+  </si>
+  <si>
+    <t>nCharacter Set</t>
+  </si>
+  <si>
+    <t>Recovery Windows in days</t>
+  </si>
+  <si>
+    <t>TestK_testk_sub_1</t>
+  </si>
+  <si>
+    <t>VMDB28</t>
+  </si>
+  <si>
+    <t>AL32UTF8</t>
+  </si>
+  <si>
+    <t>AL16UTF16</t>
+  </si>
+  <si>
+    <t>VMDB281</t>
+  </si>
+  <si>
+    <t>RACDB21</t>
+  </si>
+  <si>
+    <t>VMDB282</t>
+  </si>
+  <si>
+    <t>RACDB212</t>
+  </si>
+  <si>
+    <t>VM Shapes</t>
+  </si>
+  <si>
+    <t>VM.Standard2.1</t>
+  </si>
+  <si>
+    <t>VM.Standard2.2</t>
+  </si>
+  <si>
+    <t>VM.Standard2.24</t>
+  </si>
+  <si>
+    <t>VM.Standard1.1</t>
+  </si>
+  <si>
+    <t>VM.Standard1.2</t>
+  </si>
+  <si>
+    <t>VM.Standard1.4</t>
+  </si>
+  <si>
+    <t>VM.Standard1.8</t>
+  </si>
+  <si>
+    <t>VM.Standard1.16</t>
+  </si>
+  <si>
+    <t>BM.DenseIO1.36</t>
+  </si>
+  <si>
+    <t>BM.DenseIO2.52</t>
+  </si>
+  <si>
+    <t>BM Shape</t>
+  </si>
+  <si>
+    <t>BM36</t>
+  </si>
+  <si>
+    <t>BMDB136</t>
+  </si>
+  <si>
+    <t>BM52</t>
+  </si>
+  <si>
+    <t>BMDB252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 </t>
+  </si>
+  <si>
+    <t>Backup Subnet Name</t>
+  </si>
+  <si>
+    <t>TestK_testk_sub_2</t>
+  </si>
+  <si>
+    <t>EXADB21</t>
+  </si>
+  <si>
+    <t>EXA Shapes</t>
+  </si>
+  <si>
+    <t>Exadata.Quarter2.92</t>
+  </si>
+  <si>
+    <t>Exadata.Half2.184</t>
+  </si>
+  <si>
+    <t>Exadata.Full2.368</t>
+  </si>
+  <si>
+    <t>Exadata.Quarter1.84</t>
+  </si>
+  <si>
+    <t>Exadata.Half1.168</t>
+  </si>
+  <si>
+    <t>Exadata.Full1.336</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1575,13 +1589,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -1590,13 +1597,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1790,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1869,11 +1869,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1883,12 +1883,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1956,6 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2048,6 +2049,63 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LBR"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="ADW_ATP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2729,8 +2787,8 @@
       <c r="Q2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="49" t="s">
-        <v>387</v>
+      <c r="R2" s="48" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2770,7 +2828,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -3449,7 +3507,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3535,7 +3593,7 @@
         <v>260</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3545,7 +3603,7 @@
         <v>259</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3568,17 +3626,17 @@
         <v>260</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3595,29 +3653,29 @@
         <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3632,29 +3690,29 @@
         <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3669,23 +3727,23 @@
         <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3757,7 +3815,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3813,7 +3871,7 @@
         <v>277</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>267</v>
@@ -4439,7 +4497,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -4641,33 +4699,44 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:Y408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.08984375" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="19" max="19" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="36"/>
+    <col min="2" max="2" width="13.36328125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="20" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14" style="36" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="15" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="36"/>
+    <col min="11" max="11" width="17.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="36" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="36"/>
+    <col min="18" max="18" width="23.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="36" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="36"/>
+    <col min="25" max="25" width="18.26953125" style="36" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4688,9 +4757,11 @@
       <c r="R1" s="70"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
-      <c r="U1" s="71"/>
-    </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71"/>
+    </row>
+    <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>126</v>
       </c>
@@ -4710,459 +4781,929 @@
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="K2" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="44" t="s">
         <v>319</v>
       </c>
+      <c r="L2" s="41" t="s">
+        <v>320</v>
+      </c>
       <c r="M2" s="41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="T2" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="U2" s="45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>361</v>
+      <c r="C3" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="G3" s="46">
         <v>1</v>
       </c>
-      <c r="H3" s="46">
-        <v>1</v>
-      </c>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="46">
+        <v>256</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="J3" s="46">
-        <v>256</v>
-      </c>
-      <c r="K3" s="46" t="s">
+      <c r="L3" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="M3" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="N3" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="S3" s="46" t="s">
-        <v>339</v>
-      </c>
       <c r="T3" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="U3" s="46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>360</v>
+      <c r="C4" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>362</v>
+        <v>194</v>
       </c>
       <c r="G4" s="46">
-        <v>1</v>
-      </c>
-      <c r="H4" s="46">
-        <v>1</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J4" s="46">
+        <v>2</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="46">
         <v>256</v>
       </c>
+      <c r="J4" s="46" t="s">
+        <v>329</v>
+      </c>
       <c r="K4" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L4" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="M4" s="46" t="s">
-        <v>343</v>
-      </c>
       <c r="N4" s="46" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="O4" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="P4" s="46" t="s">
-        <v>345</v>
-      </c>
       <c r="Q4" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="R4" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="S4" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="S4" s="46" t="s">
-        <v>346</v>
-      </c>
       <c r="T4" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="U4" s="46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>366</v>
+      <c r="C5" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>364</v>
+        <v>194</v>
       </c>
       <c r="G5" s="46">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46">
-        <v>1</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J5" s="46">
+        <v>2</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" s="46">
         <v>256</v>
       </c>
+      <c r="J5" s="46" t="s">
+        <v>329</v>
+      </c>
       <c r="K5" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L5" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="M5" s="46" t="s">
-        <v>350</v>
-      </c>
       <c r="N5" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="S5" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="397" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y397" s="72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="398" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y398" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="399" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y399" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="400" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y400" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="O5" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="U5" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="46" t="s">
+    </row>
+    <row r="401" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y401" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="402" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y402" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="46">
-        <v>1</v>
-      </c>
-      <c r="H6" s="46">
-        <v>1</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J6" s="46">
-        <v>256</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="M6" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="S6" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="U6" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46">
-        <v>1</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J7" s="46">
-        <v>256</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="R7" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="S7" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="T7" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="46">
-        <v>1</v>
-      </c>
-      <c r="H8" s="46">
-        <v>1</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J8" s="46">
-        <v>256</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
-        <v>62</v>
+    </row>
+    <row r="403" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y403" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="404" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y404" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="405" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y405" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="406" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y406" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="407" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y407" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="408" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y408" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>Shape_Option</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
-      <formula1>Shape_Option_DB</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F402">
+      <formula1>$Y$398:$Y$408</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y398"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="36"/>
+    <col min="2" max="2" width="13.36328125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="36"/>
+    <col min="4" max="4" width="9.81640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="36"/>
+    <col min="11" max="11" width="8.7265625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="36" customWidth="1"/>
+    <col min="17" max="18" width="23.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="36" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="36"/>
+    <col min="25" max="25" width="14.90625" style="36" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="46">
+        <v>2</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" s="46">
+        <v>256</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="46">
+        <v>2</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="46">
+        <v>256</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="396" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y396" s="72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="397" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y397" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="398" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y398" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F396">
+      <formula1>$Y$397:$Y$398</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>Shape_Option</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y402"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="36"/>
+    <col min="2" max="2" width="13.36328125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="36"/>
+    <col min="11" max="11" width="17.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="36" customWidth="1"/>
+    <col min="17" max="18" width="23.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="36"/>
+    <col min="25" max="25" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="40" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71"/>
+    </row>
+    <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="46">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46">
+        <v>256</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="W3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="395" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y395" s="72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="396" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y396" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="397" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y397" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="398" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y398" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="399" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y399" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="400" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y400" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="401" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y401" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="402" spans="25:25" x14ac:dyDescent="0.35">
+      <c r="Y402" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G395">
+      <formula1>$Y$396:$Y$402</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
+      <formula1>Shape_Option</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5609,7 +6150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
@@ -5694,7 +6235,7 @@
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B11" s="54"/>
     </row>
@@ -5751,7 +6292,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -5796,7 +6337,7 @@
         <v>229</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
@@ -5878,7 +6419,7 @@
         <v>230</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -5920,7 +6461,7 @@
         <v>230</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
@@ -6002,7 +6543,7 @@
         <v>231</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>16</v>
@@ -6044,7 +6585,7 @@
         <v>231</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>16</v>
@@ -6277,7 +6818,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -6408,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6430,7 +6971,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId25"/>
-    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="Shape_Option" localSheetId="22">#REF!</definedName>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="423">
   <si>
     <t>Regional</t>
   </si>
@@ -849,9 +848,6 @@
   </si>
   <si>
     <t>MountTarget SubnetName</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host</t>
   </si>
   <si>
     <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
@@ -1535,6 +1531,22 @@
   </si>
   <si>
     <t>Exadata.Full1.336</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>ASHHub-VCN_ASHHub-VCN-subnet1</t>
+  </si>
+  <si>
+    <t>ASHProd-VCN_prod-subnet</t>
+  </si>
+  <si>
+    <t>PHXNonProd-VCN_dev-subnet</t>
+  </si>
+  <si>
+    <t>PHXHub-VCN_PHXHub-VCN-subnet1</t>
   </si>
 </sst>
 </file>
@@ -1890,6 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1956,7 +1969,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,63 +2061,6 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LBR"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="ADW_ATP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2413,12 +2368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2714,26 +2669,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2788,7 +2743,7 @@
         <v>97</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2828,7 +2783,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2976,14 +2931,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3085,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3095,7 +3050,7 @@
     <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
@@ -3107,23 +3062,23 @@
     <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3183,7 +3138,7 @@
         <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -3222,7 +3177,7 @@
         <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -3264,7 +3219,7 @@
         <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -3308,7 +3263,7 @@
         <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -3364,16 +3319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3506,25 +3461,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
+      <c r="A1" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3584,7 +3539,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>239</v>
@@ -3593,7 +3548,7 @@
         <v>260</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3603,7 +3558,7 @@
         <v>259</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3617,7 +3572,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>239</v>
@@ -3626,17 +3581,17 @@
         <v>260</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3650,32 +3605,32 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3687,32 +3642,32 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3724,26 +3679,26 @@
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3814,27 +3769,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -3844,55 +3799,55 @@
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>271</v>
-      </c>
       <c r="O2" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3900,13 +3855,13 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>169</v>
@@ -3915,38 +3870,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -3977,15 +3932,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -4011,13 +3966,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -4034,9 +3989,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="8" t="s">
         <v>202</v>
       </c>
@@ -4051,9 +4006,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -4064,9 +4019,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -4077,108 +4032,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4215,14 +4170,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4308,11 +4263,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4400,14 +4355,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4496,16 +4451,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="A1" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -4515,22 +4470,22 @@
         <v>76</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>295</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4538,16 +4493,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>298</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>299</v>
       </c>
       <c r="F3" s="36">
         <v>1</v>
@@ -4556,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4564,16 +4519,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>302</v>
-      </c>
       <c r="E4" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -4582,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4590,16 +4545,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>305</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -4608,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4616,16 +4571,16 @@
         <v>128</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>307</v>
-      </c>
       <c r="E6" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="36">
         <v>1</v>
@@ -4634,24 +4589,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>309</v>
-      </c>
       <c r="D7" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -4660,24 +4615,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>311</v>
-      </c>
       <c r="D8" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="36">
         <v>1</v>
@@ -4686,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4735,31 +4690,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="71"/>
+      <c r="A1" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
@@ -4769,67 +4724,67 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="T2" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U2" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="W2" s="41" t="s">
         <v>381</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -4837,67 +4792,67 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G3" s="46">
         <v>1</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I3" s="46">
         <v>256</v>
       </c>
       <c r="J3" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="L3" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="M3" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="N3" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>337</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>338</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -4908,16 +4863,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>194</v>
@@ -4926,49 +4881,49 @@
         <v>2</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I4" s="46">
         <v>256</v>
       </c>
       <c r="J4" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="46" t="s">
-        <v>330</v>
-      </c>
       <c r="L4" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M4" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="O4" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="P4" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="R4" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="S4" s="46" t="s">
         <v>337</v>
-      </c>
-      <c r="S4" s="46" t="s">
-        <v>338</v>
       </c>
       <c r="T4" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -4979,16 +4934,16 @@
         <v>127</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>194</v>
@@ -4997,49 +4952,49 @@
         <v>2</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I5" s="46">
         <v>256</v>
       </c>
       <c r="J5" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>330</v>
-      </c>
       <c r="L5" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M5" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="O5" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="P5" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="Q5" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="R5" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="S5" s="46" t="s">
         <v>337</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>338</v>
       </c>
       <c r="T5" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="W5" s="1">
         <v>20</v>
@@ -5052,23 +5007,23 @@
       <c r="K6" s="36"/>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y397" s="72" t="s">
-        <v>391</v>
+      <c r="Y397" s="50" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
@@ -5078,37 +5033,37 @@
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="408" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y408" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5162,31 +5117,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="40" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="A1" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
       <c r="X1" s="49"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
@@ -5197,67 +5152,67 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="T2" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U2" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="W2" s="41" t="s">
         <v>381</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -5265,67 +5220,67 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>239</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G3" s="46">
         <v>2</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" s="46">
         <v>256</v>
       </c>
       <c r="J3" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>330</v>
-      </c>
       <c r="L3" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M3" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="N3" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>342</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>343</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5336,67 +5291,67 @@
         <v>128</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G4" s="46">
         <v>2</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I4" s="46">
         <v>256</v>
       </c>
       <c r="J4" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="46" t="s">
-        <v>330</v>
-      </c>
       <c r="L4" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M4" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="O4" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="N4" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>346</v>
-      </c>
       <c r="P4" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="R4" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R4" s="46" t="s">
-        <v>337</v>
-      </c>
       <c r="S4" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T4" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -5409,18 +5364,18 @@
       <c r="K5" s="36"/>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y396" s="72" t="s">
-        <v>402</v>
+      <c r="Y396" s="50" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5443,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -5476,31 +5431,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="40" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="71"/>
+      <c r="A1" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
@@ -5510,67 +5465,67 @@
         <v>76</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I2" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="T2" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U2" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="W2" s="41" t="s">
         <v>381</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -5578,22 +5533,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>411</v>
-      </c>
       <c r="G3" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H3" s="46">
         <v>2</v>
@@ -5602,43 +5557,43 @@
         <v>256</v>
       </c>
       <c r="J3" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>330</v>
-      </c>
       <c r="L3" s="46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M3" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="O3" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="P3" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="Q3" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>337</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>338</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5651,43 +5606,43 @@
       <c r="K4" s="36"/>
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y395" s="72" t="s">
-        <v>412</v>
+      <c r="Y395" s="50" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5726,15 +5681,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -5858,7 +5813,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5878,21 +5833,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="A1" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6162,10 +6117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="56"/>
+      <c r="A1" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6234,10 +6189,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="54"/>
+      <c r="A11" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -6270,7 +6225,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6291,22 +6246,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="A1" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6337,7 +6292,7 @@
         <v>229</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
@@ -6419,7 +6374,7 @@
         <v>230</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -6461,7 +6416,7 @@
         <v>230</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
@@ -6543,7 +6498,7 @@
         <v>231</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>16</v>
@@ -6585,7 +6540,7 @@
         <v>231</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>16</v>
@@ -6693,13 +6648,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6817,15 +6772,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="A1" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6970,23 +6925,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -3040,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
@@ -4656,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y408"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5071,7 +5071,7 @@
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F402">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F402">
       <formula1>$Y$398:$Y$408</formula1>
     </dataValidation>
   </dataValidations>
@@ -5085,7 +5085,7 @@
   <dimension ref="A1:Y398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5398,8 +5398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="421">
   <si>
     <t>Regional</t>
   </si>
@@ -1281,12 +1281,6 @@
   </si>
   <si>
     <t>10.112.0.0/16</t>
-  </si>
-  <si>
-    <t>lpg1</t>
-  </si>
-  <si>
-    <t>peer:PHXVCN2</t>
   </si>
   <si>
     <t>PHXVCN2</t>
@@ -1461,6 +1455,21 @@
 Tabs Afected: VCNs, VCN Info, DHCP, subnets
 Changes: Addition/Modification of columns
 Removal of 2 sheets: AddSecRules and AddRouteRules</t>
+  </si>
+  <si>
+    <t>PHXVCN3</t>
+  </si>
+  <si>
+    <t>10.114.0.0/16</t>
+  </si>
+  <si>
+    <t>lpg3</t>
+  </si>
+  <si>
+    <t>peer:PHXVCN2,PHXVCN3</t>
+  </si>
+  <si>
+    <t>lpg12,lpg13</t>
   </si>
 </sst>
 </file>
@@ -1811,6 +1820,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1832,14 +1844,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,9 +1888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2266,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2276,8 +2285,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
-        <v>417</v>
+      <c r="A2" s="47" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2326,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>76</v>
@@ -2415,26 +2424,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2677,14 +2686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2809,22 +2818,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3065,16 +3074,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3207,25 +3216,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3515,27 +3524,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3678,15 +3687,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3712,13 +3721,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3735,9 +3744,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="8" t="s">
         <v>185</v>
       </c>
@@ -3752,9 +3761,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3765,9 +3774,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3778,108 +3787,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3916,14 +3925,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4012,14 +4021,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4106,12 +4115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4242,16 +4251,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -4481,31 +4490,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="36" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -4908,31 +4917,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="36" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
       <c r="X1" s="45"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
@@ -5222,31 +5231,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="36" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -5469,11 +5478,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5547,7 +5556,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5561,15 +5570,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
@@ -5690,10 +5699,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5707,23 +5716,23 @@
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="12.1796875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="A1" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5854,10 +5863,10 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -5869,10 +5878,10 @@
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -5887,47 +5896,45 @@
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -5937,36 +5944,70 @@
         <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>397</v>
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -5974,29 +6015,30 @@
     <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
     <row r="20" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+    <row r="21" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6023,10 +6065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="53"/>
+      <c r="A1" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6038,7 +6080,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>106</v>
@@ -6103,15 +6145,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6267,27 +6309,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="A1" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6330,19 +6372,19 @@
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>413</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>98</v>
@@ -6810,7 +6852,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>73</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -2275,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5701,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -1044,9 +1044,6 @@
     <t>Listener Protocol (HTTP|TCP)</t>
   </si>
   <si>
-    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR</t>
-  </si>
-  <si>
     <t>DB Name: Should Not be more than 14 character | Should contain only AlphaNumeric Characters | Mention ADW/ATP in ADW or ATP coloumn to create the respective Autonomous database</t>
   </si>
   <si>
@@ -1107,13 +1104,6 @@
     <t>/fss4/</t>
   </si>
   <si>
-    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
-Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
-Resources will be created based on MountTargetName and FSSName columns.
-Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
-  </si>
-  <si>
     <t>RuleDescription</t>
   </si>
   <si>
@@ -1129,9 +1119,6 @@
     <t>common_seclist_name</t>
   </si>
   <si>
-    <t xml:space="preserve">#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  </t>
-  </si>
-  <si>
     <t>Character Set</t>
   </si>
   <si>
@@ -1211,12 +1198,6 @@
   </si>
   <si>
     <t>BMDB252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 </t>
   </si>
   <si>
     <t>Backup Subnet Name</t>
@@ -1470,6 +1451,30 @@
   </si>
   <si>
     <t>lpg12,lpg13</t>
+  </si>
+  <si>
+    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
+Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
+Resources will be created based on MountTargetName and FSSName columns.
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
+  </si>
+  <si>
+    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1781,12 +1786,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1871,23 +1872,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2275,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2285,8 +2281,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>415</v>
+      <c r="A2" s="45" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2322,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>76</v>
@@ -2424,26 +2420,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2497,8 +2493,8 @@
       <c r="Q2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="44" t="s">
-        <v>344</v>
+      <c r="R2" s="42" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2538,7 +2534,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2686,14 +2682,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2796,7 +2792,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2818,22 +2814,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
+      <c r="A1" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2893,7 +2889,7 @@
         <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -2932,7 +2928,7 @@
         <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -2974,7 +2970,7 @@
         <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -3018,7 +3014,7 @@
         <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -3074,16 +3070,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3196,7 +3192,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3216,25 +3212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="A1" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3303,7 +3299,7 @@
         <v>237</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3313,7 +3309,7 @@
         <v>236</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3336,17 +3332,17 @@
         <v>237</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3366,26 +3362,26 @@
         <v>318</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3403,26 +3399,26 @@
         <v>318</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3440,20 +3436,20 @@
         <v>318</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3496,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3524,27 +3520,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="A1" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3687,15 +3683,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3721,13 +3717,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3744,9 +3740,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="8" t="s">
         <v>185</v>
       </c>
@@ -3761,9 +3757,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3774,9 +3770,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3787,108 +3783,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3925,14 +3921,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4021,14 +4017,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4115,12 +4111,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4236,8 +4232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4251,40 +4247,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="65" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4301,7 +4297,7 @@
       <c r="D3" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>273</v>
       </c>
       <c r="F3" s="32">
@@ -4327,7 +4323,7 @@
       <c r="D4" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>273</v>
       </c>
       <c r="F4" s="32">
@@ -4353,7 +4349,7 @@
       <c r="D5" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>273</v>
       </c>
       <c r="F5" s="32">
@@ -4379,7 +4375,7 @@
       <c r="D6" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>273</v>
       </c>
       <c r="F6" s="32">
@@ -4405,7 +4401,7 @@
       <c r="D7" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>273</v>
       </c>
       <c r="F7" s="32">
@@ -4431,7 +4427,7 @@
       <c r="D8" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>273</v>
       </c>
       <c r="F8" s="32">
@@ -4457,7 +4453,7 @@
   <dimension ref="A1:Y408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4489,341 +4485,341 @@
     <col min="26" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="36" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+    </row>
+    <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="69"/>
-    </row>
-    <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="U2" s="37" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="D3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="F3" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="40">
+        <v>1</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="40">
+        <v>256</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="42">
-        <v>1</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="42">
-        <v>256</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="T3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="40">
+        <v>2</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="40">
+        <v>256</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="42">
-        <v>2</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="I4" s="42">
-        <v>256</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="40">
+        <v>2</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="40">
+        <v>256</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="42">
-        <v>2</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="I5" s="42">
-        <v>256</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="W5" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="32"/>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y397" s="46" t="s">
-        <v>361</v>
+      <c r="Y397" s="44" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
@@ -4833,37 +4829,37 @@
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="408" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y408" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +4881,7 @@
   <dimension ref="A1:Y398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4916,266 +4912,266 @@
     <col min="26" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="36" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="45"/>
+    <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="43"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="T2" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V2" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="W2" s="37" t="s">
+      <c r="D3" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="40">
+        <v>2</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="40">
+        <v>256</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="42">
-        <v>2</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="I3" s="42">
-        <v>256</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="T3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="40">
+        <v>2</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="40">
+        <v>256</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="42">
-        <v>2</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="I4" s="42">
-        <v>256</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y396" s="46" t="s">
-        <v>372</v>
+      <c r="Y396" s="44" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5191,6 +5187,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5199,7 +5196,7 @@
   <dimension ref="A1:Y402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5230,219 +5227,219 @@
     <col min="26" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="36" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="69"/>
+    <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="T2" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V2" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="W2" s="37" t="s">
+      <c r="D3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="40">
+        <v>2</v>
+      </c>
+      <c r="I3" s="40">
+        <v>256</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="H3" s="42">
-        <v>2</v>
-      </c>
-      <c r="I3" s="42">
-        <v>256</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="T3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
-      <c r="Y395" s="46" t="s">
-        <v>382</v>
+      <c r="Y395" s="44" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5478,11 +5475,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5570,15 +5567,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
@@ -5720,19 +5717,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5760,10 +5757,10 @@
         <v>202</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>98</v>
@@ -5833,7 +5830,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5845,10 +5842,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -5863,10 +5860,10 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -5878,10 +5875,10 @@
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -5896,10 +5893,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -5911,10 +5908,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -5929,10 +5926,10 @@
         <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -6000,7 +5997,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6065,10 +6062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="54"/>
+      <c r="A1" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6080,7 +6077,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>106</v>
@@ -6097,7 +6094,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -6145,15 +6142,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6309,27 +6306,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="A1" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6363,7 +6360,7 @@
         <v>208</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -6372,19 +6369,19 @@
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>98</v>
@@ -6475,7 +6472,7 @@
         <v>209</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -6532,7 +6529,7 @@
         <v>209</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -6644,7 +6641,7 @@
         <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -6701,7 +6698,7 @@
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -6852,7 +6849,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>73</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="419">
   <si>
     <t>Regional</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>vcn_cidr</t>
-  </si>
-  <si>
-    <t>sec_list_per_subnet</t>
   </si>
   <si>
     <t>add_default_seclist</t>
@@ -683,9 +680,6 @@
   </si>
   <si>
     <t>route_table_name</t>
-  </si>
-  <si>
-    <t>seclist_name</t>
   </si>
   <si>
     <t>devqa_seclist</t>
@@ -1110,15 +1104,6 @@
     <t>objectstorage</t>
   </si>
   <si>
-    <t>common_rules_phxprod</t>
-  </si>
-  <si>
-    <t>common_rules_ashprod</t>
-  </si>
-  <si>
-    <t>common_seclist_name</t>
-  </si>
-  <si>
     <t>Character Set</t>
   </si>
   <si>
@@ -1274,13 +1259,6 @@
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars;
-Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN
-Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke_&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer_&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
-</t>
   </si>
   <si>
     <t>onprem_destinations</t>
@@ -1420,12 +1398,6 @@
 route (y|n)</t>
   </si>
   <si>
-    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW, On Prem and VCN peering would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-You can specify names for route tables and Scurity Lists; subnets can share same route table and seclist depending upon name specified; If left blank, default name which is subnet name would be used for that route table as well as security list. common_seclist_name column is also added to allow a seclist to be shared among multiple subnets</t>
-  </si>
-  <si>
     <t>RouteTableName</t>
   </si>
   <si>
@@ -1475,6 +1447,33 @@
   <si>
     <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
 #Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>Route Rules will be exported here</t>
+  </si>
+  <si>
+    <t>SecRules will be exported here</t>
+  </si>
+  <si>
+    <t>seclist_names</t>
+  </si>
+  <si>
+    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
+left blank means subnet will use default dhcp options of the vcn.
+vcn_name should be same as enterd in VCNs sheet.
+Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
+want any custom security list to be attached to the subnet.
+route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
+ want any custom route table to be attached to the subnet.
+Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
+Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
+Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
+</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1824,6 +1823,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1881,9 +1884,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1891,6 +1899,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2282,7 +2295,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2292,18 +2305,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="11.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="17"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.1796875" style="17"/>
@@ -2311,61 +2324,74 @@
     <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:18" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+    </row>
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
@@ -2391,7 +2417,16 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2420,112 +2455,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="A1" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="K2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="M2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="R2" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2534,36 +2569,36 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="I4" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2581,31 +2616,31 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="K5" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2614,36 +2649,36 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2682,76 +2717,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="A1" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2761,22 +2796,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2814,231 +2849,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="A1" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -3070,93 +3105,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -3212,104 +3247,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
+      <c r="A1" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="M2" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3320,29 +3355,29 @@
     </row>
     <row r="4" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3353,35 +3388,35 @@
     </row>
     <row r="5" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3390,35 +3425,35 @@
     </row>
     <row r="6" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3427,29 +3462,29 @@
     </row>
     <row r="7" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3460,7 +3495,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3520,139 +3555,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="A1" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>245</v>
-      </c>
       <c r="O2" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="R2" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="S2" s="30" t="s">
         <v>259</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J3" s="1">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M3" s="1">
         <v>443</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S3" s="1"/>
     </row>
@@ -3683,208 +3718,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="B3" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="D3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3921,73 +3956,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4017,73 +4052,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4111,96 +4146,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4208,7 +4243,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4232,7 +4267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -4247,58 +4282,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="65" t="s">
+      <c r="A2" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="F2" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="H2" s="46" t="s">
         <v>268</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
@@ -4307,24 +4342,24 @@
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F4" s="32">
         <v>1</v>
@@ -4333,24 +4368,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F5" s="32">
         <v>1</v>
@@ -4359,24 +4394,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F6" s="32">
         <v>1</v>
@@ -4385,24 +4420,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
@@ -4411,24 +4446,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="32">
         <v>1</v>
@@ -4437,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4486,169 +4521,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
+      <c r="A1" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="66"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>301</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G3" s="40">
         <v>1</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I3" s="40">
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="O3" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="R3" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="T3" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -4656,70 +4691,70 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="40">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I4" s="40">
         <v>256</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K4" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="N4" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O4" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="P4" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="R4" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="S4" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="R4" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="T4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -4727,70 +4762,70 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="40">
         <v>2</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I5" s="40">
         <v>256</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K5" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="M5" s="40" t="s">
+      <c r="N5" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O5" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="P5" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="Q5" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="R5" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="S5" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="R5" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="T5" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W5" s="1">
         <v>20</v>
@@ -4798,68 +4833,68 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="32"/>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="44" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="408" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y408" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4913,170 +4948,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
+      <c r="A1" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
       <c r="X1" s="43"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>301</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G3" s="40">
         <v>2</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I3" s="40">
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M3" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="P3" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>317</v>
-      </c>
       <c r="T3" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5084,70 +5119,70 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G4" s="40">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I4" s="40">
         <v>256</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N4" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="P4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="Q4" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>311</v>
-      </c>
       <c r="S4" s="40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -5155,23 +5190,23 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5228,124 +5263,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
+      <c r="A1" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="66"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>288</v>
-      </c>
       <c r="I2" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>301</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H3" s="40">
         <v>2</v>
@@ -5354,43 +5389,43 @@
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K3" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="M3" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="M3" s="40" t="s">
+      <c r="N3" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="R3" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="T3" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5398,48 +5433,48 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y395" s="44" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5475,66 +5510,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5567,57 +5602,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="A1" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="E2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="G2" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -5627,13 +5662,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -5647,25 +5682,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -5674,16 +5709,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5698,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5717,26 +5752,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5745,264 +5780,264 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -6051,7 +6086,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6062,44 +6097,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -6107,10 +6142,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6142,128 +6177,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6277,10 +6312,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6294,114 +6329,104 @@
     <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.453125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="21.90625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10" style="32" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="10" style="32" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="32" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-    </row>
-    <row r="2" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="151" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+    </row>
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>400</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -6410,53 +6435,49 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="N3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -6465,55 +6486,49 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -6522,20 +6537,20 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>14</v>
@@ -6544,33 +6559,27 @@
         <v>14</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -6579,51 +6588,47 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="N6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -6632,57 +6637,51 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -6691,20 +6690,20 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>14</v>
@@ -6713,21 +6712,15 @@
         <v>14</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6744,10 +6737,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6764,10 +6755,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6784,10 +6773,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6804,12 +6791,10 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6818,10 +6803,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6829,42 +6814,56 @@
     <col min="1" max="1" width="9.1796875" style="17"/>
     <col min="2" max="2" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" style="17" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -1458,8 +1458,17 @@
     <t>seclist_names</t>
   </si>
   <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
+dns_label - if specified as n, DNS will not be enabled for the VCN
+Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
+Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
+</t>
+  </si>
+  <si>
     <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
 left blank means subnet will use default dhcp options of the vcn.
+dns_label - if specified as n, DNS will not be enabled for the subnet
 vcn_name should be same as enterd in VCNs sheet.
 Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
 seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
@@ -1467,13 +1476,6 @@
 route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
  want any custom route table to be attached to the subnet.
 Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
-Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
-Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
-</t>
   </si>
 </sst>
 </file>
@@ -1842,11 +1844,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1878,19 +1892,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2325,23 +2327,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2455,26 +2457,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2717,14 +2719,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3247,25 +3249,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3555,27 +3557,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3718,15 +3720,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3752,13 +3754,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3775,9 +3777,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="8" t="s">
         <v>184</v>
       </c>
@@ -3792,9 +3794,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3805,9 +3807,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3818,108 +3820,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4521,31 +4523,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -4948,31 +4950,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
       <c r="X1" s="43"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
@@ -5263,31 +5265,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -5733,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -5752,19 +5754,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6097,10 +6099,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6314,7 +6316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -6339,25 +6341,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="151" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="A1" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6824,15 +6826,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -1468,7 +1468,7 @@
   <si>
     <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
 left blank means subnet will use default dhcp options of the vcn.
-dns_label - if specified as n, DNS will not be enabled for the subnet
+dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
 vcn_name should be same as enterd in VCNs sheet.
 Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
 seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
@@ -6340,7 +6340,7 @@
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="151" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -1458,14 +1458,6 @@
     <t>seclist_names</t>
   </si>
   <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
-dns_label - if specified as n, DNS will not be enabled for the VCN
-Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
-Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
-</t>
-  </si>
-  <si>
     <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
 left blank means subnet will use default dhcp options of the vcn.
 dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
@@ -1476,6 +1468,15 @@
 route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
  want any custom route table to be attached to the subnet.
 Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
+dns_label - if specified as n, DNS will not be enabled for the VCN
+Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
+Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
+Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
+</t>
   </si>
 </sst>
 </file>
@@ -5735,8 +5736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5753,9 +5754,9 @@
     <col min="10" max="10" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -6316,7 +6317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -6342,7 +6343,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -1404,12 +1404,6 @@
     <t>SecListName</t>
   </si>
   <si>
-    <t>Automation Toolkit release verion- v5.0
-Tabs Afected: VCNs, VCN Info, DHCP, subnets
-Changes: Addition/Modification of columns
-Removal of 2 sheets: AddSecRules and AddRouteRules</t>
-  </si>
-  <si>
     <t>PHXVCN3</t>
   </si>
   <si>
@@ -1477,6 +1471,11 @@
 Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
 Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
 </t>
+  </si>
+  <si>
+    <t>Automation Toolkit release verion- v6.0
+Tabs Affected: Subnets
+Major Feature - Support for NonGreenField Tenancies</t>
   </si>
 </sst>
 </file>
@@ -2287,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2296,9 +2295,9 @@
     <col min="1" max="1" width="167.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -3251,7 +3250,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -3559,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -4525,7 +4524,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -4952,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5267,7 +5266,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5736,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5754,9 +5753,9 @@
     <col min="10" max="10" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -5898,10 +5897,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -5946,10 +5945,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -5964,7 +5963,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>393</v>
@@ -6343,7 +6342,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -6391,7 +6390,7 @@
         <v>206</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
@@ -6828,7 +6827,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="419">
   <si>
     <t>Regional</t>
   </si>
@@ -2286,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2344,6 +2344,7 @@
       <c r="M1" s="59"/>
       <c r="N1" s="59"/>
       <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2391,7 +2392,9 @@
       <c r="O2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
@@ -2427,7 +2430,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6808,7 +6811,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6825,7 +6828,7 @@
     <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>413</v>
       </c>
@@ -6835,6 +6838,7 @@
       <c r="E1" s="59"/>
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6858,13 +6862,15 @@
       <c r="G2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="422">
   <si>
     <t>Regional</t>
   </si>
@@ -1213,10 +1213,6 @@
   </si>
   <si>
     <t>Exadata.Full1.336</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
   </si>
   <si>
     <t>ASHHub-VCN_ASHHub-VCN-subnet1</t>
@@ -1477,6 +1473,20 @@
 Tabs Affected: Subnets
 Major Feature - Support for NonGreenField Tenancies</t>
   </si>
+  <si>
+    <t>WindowsLatestFlex</t>
+  </si>
+  <si>
+    <t>VM.Standard.E3.Flex::5</t>
+  </si>
+  <si>
+    <t>LinuxLatestFlex</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+#If shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::ocpus</t>
+  </si>
 </sst>
 </file>
 
@@ -1485,7 +1495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1538,6 +1548,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1731,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1895,6 +1912,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,7 +2315,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -2328,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2357,7 +2375,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -2831,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -2845,7 +2863,7 @@
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" customWidth="1"/>
     <col min="11" max="11" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
@@ -2855,7 +2873,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2929,7 +2947,7 @@
         <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -2954,7 +2972,7 @@
       </c>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -2968,7 +2986,7 @@
         <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -2977,10 +2995,10 @@
         <v>174</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>176</v>
+        <v>418</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>419</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
@@ -3010,7 +3028,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -3040,7 +3058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>111</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -3063,10 +3081,10 @@
         <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>176</v>
+        <v>420</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
@@ -3253,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -3561,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -4527,7 +4545,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -4954,7 +4972,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5269,7 +5287,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5758,7 +5776,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -5797,10 +5815,10 @@
         <v>201</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>97</v>
@@ -5870,7 +5888,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5882,10 +5900,10 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -5900,10 +5918,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -5915,10 +5933,10 @@
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -5933,10 +5951,10 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -5948,10 +5966,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -5966,10 +5984,10 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -6037,7 +6055,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6103,7 +6121,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1" s="57"/>
     </row>
@@ -6117,7 +6135,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>105</v>
@@ -6345,7 +6363,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -6393,25 +6411,25 @@
         <v>206</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>97</v>
@@ -6830,7 +6848,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -6851,7 +6869,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>72</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="435">
   <si>
     <t>Regional</t>
   </si>
@@ -795,9 +795,6 @@
     <t>LBR Hostname</t>
   </si>
   <si>
-    <t>my_lbr</t>
-  </si>
-  <si>
     <t>Backend
 Policy(LEAST_CONNECTIONS|ROUND_ROBIN|IP_HASH)</t>
   </si>
@@ -817,9 +814,6 @@
   </si>
   <si>
     <t>400Mbps</t>
-  </si>
-  <si>
-    <t>10.111.1.4:80,Test2:81</t>
   </si>
   <si>
     <t>IP_HASH</t>
@@ -1423,10 +1417,6 @@
 Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
   </si>
   <si>
-    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; As of now allows only one BackendSet, One Listener and one Hostname for each LBR
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
     <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
 #Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
   </si>
@@ -1486,6 +1476,55 @@
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
 #Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
 #If shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::ocpus</t>
+  </si>
+  <si>
+    <t>ListenerName</t>
+  </si>
+  <si>
+    <t>listenr1</t>
+  </si>
+  <si>
+    <t>listenr2</t>
+  </si>
+  <si>
+    <t>my_lbr1</t>
+  </si>
+  <si>
+    <t>my_lbr2</t>
+  </si>
+  <si>
+    <t>100Mbps</t>
+  </si>
+  <si>
+    <t>PHXNonProd-VCN_qa-subnet</t>
+  </si>
+  <si>
+    <t>10.111.1.5:80,Test2:81</t>
+  </si>
+  <si>
+    <t>10.111.1.4:80,Test1:81</t>
+  </si>
+  <si>
+    <t>10.111.1.6:80</t>
+  </si>
+  <si>
+    <t>listenr</t>
+  </si>
+  <si>
+    <t>ROUND_ROBIN</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>app1.example.com</t>
+  </si>
+  <si>
+    <t>app2.example.com,app3.example.com</t>
+  </si>
+  <si>
+    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; Allows multiple Listeners(seperate rows) per LBR and multiple Hostnames(comma seperated) per Listener
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
   </si>
 </sst>
 </file>
@@ -1846,6 +1885,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1912,7 +1952,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2315,7 +2354,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2345,24 +2384,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="A1" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2375,7 +2414,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -2411,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
@@ -2478,26 +2517,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -2552,7 +2591,7 @@
         <v>85</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2592,7 +2631,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2740,14 +2779,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2849,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -2872,22 +2911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
+      <c r="A1" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2947,7 +2986,7 @@
         <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -2986,7 +3025,7 @@
         <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -2995,10 +3034,10 @@
         <v>174</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>419</v>
+        <v>415</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>416</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
@@ -3028,7 +3067,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -3072,7 +3111,7 @@
         <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -3081,10 +3120,10 @@
         <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>416</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
@@ -3128,16 +3167,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3270,25 +3309,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="A1" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -3348,7 +3387,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>214</v>
@@ -3357,7 +3396,7 @@
         <v>235</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3367,7 +3406,7 @@
         <v>234</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3381,7 +3420,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>214</v>
@@ -3390,17 +3429,17 @@
         <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3414,32 +3453,32 @@
         <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3451,32 +3490,32 @@
         <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3488,26 +3527,26 @@
         <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3548,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3560,47 +3599,49 @@
     <col min="2" max="2" width="12.54296875" style="17" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="17"/>
     <col min="4" max="4" width="12.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="17"/>
-    <col min="14" max="14" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="17"/>
-    <col min="18" max="18" width="11.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="17"/>
+    <col min="15" max="15" width="15.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="17"/>
+    <col min="19" max="19" width="11.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.36328125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-    </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+    </row>
+    <row r="2" spans="1:20" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>109</v>
       </c>
@@ -3611,112 +3652,228 @@
         <v>237</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>238</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>245</v>
-      </c>
       <c r="I2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>319</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="S2" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="T2" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="R2" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>151</v>
+        <v>249</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>379</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="1">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="1">
+        <v>443</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="1">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4" s="1">
+        <v>443</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="1">
-        <v>80</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" s="1">
-        <v>443</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="S3" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3741,15 +3898,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3775,13 +3932,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3798,9 +3955,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="8" t="s">
         <v>184</v>
       </c>
@@ -3815,9 +3972,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -3828,9 +3985,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -3841,108 +3998,108 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="64"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3979,14 +4136,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4075,14 +4232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4169,12 +4326,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -4305,16 +4462,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
+      <c r="A1" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
@@ -4324,22 +4481,22 @@
         <v>69</v>
       </c>
       <c r="C2" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="H2" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4347,16 +4504,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>269</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>271</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
@@ -4365,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4373,16 +4530,16 @@
         <v>110</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="32">
         <v>1</v>
@@ -4391,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4399,16 +4556,16 @@
         <v>111</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F5" s="32">
         <v>1</v>
@@ -4417,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4425,16 +4582,16 @@
         <v>111</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F6" s="32">
         <v>1</v>
@@ -4443,24 +4600,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
@@ -4469,24 +4626,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F8" s="32">
         <v>1</v>
@@ -4495,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4544,31 +4701,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="69"/>
+      <c r="A1" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -4578,67 +4735,67 @@
         <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>299</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U2" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -4646,67 +4803,67 @@
         <v>110</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G3" s="40">
         <v>1</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I3" s="40">
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="O3" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>310</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -4717,16 +4874,16 @@
         <v>110</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>176</v>
@@ -4735,49 +4892,49 @@
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I4" s="40">
         <v>256</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K4" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="N4" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O4" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="P4" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="R4" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="S4" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>310</v>
       </c>
       <c r="T4" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -4788,16 +4945,16 @@
         <v>110</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>176</v>
@@ -4806,49 +4963,49 @@
         <v>2</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I5" s="40">
         <v>256</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K5" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="M5" s="40" t="s">
+      <c r="N5" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O5" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="P5" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="Q5" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="R5" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="S5" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>310</v>
       </c>
       <c r="T5" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W5" s="1">
         <v>20</v>
@@ -4862,22 +5019,22 @@
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
@@ -4887,37 +5044,37 @@
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="408" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y408" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4971,31 +5128,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
+      <c r="A1" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
       <c r="X1" s="43"/>
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
@@ -5006,67 +5163,67 @@
         <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>299</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U2" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -5074,67 +5231,67 @@
         <v>110</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>214</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G3" s="40">
         <v>2</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I3" s="40">
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M3" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>313</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>315</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5145,67 +5302,67 @@
         <v>111</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G4" s="40">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I4" s="40">
         <v>256</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N4" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="P4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="Q4" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>309</v>
-      </c>
       <c r="S4" s="40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="T4" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -5219,17 +5376,17 @@
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5286,31 +5443,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="69"/>
+      <c r="A1" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -5320,67 +5477,67 @@
         <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>299</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U2" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -5388,22 +5545,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H3" s="40">
         <v>2</v>
@@ -5412,43 +5569,43 @@
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K3" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="M3" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="M3" s="40" t="s">
+      <c r="N3" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>310</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5462,42 +5619,42 @@
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y395" s="44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5533,11 +5690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -5625,15 +5782,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
@@ -5775,19 +5932,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5815,10 +5972,10 @@
         <v>201</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>97</v>
@@ -5888,7 +6045,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5900,10 +6057,10 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -5918,10 +6075,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -5933,10 +6090,10 @@
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -5951,10 +6108,10 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -5966,10 +6123,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -5984,10 +6141,10 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -6055,7 +6212,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6120,10 +6277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="57"/>
+      <c r="A1" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6135,7 +6292,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>105</v>
@@ -6152,7 +6309,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -6200,15 +6357,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6338,7 +6495,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6362,25 +6519,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="A1" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6411,25 +6568,25 @@
         <v>206</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>97</v>
@@ -6847,16 +7004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="A1" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -6869,7 +7026,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>72</v>
@@ -6881,7 +7038,7 @@
         <v>74</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -341,9 +341,6 @@
     <t>VolumeName</t>
   </si>
   <si>
-    <t>WindowsLatest</t>
-  </si>
-  <si>
     <t>dns_label</t>
   </si>
   <si>
@@ -418,10 +415,6 @@
 Enter Region as your tenancy's Home Region for Group Creation</t>
   </si>
   <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Tags Creation</t>
-  </si>
-  <si>
     <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
 # Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Enter Region as your tenancy's Home Region for Policy Creation</t>
@@ -590,9 +583,6 @@
   </si>
   <si>
     <t>VM.Standard2.8</t>
-  </si>
-  <si>
-    <t>LinuxLatest</t>
   </si>
   <si>
     <t>10.219.1.1</t>
@@ -1464,13 +1454,7 @@
 Major Feature - Support for NonGreenField Tenancies</t>
   </si>
   <si>
-    <t>WindowsLatestFlex</t>
-  </si>
-  <si>
     <t>VM.Standard.E3.Flex::5</t>
-  </si>
-  <si>
-    <t>LinuxLatestFlex</t>
   </si>
   <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
@@ -1525,6 +1509,22 @@
   <si>
     <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; Allows multiple Listeners(seperate rows) per LBR and multiple Hostnames(comma seperated) per Listener
 #Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>LinuxFlex</t>
+  </si>
+  <si>
+    <t>WindowsFlex</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical column under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Tags Creation</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2354,7 +2354,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2405,16 +2405,16 @@
     </row>
     <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -2450,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
@@ -2518,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -2540,19 +2540,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>76</v>
@@ -2561,13 +2561,13 @@
         <v>77</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>81</v>
@@ -2591,38 +2591,38 @@
         <v>85</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2631,21 +2631,21 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>86</v>
@@ -2654,13 +2654,13 @@
         <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -2687,22 +2687,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2711,12 +2711,12 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -2725,22 +2725,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="I6" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2780,7 +2780,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
@@ -2810,40 +2810,40 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2858,22 +2858,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2889,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2912,7 +2912,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
@@ -2966,45 +2966,45 @@
         <v>91</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>96</v>
+        <v>430</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>92</v>
@@ -3013,129 +3013,129 @@
     </row>
     <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>177</v>
+        <v>431</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -3168,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3218,13 +3218,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>92</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3244,13 +3244,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>92</v>
@@ -3310,7 +3310,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -3331,82 +3331,82 @@
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="O2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>228</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3417,29 +3417,29 @@
     </row>
     <row r="4" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3450,35 +3450,35 @@
     </row>
     <row r="5" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3487,35 +3487,35 @@
     </row>
     <row r="6" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3524,29 +3524,29 @@
     </row>
     <row r="7" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3589,7 +3589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -3619,7 +3619,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3643,225 +3643,225 @@
     </row>
     <row r="2" spans="1:20" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>243</v>
-      </c>
       <c r="P2" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="T2" s="30" t="s">
         <v>254</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K3" s="1">
         <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N3" s="1">
         <v>443</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K4" s="1">
         <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N4" s="1">
         <v>443</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K5" s="1">
         <v>80</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>14</v>
@@ -3899,7 +3899,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>120</v>
+        <v>434</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>88</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>51</v>
@@ -3942,7 +3942,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>34</v>
@@ -3959,7 +3959,7 @@
       <c r="B4" s="67"/>
       <c r="C4" s="65"/>
       <c r="D4" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
@@ -4137,7 +4137,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>40</v>
@@ -4167,39 +4167,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>94</v>
@@ -4233,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>95</v>
@@ -4263,39 +4263,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>94</v>
@@ -4327,7 +4327,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>48</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -4361,56 +4361,56 @@
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -4463,7 +4463,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -4475,45 +4475,45 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>263</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
@@ -4522,24 +4522,24 @@
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F4" s="32">
         <v>1</v>
@@ -4548,24 +4548,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F5" s="32">
         <v>1</v>
@@ -4574,24 +4574,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F6" s="32">
         <v>1</v>
@@ -4600,24 +4600,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F7" s="32">
         <v>1</v>
@@ -4626,24 +4626,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F8" s="32">
         <v>1</v>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4702,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -4729,141 +4729,141 @@
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="K2" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="M2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="N2" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>297</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G3" s="40">
         <v>1</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I3" s="40">
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="O3" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>308</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -4871,70 +4871,70 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G4" s="40">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I4" s="40">
         <v>256</v>
       </c>
       <c r="J4" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="N4" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="O4" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="R4" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="S4" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>308</v>
       </c>
       <c r="T4" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -4942,70 +4942,70 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="40">
         <v>2</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I5" s="40">
         <v>256</v>
       </c>
       <c r="J5" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="N5" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="M5" s="40" t="s">
+      <c r="O5" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="P5" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="Q5" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="R5" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="S5" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>308</v>
       </c>
       <c r="T5" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W5" s="1">
         <v>20</v>
@@ -5019,62 +5019,62 @@
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="44" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="403" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y403" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="404" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y404" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="405" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y405" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="406" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y406" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="407" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y407" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="408" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y408" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +5129,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="34" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -5157,141 +5157,141 @@
     </row>
     <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="M2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="N2" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>297</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G3" s="40">
         <v>2</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I3" s="40">
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K3" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="N3" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="M3" s="40" t="s">
+      <c r="O3" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="S3" s="40" t="s">
         <v>310</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>313</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5299,70 +5299,70 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G4" s="40">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I4" s="40">
         <v>256</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K4" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="N4" s="40" t="s">
+      <c r="O4" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>306</v>
-      </c>
       <c r="R4" s="40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S4" s="40" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T4" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W4" s="1">
         <v>15</v>
@@ -5376,17 +5376,17 @@
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="44" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="34" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -5471,96 +5471,96 @@
     </row>
     <row r="2" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="M2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="N2" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>297</v>
-      </c>
       <c r="T2" s="39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H3" s="40">
         <v>2</v>
@@ -5569,43 +5569,43 @@
         <v>256</v>
       </c>
       <c r="J3" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M3" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="M3" s="40" t="s">
+      <c r="O3" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>308</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -5619,42 +5619,42 @@
     </row>
     <row r="395" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y395" s="44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="396" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y396" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="397" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y397" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="398" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y398" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="399" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y399" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="400" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y400" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="401" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y401" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="402" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y402" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5691,14 +5691,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>48</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -5731,13 +5731,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5783,7 +5783,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>48</v>
@@ -5817,13 +5817,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>64</v>
@@ -5862,13 +5862,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -5933,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -5960,30 +5960,30 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -5992,10 +5992,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -6013,12 +6013,12 @@
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>51</v>
@@ -6027,7 +6027,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -6045,22 +6045,22 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -6075,25 +6075,25 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -6108,25 +6108,25 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -6141,28 +6141,28 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
@@ -6180,21 +6180,21 @@
         <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
@@ -6203,16 +6203,16 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6278,43 +6278,43 @@
   <sheetData>
     <row r="1" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -6322,10 +6322,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6358,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>51</v>
@@ -6407,18 +6407,18 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>10</v>
@@ -6427,35 +6427,35 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>51</v>
@@ -6464,16 +6464,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -6520,7 +6520,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -6565,36 +6565,36 @@
         <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="P2" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>397</v>
-      </c>
       <c r="Q2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -6603,10 +6603,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -6618,7 +6618,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">
@@ -6640,12 +6640,12 @@
         <v>13</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -6654,10 +6654,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -6666,11 +6666,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
@@ -6691,12 +6691,12 @@
         <v>14</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -6705,10 +6705,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -6717,11 +6717,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
@@ -6742,24 +6742,24 @@
         <v>13</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -6791,24 +6791,24 @@
         <v>13</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
@@ -6844,24 +6844,24 @@
         <v>14</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -6870,11 +6870,11 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
@@ -6895,7 +6895,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -7005,7 +7005,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -7017,16 +7017,16 @@
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>72</v>
@@ -7038,7 +7038,7 @@
         <v>74</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="29" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="402">
   <si>
     <t>Regional</t>
   </si>
@@ -388,12 +388,6 @@
     <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
 # Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Enter Region as your tenancy's Home Region for Policy Creation</t>
-  </si>
-  <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>Ashburn,Phoenix</t>
   </si>
   <si>
     <t>NSGName</t>
@@ -1020,6 +1014,302 @@
   </si>
   <si>
     <t>onprem_destinations</t>
+  </si>
+  <si>
+    <t>configure SGW route
+(n|object_storage|all_services)</t>
+  </si>
+  <si>
+    <t>configure NGW route
+(y|n)</t>
+  </si>
+  <si>
+    <t>configure IGW route (y|n)</t>
+  </si>
+  <si>
+    <t>configure OnPrem route (y|n)</t>
+  </si>
+  <si>
+    <t>configure VCNPeering
+route (y|n)</t>
+  </si>
+  <si>
+    <t>RouteTableName</t>
+  </si>
+  <si>
+    <t>SecListName</t>
+  </si>
+  <si>
+    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
+Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
+Resources will be created based on MountTargetName and FSSName columns.
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
+  </si>
+  <si>
+    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>Route Rules will be exported here</t>
+  </si>
+  <si>
+    <t>SecRules will be exported here</t>
+  </si>
+  <si>
+    <t>seclist_names</t>
+  </si>
+  <si>
+    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
+left blank means subnet will use default dhcp options of the vcn.
+dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
+vcn_name should be same as enterd in VCNs sheet.
+Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
+want any custom security list to be attached to the subnet.
+route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
+ want any custom route table to be attached to the subnet.
+Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
+dns_label - if specified as n, DNS will not be enabled for the VCN
+Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
+Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
+Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
+Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
+</t>
+  </si>
+  <si>
+    <t>Automation Toolkit release verion- v6.0
+Tabs Affected: Subnets
+Major Feature - Support for NonGreenField Tenancies</t>
+  </si>
+  <si>
+    <t>VM.Standard.E3.Flex::5</t>
+  </si>
+  <si>
+    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+#If shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::ocpus</t>
+  </si>
+  <si>
+    <t>ListenerName</t>
+  </si>
+  <si>
+    <t>listenr1</t>
+  </si>
+  <si>
+    <t>listenr2</t>
+  </si>
+  <si>
+    <t>my_lbr1</t>
+  </si>
+  <si>
+    <t>my_lbr2</t>
+  </si>
+  <si>
+    <t>100Mbps</t>
+  </si>
+  <si>
+    <t>10.111.1.5:80,Test2:81</t>
+  </si>
+  <si>
+    <t>10.111.1.4:80,Test1:81</t>
+  </si>
+  <si>
+    <t>10.111.1.6:80</t>
+  </si>
+  <si>
+    <t>listenr</t>
+  </si>
+  <si>
+    <t>ROUND_ROBIN</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>app1.example.com</t>
+  </si>
+  <si>
+    <t>app2.example.com,app3.example.com</t>
+  </si>
+  <si>
+    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; Allows multiple Listeners(seperate rows) per LBR and multiple Hostnames(comma seperated) per Listener
+#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
+  </si>
+  <si>
+    <t>LinuxFlex</t>
+  </si>
+  <si>
+    <t>WindowsFlex</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical column under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Tags Creation</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>Compartment for Common Network Objects</t>
+  </si>
+  <si>
+    <t>Compartment for EBS Network Resources</t>
+  </si>
+  <si>
+    <t>Compartment for other objects</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>Compartment for EBS-NPR Resources</t>
+  </si>
+  <si>
+    <t>Apps::EBS</t>
+  </si>
+  <si>
+    <t>Compartment for EBS other Resources</t>
+  </si>
+  <si>
+    <t>EBS_Admins</t>
+  </si>
+  <si>
+    <t>EBS admins</t>
+  </si>
+  <si>
+    <t>Hub Network Administrators</t>
+  </si>
+  <si>
+    <t>EBSInstancePolicy</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN</t>
+  </si>
+  <si>
+    <t>Network::EBS</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>Compartment for TCC Network Resources</t>
+  </si>
+  <si>
+    <t>Compartment for TCC other Resources</t>
+  </si>
+  <si>
+    <t>Compartment for TCC-PRD Resources</t>
+  </si>
+  <si>
+    <t>Apps::TCC</t>
+  </si>
+  <si>
+    <t>TCC_Admins</t>
+  </si>
+  <si>
+    <t>TCC admins</t>
+  </si>
+  <si>
+    <t>TCCInstancePolicy</t>
+  </si>
+  <si>
+    <t>Network::TCC</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN</t>
+  </si>
+  <si>
+    <t>lpgebs</t>
+  </si>
+  <si>
+    <t>lpgtcc</t>
+  </si>
+  <si>
+    <t>10.112.1.0/24</t>
+  </si>
+  <si>
+    <t>10.112.2.0/24</t>
+  </si>
+  <si>
+    <t>prd-subnet</t>
+  </si>
+  <si>
+    <t>10.112.3.0/24</t>
+  </si>
+  <si>
+    <t>dev_sl,common_sl</t>
+  </si>
+  <si>
+    <t>qa_sl,common_sl</t>
+  </si>
+  <si>
+    <t>prd_sl,common_sl</t>
+  </si>
+  <si>
+    <t>all_services</t>
+  </si>
+  <si>
+    <t>object_storage</t>
+  </si>
+  <si>
+    <t>ebs-nsg</t>
+  </si>
+  <si>
+    <t>tcc-nsg</t>
+  </si>
+  <si>
+    <t>EBSInstance</t>
+  </si>
+  <si>
+    <t>TCCInstance</t>
+  </si>
+  <si>
+    <t>DNS-Server-PhxHub</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_qa-subnet</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN_prd-subnet</t>
+  </si>
+  <si>
+    <t>Apps::TCC::PRD</t>
+  </si>
+  <si>
+    <t>EBSInstance_Disk2</t>
+  </si>
+  <si>
+    <t>TCCInstance_Disk2</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>PHXEBS-VCN_dev-subnet</t>
+  </si>
+  <si>
+    <t>y,y</t>
   </si>
   <si>
     <r>
@@ -1111,19 +1401,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">regions </t>
+      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n</t>
     </r>
     <r>
       <rPr>
@@ -1133,305 +1411,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">represents regions client's tenancy is subscribed to and plan to build infra for;accepts comma seperated list; case insensitive; (allowed values: ashburn, phoenix, london, frankfurt, toronto, tokyo, seoul, mumbai)
+      <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>configure SGW route
-(n|object_storage|all_services)</t>
-  </si>
-  <si>
-    <t>configure NGW route
-(y|n)</t>
-  </si>
-  <si>
-    <t>configure IGW route (y|n)</t>
-  </si>
-  <si>
-    <t>configure OnPrem route (y|n)</t>
-  </si>
-  <si>
-    <t>configure VCNPeering
-route (y|n)</t>
-  </si>
-  <si>
-    <t>RouteTableName</t>
-  </si>
-  <si>
-    <t>SecListName</t>
-  </si>
-  <si>
-    <t>Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and require_ps_port- false
-Mount target IP, FSS Capacity, FSS Inodes will take default values from OCI if left blank
-Resources will be created based on MountTargetName and FSSName columns.
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4)</t>
-  </si>
-  <si>
-    <t>#for DB Systems Virtual Machine, fill the sheet with required information, as suggested in 2 row headings | Select shape for Virtual Machine in "F" column and change Node Count accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after&lt;end&gt; or &lt;END&gt; for testing.  | If VM DB System node count is "2" then Software edition must be "ENTERPRISE_EDITION_EXTREME_PERFORMANCE"  
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems Bare Metal, fill the sheet with required information, as suggested in 2 row headings | Select shape for Bare Metal in "F" column and change CPU core and it should be a even (multiple of 2) value.  | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing | FOR CPU CORES --&gt; BM.DenseIO1.36 - Specify a multiple of 2, from 2 to 36 | BM.DenseIO2.52 - Specify a multiple of 2, from 2 to 52 
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>#for DB Systems ExaData, fill the sheet with required information, as suggested in 2 row headings | Select shape for EXADATA in "F" column and change CPU core accordingly | &lt;end&gt; or &lt;END&gt; is must | Type anything after &lt;end&gt; or &lt;END&gt; for testing. | Software edition is ENTERPRISE_EDITION_EXTREME_PERFORMANCE by default | Node count is 2 by default | FOR CPU CORES --&gt; Exadata.Base.48 - Specify a multiple of 2, from 0 to 48 | Exadata.Quarter1.84 - Specify a multiple of 2, from 22 to 84 | Exadata.Half1.168 - Specify a multiple of 4, from 44 to 168 | Exadata.Full1.336 - Specify a multiple of 8, from 88 to 336 | Exadata.Quarter2.92 - Specify a multiple of 2, from 0 to 92 | Exadata.Half2.184 - Specify a multiple of 4, from 0 to 184 | Exadata.Full2.368 - Specify a multiple of 8, from 0 to 368 
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>Route Rules will be exported here</t>
-  </si>
-  <si>
-    <t>SecRules will be exported here</t>
-  </si>
-  <si>
-    <t>seclist_names</t>
-  </si>
-  <si>
-    <t># subnet names are case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if
-left blank means subnet will use default dhcp options of the vcn.
-dns_label - if specified as n, DNS will not be enabled for the subnet; Make sure dns_label for VCN is enabled for its subnet DNS to be enabled.
-vcn_name should be same as enterd in VCNs sheet.
-Initially Route Rules for IGW, NGW and SGW, On Prem and VCN peering for each subnet would be created based on parameter values: configure IGW route, configure NGW route and configure SGW route, configure OnPrem route and configure VCNPeering route respectively for each subnet. The condition is the respective component should have been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-seclist_names - specify comma seperated names of SLs that needs to be attached to the subnet. If left blank, 1 seclist with name same as subnet name would be attached.  Specify n if you dont
-want any custom security list to be attached to the subnet.
-route_table_name - specify name of route table that needs to be attached to subnet. If left blank, route table with same name as subnet name would be attached. Specify n if you dont
- want any custom route table to be attached to the subnet.
-Subnets in a  VCN can share same route table and seclist depending upon name specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars.
-dns_label - if specified as n, DNS will not be enabled for the VCN
-Valid Values for columns E,F,G,H,I:   y|n|&lt;component_name&gt; ie mention 'n' when a component(like IGW) is not required to be configured(like for PHXHub-VCN), specify name of the component- component will be configured with the mentioned name(eg PHX-DRG for the DRG in PHXHub-VCN) and mention 'y' if component needs to be configured with default name ie &lt;vcnname&gt;_ngw(eg PHXNonProd-VCN_ngw)
-Note- For DRG, if declaring multiple DRGs for a region, make sure to specify unique names.
-Note- For LPGs, specify comma seperated values based on number of LPGs required for each VCN. LPGs will be peered with other VCN LPGs in the order they are specified.
-Note- For column hub_spoke_peer_none - specify 'hub' if the VCN is a hub, specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN and specify 'none' in case it is none of these.
-</t>
-  </si>
-  <si>
-    <t>Automation Toolkit release verion- v6.0
-Tabs Affected: Subnets
-Major Feature - Support for NonGreenField Tenancies</t>
-  </si>
-  <si>
-    <t>VM.Standard.E3.Flex::5</t>
-  </si>
-  <si>
-    <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot and block volumes together; Pub Address column represents whether public address needs to be assigned to the instance or not(TRUE|FALSE); ssh-key-var-name column accepts the name of variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server; NSGs column accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG; Leave DedicatedVMHost column blank if instance doesnt need to be launched on dedicated vm host
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-#If shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::ocpus</t>
-  </si>
-  <si>
-    <t>ListenerName</t>
-  </si>
-  <si>
-    <t>listenr1</t>
-  </si>
-  <si>
-    <t>listenr2</t>
-  </si>
-  <si>
-    <t>my_lbr1</t>
-  </si>
-  <si>
-    <t>my_lbr2</t>
-  </si>
-  <si>
-    <t>100Mbps</t>
-  </si>
-  <si>
-    <t>10.111.1.5:80,Test2:81</t>
-  </si>
-  <si>
-    <t>10.111.1.4:80,Test1:81</t>
-  </si>
-  <si>
-    <t>10.111.1.6:80</t>
-  </si>
-  <si>
-    <t>listenr</t>
-  </si>
-  <si>
-    <t>ROUND_ROBIN</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>app1.example.com</t>
-  </si>
-  <si>
-    <t>app2.example.com,app3.example.com</t>
-  </si>
-  <si>
-    <t>LBR Subnets: specify a single regional subnet name (recommended) or two comma seperated subnet names(AD specific) for public Load Balancer and provide a single subnet(Regional or AD specific) for Private load Balancer- subnets names should be same as defined in Subnets tab, Backend ServerName:Port- specify comma separated list of servernames:ports(either specify server name as same name defined in Instances sheet or specify the IP address); LBR Hostname can be null, all other fields are mandatory; Backend HealthCheck URL is required if Backend HealthCheck Protocol is HTTP; If you want to create an HTTPS Listener, please specify ListenerProtocol as HTTP and UseSSL as y; Allows multiple Listeners(seperate rows) per LBR and multiple Hostnames(comma seperated) per Listener
-#Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;</t>
-  </si>
-  <si>
-    <t>LinuxFlex</t>
-  </si>
-  <si>
-    <t>WindowsFlex</t>
-  </si>
-  <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical column under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Tags Creation</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Apps</t>
-  </si>
-  <si>
-    <t>EBS</t>
-  </si>
-  <si>
-    <t>Compartment for Common Network Objects</t>
-  </si>
-  <si>
-    <t>Compartment for EBS Network Resources</t>
-  </si>
-  <si>
-    <t>Compartment for other objects</t>
-  </si>
-  <si>
-    <t>NPR</t>
-  </si>
-  <si>
-    <t>PRD</t>
-  </si>
-  <si>
-    <t>Compartment for EBS-NPR Resources</t>
-  </si>
-  <si>
-    <t>Apps::EBS</t>
-  </si>
-  <si>
-    <t>Compartment for EBS other Resources</t>
-  </si>
-  <si>
-    <t>EBS_Admins</t>
-  </si>
-  <si>
-    <t>EBS admins</t>
-  </si>
-  <si>
-    <t>Hub Network Administrators</t>
-  </si>
-  <si>
-    <t>EBSInstancePolicy</t>
-  </si>
-  <si>
-    <t>PHXEBS-VCN</t>
-  </si>
-  <si>
-    <t>Network::EBS</t>
-  </si>
-  <si>
-    <t>TCC</t>
-  </si>
-  <si>
-    <t>Compartment for TCC Network Resources</t>
-  </si>
-  <si>
-    <t>Compartment for TCC other Resources</t>
-  </si>
-  <si>
-    <t>Compartment for TCC-PRD Resources</t>
-  </si>
-  <si>
-    <t>Apps::TCC</t>
-  </si>
-  <si>
-    <t>TCC_Admins</t>
-  </si>
-  <si>
-    <t>TCC admins</t>
-  </si>
-  <si>
-    <t>TCCInstancePolicy</t>
-  </si>
-  <si>
-    <t>Network::TCC</t>
-  </si>
-  <si>
-    <t>PHXTCC-VCN</t>
-  </si>
-  <si>
-    <t>lpgebs</t>
-  </si>
-  <si>
-    <t>lpgtcc</t>
-  </si>
-  <si>
-    <t>10.112.1.0/24</t>
-  </si>
-  <si>
-    <t>10.112.2.0/24</t>
-  </si>
-  <si>
-    <t>prd-subnet</t>
-  </si>
-  <si>
-    <t>10.112.3.0/24</t>
-  </si>
-  <si>
-    <t>dev_sl,common_sl</t>
-  </si>
-  <si>
-    <t>qa_sl,common_sl</t>
-  </si>
-  <si>
-    <t>prd_sl,common_sl</t>
-  </si>
-  <si>
-    <t>all_services</t>
-  </si>
-  <si>
-    <t>object_storage</t>
-  </si>
-  <si>
-    <t>ebs-nsg</t>
-  </si>
-  <si>
-    <t>tcc-nsg</t>
-  </si>
-  <si>
-    <t>EBSInstance</t>
-  </si>
-  <si>
-    <t>TCCInstance</t>
-  </si>
-  <si>
-    <t>DNS-Server-PhxHub</t>
-  </si>
-  <si>
-    <t>PHXEBS-VCN_qa-subnet</t>
-  </si>
-  <si>
-    <t>PHXTCC-VCN_prd-subnet</t>
-  </si>
-  <si>
-    <t>Apps::TCC::PRD</t>
-  </si>
-  <si>
-    <t>EBSInstance_Disk2</t>
-  </si>
-  <si>
-    <t>TCCInstance_Disk2</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>PHXEBS-VCN_dev-subnet</t>
-  </si>
-  <si>
-    <t>y,y</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2241,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2272,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="30" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -2319,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>66</v>
@@ -2355,7 +2337,7 @@
         <v>76</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -2423,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2454,10 +2436,10 @@
         <v>89</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>67</v>
@@ -2466,13 +2448,13 @@
         <v>68</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>69</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>72</v>
@@ -2496,7 +2478,7 @@
         <v>76</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
@@ -2504,13 +2486,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>106</v>
@@ -2519,12 +2501,12 @@
         <v>104</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="24"/>
       <c r="J3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>105</v>
@@ -2542,13 +2524,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>77</v>
@@ -2557,13 +2539,13 @@
         <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I4" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2584,13 +2566,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>106</v>
@@ -2599,13 +2581,13 @@
         <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2620,25 +2602,25 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="1"/>
@@ -2683,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -2716,17 +2698,17 @@
         <v>101</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2783,7 +2765,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2837,10 +2819,10 @@
         <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -2848,41 +2830,41 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -2890,38 +2872,38 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -2930,38 +2912,38 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -3035,7 +3017,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3044,13 +3026,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>83</v>
@@ -3061,7 +3043,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3070,13 +3052,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>83</v>
@@ -3136,7 +3118,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -3163,49 +3145,49 @@
         <v>60</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -3213,26 +3195,26 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3246,26 +3228,26 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3279,32 +3261,32 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3316,32 +3298,32 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3353,26 +3335,26 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3445,7 +3427,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -3475,58 +3457,58 @@
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="O2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>181</v>
-      </c>
       <c r="P2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -3534,56 +3516,56 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K3" s="1">
         <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N3" s="1">
         <v>443</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -3592,56 +3574,56 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K4" s="1">
         <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N4" s="1">
         <v>443</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -3650,44 +3632,44 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="K5" s="1">
         <v>80</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>14</v>
@@ -3725,7 +3707,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -3764,7 +3746,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -3778,7 +3760,7 @